--- a/evaluate/result/rag_evaluation_results_DaNang.xlsx
+++ b/evaluate/result/rag_evaluation_results_DaNang.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TDTU\Year_4_Semester1\Dự án\Code\evaluate\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE1A8370-0C1A-4090-B0A6-7A98C01F6105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF1FB51E-A927-4573-A94A-7CB61E3DF1D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="781">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="780">
   <si>
     <t>Question</t>
   </si>
@@ -2604,9 +2604,6 @@
   </si>
   <si>
     <t>The provided context contains only information about various restaurants in Hanoi and does not mention 43 Factory Coffee Roaster, its location, coffee offerings, or its reputation in Da Nang. Therefore, none of the key facts from the ground truth are recalled.</t>
-  </si>
-  <si>
-    <t>N/A</t>
   </si>
   <si>
     <t>The context consists of descriptions of various Hanoi restaurants and does not mention 43 Factory Coffee Roaster or any related information. Therefore it provides no support for the answer.</t>
@@ -3499,7 +3496,7 @@
   <dimension ref="A1:L118"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A99" zoomScale="69" workbookViewId="0">
-      <selection activeCell="C114" sqref="C114"/>
+      <selection activeCell="D115" sqref="D115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6769,48 +6766,48 @@
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B93" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C93" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D93">
         <v>1</v>
       </c>
       <c r="E93" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F93">
         <v>0.95</v>
       </c>
       <c r="G93" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H93">
         <v>0.85</v>
       </c>
       <c r="I93" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="J93">
         <v>1</v>
       </c>
       <c r="K93" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="L93" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B94" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C94" t="s">
         <v>188</v>
@@ -6819,22 +6816,22 @@
         <v>1</v>
       </c>
       <c r="E94" t="s">
-        <v>691</v>
-      </c>
-      <c r="F94" t="s">
+        <v>690</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94" t="s">
+        <v>689</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94" t="s">
         <v>688</v>
       </c>
-      <c r="G94" t="s">
-        <v>690</v>
-      </c>
-      <c r="H94" t="s">
-        <v>688</v>
-      </c>
-      <c r="I94" t="s">
-        <v>689</v>
-      </c>
-      <c r="J94" t="s">
-        <v>688</v>
+      <c r="J94">
+        <v>0</v>
       </c>
       <c r="K94" t="s">
         <v>687</v>
@@ -7111,200 +7108,200 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B102" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C102" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D102">
         <v>1</v>
       </c>
       <c r="E102" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="F102">
         <v>0.95</v>
       </c>
       <c r="G102" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="H102">
         <v>0.9</v>
       </c>
       <c r="I102" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="J102">
         <v>1</v>
       </c>
       <c r="K102" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="L102" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B103" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C103" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D103">
         <v>1</v>
       </c>
       <c r="E103" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F103">
         <v>1</v>
       </c>
       <c r="G103" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H103">
         <v>0.6</v>
       </c>
       <c r="I103" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="J103">
         <v>1</v>
       </c>
       <c r="K103" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="L103" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B104" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C104" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D104">
         <v>1</v>
       </c>
       <c r="E104" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="F104">
         <v>0.95</v>
       </c>
       <c r="G104" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H104">
         <v>0.95</v>
       </c>
       <c r="I104" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="J104">
         <v>1</v>
       </c>
       <c r="K104" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="L104" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B105" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C105" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D105">
         <v>1</v>
       </c>
       <c r="E105" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="F105">
         <v>0.95</v>
       </c>
       <c r="G105" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="H105">
         <v>0.9</v>
       </c>
       <c r="I105" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="J105">
         <v>1</v>
       </c>
       <c r="K105" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="L105" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B106" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C106" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="D106">
         <v>0.95</v>
       </c>
       <c r="E106" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="F106">
         <v>0.95</v>
       </c>
       <c r="G106" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="H106">
         <v>0.8</v>
       </c>
       <c r="I106" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="J106">
         <v>1</v>
       </c>
       <c r="K106" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="L106" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B107" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C107" t="s">
         <v>188</v>
@@ -7313,240 +7310,228 @@
         <v>0.95</v>
       </c>
       <c r="E107" t="s">
-        <v>746</v>
-      </c>
-      <c r="F107" t="s">
-        <v>688</v>
+        <v>745</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
       </c>
       <c r="G107" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="H107">
         <v>0.1</v>
       </c>
       <c r="I107" t="s">
-        <v>744</v>
-      </c>
-      <c r="J107" t="s">
-        <v>688</v>
+        <v>743</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
       </c>
       <c r="K107" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="L107" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B108" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C108" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D108">
         <v>1</v>
       </c>
       <c r="E108" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F108">
         <v>0.95</v>
       </c>
       <c r="G108" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="H108">
         <v>0.95</v>
       </c>
       <c r="I108" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="J108">
         <v>0.85</v>
       </c>
       <c r="K108" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="L108" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B109" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C109" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D109">
         <v>0.2</v>
       </c>
       <c r="E109" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="F109">
         <v>0.6</v>
       </c>
       <c r="G109" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H109">
         <v>0.65</v>
       </c>
       <c r="I109" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="J109">
         <v>1</v>
       </c>
       <c r="K109" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="L109" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B110" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C110" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D110">
         <v>1</v>
       </c>
       <c r="E110" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F110">
         <v>1</v>
       </c>
       <c r="G110" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H110">
         <v>0.9</v>
       </c>
       <c r="I110" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="J110">
         <v>0.95</v>
       </c>
       <c r="K110" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="L110" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B111" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C111" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D111">
         <v>1</v>
       </c>
       <c r="E111" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="F111">
         <v>1</v>
       </c>
       <c r="G111" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H111">
         <v>0.95</v>
       </c>
       <c r="I111" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="J111">
         <v>1</v>
       </c>
       <c r="K111" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="L111" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="117" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D117">
-        <f>COUNT(D2:D111)</f>
+        <f t="shared" ref="D117:J117" si="0">COUNT(D2:D111)</f>
         <v>110</v>
       </c>
       <c r="E117">
-        <f>COUNT(E2:E111)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F117">
-        <f>COUNT(F2:F111)</f>
-        <v>108</v>
+        <f t="shared" si="0"/>
+        <v>110</v>
       </c>
       <c r="G117">
-        <f>COUNT(G2:G111)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H117">
-        <f>COUNT(H2:H111)</f>
-        <v>109</v>
+        <f t="shared" si="0"/>
+        <v>110</v>
       </c>
       <c r="I117">
-        <f>COUNT(I2:I111)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J117">
-        <f>COUNT(J2:J111)</f>
-        <v>108</v>
+        <f t="shared" si="0"/>
+        <v>110</v>
       </c>
     </row>
     <row r="118" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D118">
-        <f>AVERAGE(D2:D111)</f>
+        <f t="shared" ref="D118:J118" si="1">AVERAGE(D2:D111)</f>
         <v>0.88272727272727314</v>
       </c>
-      <c r="E118" t="e">
-        <f>AVERAGE(E2:E111)</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="F118">
-        <f>AVERAGE(F2:F111)</f>
-        <v>0.69990740740740787</v>
-      </c>
-      <c r="G118" t="e">
-        <f>AVERAGE(G2:G111)</f>
-        <v>#DIV/0!</v>
+        <f t="shared" si="1"/>
+        <v>0.68718181818181856</v>
       </c>
       <c r="H118">
-        <f>AVERAGE(H2:H111)</f>
-        <v>0.6471559633027526</v>
-      </c>
-      <c r="I118" t="e">
-        <f>AVERAGE(I2:I111)</f>
-        <v>#DIV/0!</v>
+        <f t="shared" si="1"/>
+        <v>0.64127272727272755</v>
       </c>
       <c r="J118">
-        <f>AVERAGE(J2:J111)</f>
-        <v>0.59759259259259268</v>
+        <f t="shared" si="1"/>
+        <v>0.58672727272727276</v>
       </c>
     </row>
   </sheetData>

--- a/evaluate/result/rag_evaluation_results_DaNang.xlsx
+++ b/evaluate/result/rag_evaluation_results_DaNang.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TDTU\Year_4_Semester1\Dự án\Code\evaluate\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1524AFA-9E07-4D15-905F-DDB1BACFFC71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CFE2D32-C710-454F-8E51-DEF546703F64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="916">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="1018">
   <si>
     <t>Question</t>
   </si>
@@ -5536,6 +5536,312 @@
   </si>
   <si>
     <t>BERTScore_F1</t>
+  </si>
+  <si>
+    <t>Groundedness_Score</t>
+  </si>
+  <si>
+    <t>Groundedness_Details</t>
+  </si>
+  <si>
+    <t>SKIP: Địa chỉ: Ngay cầu Tình Yêu, Đà Nẵng....; PASS(Overlap=0.83), sent: Thời điểm đẹp nhất để ngắm: Ban đêm, khi ánh đèn sáng rực rỡ tạo nên khung cảnh huyền bí và lung linh.</t>
+  </si>
+  <si>
+    <t>PASS(NLI=1.00), sent: Ghềnh Bàng – Đà Nẵng.; PASS(NLI=1.00), sent: Đối tượng du khách phù hợp.; PASS(Overlap=0.67), sent: Nhóm bạn trẻ yêu thích du lịch tự túc, muốn khám phá những địa điểm hoang sơ, ít người đông đúc.; PASS(NLI=0.97), sent: Du khách muốn cắm trại qua đêm, dã ngoại, picnic ngoài trời.; PASS(Overlap=0.64), sent: Những người thích chụp ảnh, ngắm cảnh biển và các tảng đá độc đáo.; PASS(Overlap=0.75), sent: Người muốn trải nghiệm câu cá hoặc bắt cá trên các ghềnh đá.; PASS(NLI=0.89), sent: Các hoạt động thú vị tại Ghềnh Bàng.; FAIL(NLI=0.00, Ov=0.41): Cắm trại qua đêm – khu vực rộng rãi, bãi đá và bãi cát phẳng tạo điều kiện thuận lợi cho lều trại và bếp nướng....; PASS(Overlap=0.61), sent: Dã ngoại &amp; picnic – mang theo đồ ăn, củi lửa để thưởng thức bữa ăn ngoài trời giữa không gian thiên nhiên xanh mát.; PASS(NLI=0.56), sent: Chụp ảnh – các tảng đá hình thù đa dạng, ánh sáng ban ngày (đặc biệt vào mùa xuân và hè) tạo nên khung cảnh lung linh, rất được các bạn trẻ ưa thích.; PASS(Overlap=0.94), sent: Câu cá trên ghềnh đá – có thể ngồi trên các tảng đá để câu cá, hoặc bắt cá khu nước cạn.; SKIP: Tham quan bãi đá, san hô và bãi cát – đi...; PASS(NLI=0.82), sent: Thông tin cơ bản.; SKIP: Địa chỉ: Hoàng Sa, Thọ Quang, Sơn Trà, Đ...; SKIP: Khoảng cách từ trung tâm Đà Nẵng: khoảng...; PASS(Overlap=0.52), sent: Ghềnh Bàng là điểm dừng chân lý tưởng cho những ai muốn tận hưởng không gian tự nhiên hoang sơ, vừa có thể thư giãn, vừa có những hoạt động ngoài trời phong phú.</t>
+  </si>
+  <si>
+    <t>SKIP: Bán đảo Sơn Trà được mệnh danh là “viên ...; PASS(NLI=0.90), sent: Cảnh quan thiên nhiên đa dạng.; PASS(Overlap=0.84), sent: Rừng nguyên sinh rộng lớn với hệ thực vật phong phú, là nơi sinh sống của nhiều loài động vật quý hiếm, trong đó có voọc chà vá chân nâu – “nữ hoàng linh trưởng” được xếp hạng nguy cấp.; PASS(Overlap=0.83), sent: Bãi biển trong xanh quanh năm như Tiên Sa, Đá Đen, Bãi Bụt, Bãi Mỹ Khê, mang lại trải nghiệm “lên rừng, xuống biển” độc đáo.; PASS(Overlap=0.83), sent: Đỉnh Bàn Cờ, hải đăng Sơn Trà, Mũi Nghê cho góc nhìn toàn cảnh thành phố Đà Nẵng và biển Đông, đặc biệt là bình minh đầu tiên tại Mũi Nghê.; PASS(Overlap=0.75), sent: Di tích và điểm tham quan nổi bật.; SKIP: Chùa Linh Ứng với tượng Quan Thế Âm cao ...; PASS(Overlap=0.60), sent: Hải đăng Tiên Sa và nhà Vọng Cảnh – những công trình mang giá trị lịch sử và kiến trúc đặc sắc.; PASS(Overlap=0.69), sent: Cây đa nghìn năm tuổi – biểu tượng của sự bền vững và văn hoá địa phương.; PASS(Overlap=0.83), sent: Hoạt động du lịch phong phú.; PASS(Overlap=0.94), sent: Lặn biển ngắm san hô, câu cá, tham quan rừng, trekking lên đỉnh để ngắm toàn cảnh.; PASS(NLI=0.96), sent: Thưởng thức hải sản tươi ngon tại các khu chợ ngã ba Hoàng Sa – Lê Đức Thọ, cùng các đặc sản địa phương như rau rừng, thịt rừng và rượu dừa truyền thống.; PASS(Overlap=0.70), sent: Bảo tồn môi trường – Các quy định cấm xe tay ga trên một số tuyến đường và không cho động vật hoang dã ăn, giúp duy trì môi trường sinh thái trong lành, tạo nên một “viên ngọc” thiên nhiên còn nguyên vẹn giữa đô thị.; SKIP: Những yếu tố trên kết hợp tạo nên một đị...</t>
+  </si>
+  <si>
+    <t>SKIP: Cù Lao Chàm gồm 8 đảo nhỏ: Hòn Lao, Dài,...; PASS(Overlap=0.82), sent: Thời điểm lý tưởng để tham quan là tháng 3 – 8 mỗi năm.; PASS(Overlap=0.85), sent: Giai đoạn này thời tiết ấm áp, nắng vàng, biển trong và yên lặng, rất thích hợp cho việc lặn ngắm san hô, tham quan làng chài và tận hưởng không gian hoang sơ.; PASS(Overlap=0.78), sent: (Tránh các tháng còn lại vì có khả năng bão, biển động và đảo có thể bị cô lập.)</t>
+  </si>
+  <si>
+    <t>PASS(NLI=1.00), sent: Chiều cao của bức tượng Phật (Bà Quan Âm) tại Chùa Linh Ứng – Bãi Bụt.; PASS(Overlap=0.83), sent: 67 m – tương đương với một tòa nhà 30 tầng, là tượng Phật Quan Âm cao nhất Việt Nam.; PASS(Overlap=0.67), sent: Ý nghĩa của tượng.; PASS(Overlap=0.69), sent: Biểu tượng của từ bi và sự che chở: Đôi mắt hiền từ, tay trái cầm ấn tam muội (biểu trưng cho sự bảo hộ và sức mạnh), tay phải cầm bình nước cam lớn, tượng trưng cho việc “rưới an bình” cho những ngư dân và du khách ra khơi.; PASS(Overlap=0.73), sent: Bảo hộ cho người đi biển: Được đặt trên đỉnh núi, hướng ra biển, tượng Quan Âm mang thông điệp cầu chúc cho người dân địa phương và du khách luôn an toàn, bình an trên biển.; SKIP: Lời nhắc nhở về lòng từ bi: Như truyền t...; PASS(Overlap=0.81), sent: Với chiều cao 67 m và vị trí chiến lược trên Bãi Bụt, tượng không chỉ là một công trình kiến trúc ấn tượng mà còn là biểu tượng tâm linh sâu sắc, thu hút hàng ngàn du khách mỗi ngày đến chiêm bái và cảm nhận sự bình an, may mắn.</t>
+  </si>
+  <si>
+    <t>PASS(Overlap=0.61), sent: Bảo tàng 3D TrickEye Đà Nẵng mang lại trải nghiệm hoàn toàn khác biệt so với các bảo tàng truyền thống nhờ vào cách tiếp cận sáng tạo và tập trung vào “đánh lừa thị giác”.; SKIP: Dưới đây là những điểm nổi bật: Trải ngh...; PASS(Overlap=0.68), sent: Khi đứng trước các bức tranh và chụp ảnh, người tham quan sẽ “bị hút” vào trong khung hình, tạo cảm giác như đang sống trong một bức tranh thực tế.; PASS(Overlap=0.62), sent: Mục tiêu chính là chụp ảnh “viral”: Bảo tàng được thiết kế để khách tham quan có thể tự do di chuyển, tạo dáng và chụp hàng loạt ảnh sáng tạo.; PASS(Overlap=0.54), sent: Các góc chụp được bố trí sẵn với các chủ đề đa dạng (công chúa, rừng rậm, kim tự tháp Ai Cập, v.v.), giúp du khách “mỏi tay” với những bức ảnh độc đáo để chia sẻ trên mạng xã hội.; SKIP: Không yêu cầu kiến thức lịch sử: Các bảo...; PASS(Overlap=0.59), sent: TrickEye không yêu cầu người tham quan phải nặng đầu tìm hiểu; thay vào đó, nó mang lại niềm vui, sự bất ngờ và cảm giác khám phá qua ảo giác thị giác.; PASS(Overlap=0.58), sent: Phù hợp với mọi lứa tuổi, đặc biệt là giới trẻ: Với không gian năng động, màu sắc tươi sáng và các chủ đề hiện đại, TrickEye thu hút mạnh mẽ các nhóm bạn trẻ, gia đình và cả trẻ em.; PASS(Overlap=0.56), sent: Đây là địa điểm “check‑in” lý tưởng, còn các bảo tàng truyền thống thường hướng tới đối tượng học giả, sinh viên hoặc người yêu nghệ thuật.; PASS(Overlap=0.52), sent: Hoạt động giải trí đa dạng: Ngoài việc chụp ảnh, du khách còn có thể tham gia các khu vực “khu rừng bí ẩn”, “lăng mộ Ai Cập cổ đại” hay “câu chuyện cổ tích” được thiết kế theo phong cách tương tác, tạo cảm giác như đang tham gia vào một trò chơi thực tế ảo.; SKIP: Vị trí và tiện ích: Địa chỉ: Art in Para...; SKIP: Giá vé: 130.000 VNĐ/người lớn, 90.000 VN...; SKIP: Giờ mở cửa: 09:00 – 18:00 hằng ngày (trừ...; SKIP: Liên hệ: 0236 555 1234 (điện thoại)....; SKIP: Nhờ những yếu tố trên, Bảo tàng 3D Trick...</t>
+  </si>
+  <si>
+    <t>PASS(Overlap=1.00), sent: Ngôi Nhà Úp Ngược Đà Nẵng.; PASS(NLI=0.89), sent: Số lượng chủ đề phòng: 10 chủ đề khác nhau (phòng khách, phòng ngủ, phòng học, nhà bếp, toilet, phòng giặt là, mini‑mart, … và 2 phòng nghiêng 90° là quán ăn và salon tóc).; SKIP: Giá vé cho người lớn: 130.000 VND mỗi ng...</t>
+  </si>
+  <si>
+    <t>PASS(Overlap=1.00), sent: Suối khoáng nóng Thần Tài – Đà Nẵng.; PASS(NLI=0.98), sent: Loại hình tắm nổi tiếng: Onsen – kiểu tắm khoả thân truyền thống của Nhật Bản, được tái hiện tại khu suối khoáng.; PASS(Overlap=0.81), sent: Ngoài Onsen, du khách còn có thể trải nghiệm các dịch vụ tắm trị liệu đặc sắc như: tắm bùn, tắm rượu vang, tắm khoáng nóng, tắm sữa tươi và tắm cafe.; SKIP: Giá vé tham quan: Người lớn (cao từ 3 m)...; PASS(Overlap=0.67), sent: Trẻ em: Dưới 1 m: Miễn phí.; SKIP: Từ 1 m đến dưới 3 m: 50 % giá người lớn ...; PASS(Overlap=1.00), sent: Từ 3 m trở lên: tính giá người lớn.; PASS(Overlap=0.73), sent: Lưu ý: Giá vé áp dụng cho toàn bộ các dịch vụ tắm và các khu vui chơi trong công viên suối khoáng.; PASS(NLI=1.00), sent: Thời gian tham quan linh hoạt, phù hợp với mọi mùa trong năm, nhưng tháng 4‑9 thường được khuyến nghị vì thời tiết mát mẻ và ít mưa.</t>
+  </si>
+  <si>
+    <t>PASS(Overlap=0.71), sent: Trải nghiệm mạo hiểm nổi bật nhất: Trượt thác nước (điều khiển xuồng trượt thác) tại khu du lịch Hòa Phú Thành.; SKIP: Giá vé (ước tính): Vé trượt thác: 250.00...; SKIP: Vé vào cổng (trừ trẻ em dưới 1,2 m): 50....; SKIP: Thông tin chi tiết: Mỗi xuồng chở 2 ngườ...; FAIL(NLI=0.01, Ov=0.48): Ngày có 2 ca: 10:00 sáng và 14:00 chiều, vì vậy cần lên kế hoạch di chuyển để không bỏ lỡ ca....; SKIP: Địa chỉ: Km20 – QL 14G, Xã Hòa Phú, Huyệ...; SKIP: Đà Nẵng....; PASS(Overlap=0.72), sent: Đây là hoạt động lý tưởng cho những ai yêu thích cảm giác mạnh và muốn trải nghiệm thiên nhiên hoang sơ của Đà Nẵng.</t>
+  </si>
+  <si>
+    <t>PASS(Overlap=0.73), sent: Cầu Rồng Đà Nẵng thực hiện màn trình diễn phun lửa và phun nước vào 21:00 (9 giờ tối) vào các ngày: Thứ Bảy.; SKIP: Chủ nhật....; PASS(Overlap=0.94), sent: Ngoài ra, vào các ngày lễ lớn trong tuần cũng sẽ có cùng khung giờ biểu diễn.</t>
+  </si>
+  <si>
+    <t>PASS(NLI=0.96), sent: Ngũ Hành Sơn Đà Nẵng gồm 5 ngọn núi đá vôi, tượng trưng cho ngũ hành (Kim, Mộc, Thủy, Hỏa, Thổ).; SKIP: Kim Sơn....; SKIP: Mộc Sơn....; SKIP: Thủy Sơn....; SKIP: Hỏa Sơn....; SKIP: Thổ Sơn....; PASS(NLI=0.92), sent: Đây là các ngọn núi chính tạo nên quần thể danh thắng Ngũ Hành Sơn.</t>
+  </si>
+  <si>
+    <t>PASS(NLI=1.00), sent: Bãi biển Non Nước – Đà Nẵng.; SKIP: Vị trí thuận lợi: Nằm cách trung tâm thà...; SKIP: Bãi cát trắng mịn dài gần 5 km: Cát sạch...; PASS(Overlap=0.55), sent: Nước biển trong xanh, êm dịu: Sóng nhẹ, không mạnh, rất thích hợp cho trẻ em, người mới bơi và những ai muốn thư giãn mà không lo bị cuốn.; PASS(Overlap=0.91), sent: An toàn cao: Có đội cứu hộ và nhân viên an ninh luôn túc trực, giúp du khách yên tâm khi tắm biển hoặc tham gia các hoạt động thể thao trên nước.; PASS(Overlap=0.85), sent: Hoạt động đa dạng: Du khách có thể lướt ván, lái mô tô nước, đi ca nô hoặc chỉ đơn giản là ngắm cảnh và chụp ảnh.; PASS(Overlap=0.56), sent: Môi trường trong lành, không ô nhiễm: Không gian xanh mát, gió biển nhẹ, ánh nắng chan hòa, tạo nên không gian nghỉ dưỡng nguyên sơ và thoải mái.; PASS(Overlap=0.84), sent: Những yếu tố trên khiến Bãi biển Non Nước trở thành một trong những điểm đến yêu thích nhất của du khách khi tới Đà Nẵng.; SKIP: Địa chỉ: Đường ven biển Non Nước, Phường...; SKIP: Giá vé: Miễn phí vào cửa....; FAIL(NLI=0.00, Ov=0.17): Giờ mở cửa: 24 giờ mỗi ngày....</t>
+  </si>
+  <si>
+    <t>SKIP: Giờ hoạt động: Mở cửa từ 17:00 đến 22:30...; PASS(NLI=0.93), sent: (Lưu ý: các ngày mưa chợ sẽ không hoạt động.).; PASS(Overlap=0.90), sent: Điểm hấp dẫn dành cho du khách: Khu ẩm thực đa dạng – Hàng trăm gian hàng cung cấp đủ loại món ăn vặt và món ăn chính: bánh tráng trộn, bánh tráng nướng, bánh kẹp, trà chanh, ốc hút, ốc xào cay, trứng chén nướng, xiên que chiên, trái cây lắc, mì Quảng, bánh xèo, bún mắm, bún thịt nướng, cơm gà, mì xào, súp, lẩu ly… Tất cả được chế biến ngay tại chỗ, luôn nóng hổi và an toàn vệ sinh.; PASS(NLI=0.98), sent: Phố hải sản tự chọn – Du khách có thể tự chọn hải sản tươi sống và ngay lập tức được các quầy chế biến, mang lại trải nghiệm “tự tay nấu” ngay trong chợ.; PASS(NLI=0.83), sent: Khu phụ kiện – Hàng trăm gian hàng bán các mặt hàng thời trang, phụ kiện, quà lưu niệm, phù hợp cho việc mua sắm nhanh chóng.; PASS(NLI=0.99), sent: Khu lễ hội sôi động – Chủ đề thay đổi theo từng tháng, tạo không gian lễ hội độc đáo và năng động.; PASS(NLI=0.82), sent: Biểu diễn văn nghệ – Hai suất biểu diễn mỗi đêm vào 20:00 và 21:30, với các ban nhạc, vũ công đường phố, EDM, Vinahouse, acoustic, cover… tạo không khí giải trí sôi động.; PASS(NLI=0.97), sent: Không gian trẻ trung – Nhân viên chủ yếu là các bạn trẻ, bố trí đơn giản nhưng đầy năng lượng; các thùng ướp bia lạnh và bàn ghế làm từ thùng phuy tạo phong cách “công nghiệp” độc đáo.; PASS(NLI=0.66), sent: Nhờ sự kết hợp giữa ẩm thực phong phú, hải sản tươi sống, mua sắm đa dạng và các chương trình giải trí sống động, Chợ đêm Helio đã trở thành “thiên đường ẩm thực về đêm” và là điểm dừng chân không thể bỏ qua khi khám phá Đà Nẵng vào buổi tối.</t>
+  </si>
+  <si>
+    <t>PASS(NLI=0.57), sent: Công viên Châu Á – Asia Park Đà Nẵng.; PASS(NLI=0.45), sent: Quy mô: Diện tích gần 98 ha (tương đương khoảng 86.694 m²) nằm bên bờ Tây sông Hàn, vị trí đắc địa gần trung tâm thành phố Đà Nẵng.; SKIP: Địa chỉ: Số 1 Phan Đăng Lưu, Hoà Cường B...; SKIP: Mở cửa: Thứ 2 – Thứ 6: 15:00 – 22:00....; SKIP: Thứ 7 – Chủ nhật: 9:00 – 22:00....; SKIP: Giá vé (áp dụng cho toàn bộ khu vui chơi...; SKIP: Trẻ em (cao 1 m – 1,3 m): 100 000 đ – 20...; PASS(NLI=0.98), sent: Trẻ em dưới 1 m: miễn phí.; PASS(Overlap=0.80), sent: Ba khu vực chính: 1.; SKIP: Công viên giải trí ngoài trời hiện đại –...; PASS(Overlap=0.94), sent: Công viên văn hóa – các công trình kiến trúc và nghệ thuật thu nhỏ biểu tượng cho 10 quốc gia châu Á (Nhật Bản, Indonesia, Singapore, Hàn Quốc, Ấn Độ, Nepal, Thái Lan, Campuchia, Trung Quốc, Việt Nam).; PASS(Overlap=0.88), sent: Bao gồm Cổng Thành, Tháp Đồng hồ, Thuyền rồng, Tượng Phật… là điểm “check‑in” lý tưởng.; PASS(NLI=0.72), sent: Khu Sun Wheel – vòng quay mặt trời cao 115 m, nằm trong top 5 vòng quay cao nhất thế giới, là biểu tượng mới của Đà Nẵng.; PASS(Overlap=0.90), sent: Du khách có thể ngồi trong cabin an toàn, ngắm toàn cảnh thành phố từ trên cao, cả ngày lẫn đêm.; PASS(Overlap=0.77), sent: Hoạt động nổi bật: Monorail dạo quanh công viên, cho phép ngắm toàn bộ cảnh quan và các khu vực văn hoá.; PASS(Overlap=0.92), sent: Sun Wheel – trải nghiệm vòng quay cao, chụp ảnh toàn cảnh Đà Nẵng.; PASS(Overlap=0.70), sent: Các trò chơi cảm giác mạnh (tàu lượn, tháp rơi, máng trượt) dành cho người trẻ và người thích thử thách.; PASS(Overlap=0.73), sent: Khu văn hoá 10 quốc gia – khám phá kiến trúc, nghệ thuật và ẩm thực đặc trưng của mỗi quốc gia, rất phù hợp cho du khách muốn “du lịch vòng quanh châu Á” trong một địa điểm.; PASS(Overlap=0.76), sent: Khu vui chơi cho trẻ em – khu trò chơi điện, khu trò liên hoàn, khu xe điện đụng, phù hợp cho gia đình.; PASS(Overlap=0.82), sent: Với quy mô rộng lớn, ba khu vực đa dạng và các điểm nhấn như Sun Wheel và khu văn hoá 10 quốc gia, Asia Park là một trong những khu vui chơi giải trí tầm cỡ nhất Việt Nam, thu hút cả du khách trong và ngoài nước.</t>
+  </si>
+  <si>
+    <t>PASS(NLI=1.00), sent: Chợ đêm Sơn Trà – Đà Nẵng.; SKIP: Địa chỉ: Đường Lý Nam Đế giao với Mai Hắ...; SKIP: Giờ hoạt động: 18:00 – 24:00 mỗi ngày, v...; PASS(NLI=0.99), sent: Trải nghiệm nổi bật tại chợ.; PASS(NLI=1.00), sent: Ẩm thực đa dạng: Thưởng thức các món ăn vặt Đà Nẵng như bánh xèo, mì Quảng, bún mắm, bún thịt nướng, cơm gà, mì xào, súp, lẩu ly….; PASS(NLI=0.54), sent: Các món hải sản khô, hải sản tươi được bày bán và chế biến ngay tại chỗ, phù hợp cho cả ăn nhẹ lẫn ăn no.; SKIP: Giá các món ăn vặt thường chỉ từ 15 000 ...; PASS(Overlap=0.86), sent: Mua sắm đồ lưu niệm &amp; thủ công mỹ nghệ: Các gian hàng bán đồ lưu niệm, đồ thủ công, đặc sản địa phương và hải sản khô.; PASS(NLI=0.84), sent: Bạn có thể tìm những món quà nhỏ xinh, đồ trang trí mang đậm bản sắc Đà Nẵng để mang về.; FAIL(NLI=0.09, Ov=0.50): Khám phá không gian mua sắm tự do: Chợ mở cửa tự do, không có quy định thời gian chốt cửa, cho phép du khách dạo quanh, ghé thăm bất kỳ gian hàng nào mình muốn....; PASS(Overlap=0.60), sent: Bạn có thể tự do thương lượng giá và hỏi giá trước khi quyết định mua.; PASS(Overlap=0.77), sent: Vị trí thuận tiện để kết hợp tham quan: Nằm ngay chân Cầu Rồng và gần Cầu Tình Yêu, nên sau khi dạo chơi trên các cây cầu nổi tiếng, bạn chỉ cần một quãng đi bộ ngắn là tới chợ.; PASS(NLI=0.99), sent: Thích hợp cho du khách muốn kết hợp “ăn‑mua‑ngắm” trong một buổi tối.; PASS(Overlap=0.57), sent: Không khí sôi động về đêm: Ánh sáng lung linh, âm nhạc nhẹ nhàng và tiếng rao hàng tạo nên không gian náo nhiệt, thích hợp cho cả gia đình, nhóm bạn trẻ và khách quốc tế muốn trải nghiệm văn hoá địa phương.; SKIP: Những trải nghiệm trên giúp du khách vừa...</t>
+  </si>
+  <si>
+    <t>PASS(Overlap=1.00), sent: Cánh đồng hoa hướng dương Đà Nẵng.; SKIP: Địa chỉ: Thôn Phú Sơn Nam, xã Hòa Khương...; SKIP: Giá vé tham quan: Người lớn: 30.000 đồng...; SKIP: Học sinh, sinh viên: 20.000 đồng/người....; PASS(NLI=0.71), sent: Trẻ em: Miễn phí.; PASS(NLI=1.00), sent: Bạn có thể đến thăm, tự do check‑in và trải nghiệm trồng trọt tại đây.; FAIL(NLI=0.00, Ov=0.50): Chúc bạn có những khoảnh khắc tuyệt vời!...</t>
+  </si>
+  <si>
+    <t>PASS(NLI=0.85), sent: Cầu Tình Yêu Đà Nẵng.; PASS(NLI=0.91), sent: Kiến trúc &amp; Đặc điểm.; PASS(NLI=0.88), sent: Nằm trên bờ Đông sông Hàn, trên đường Trần Hưng Đạo, quận Sơn Trà, Đà Nẵng, ngay phía đầu cầu Rồng.; PASS(NLI=0.97), sent: Thiết kế mang phong cách Châu Âu hiện đại, với khung cầu uốn cong nhẹ nhàng tạo thành một vòng cung dài khoảng 68 m.; SKIP: Cầu được xây bằng thép và kính, tạo cảm ...; PASS(NLI=0.80), sent: Vị trí trung tâm giữa cầu Rồng và cầu Sông Hàn cho phép du khách ngắm toàn cảnh sông Hàn, thành phố và ánh sáng lung linh của các cây cầu khi trời tối.; PASS(NLI=0.94), sent: Hoạt động thường thấy của du khách.; PASS(NLI=0.36), sent: Ngắm cầu Rồng phun nước và ánh sáng vào các buổi tối thứ Bảy, Chủ Nhật; nhiều cặp đôi ghé qua Cầu Tình Yêu ngay sau khi xem màn trình diễn để chụp ảnh kỷ niệm.; PASS(NLI=0.79), sent: Check‑in, chụp ảnh: Cầu Tình Yêu được xem là “địa điểm chụp ảnh sống ảo đẹp nhất” ở Đà Nẵng, đặc biệt là vào lúc hoàng hôn và ban đêm khi cầu được chiếu sáng.; PASS(Overlap=0.74), sent: Khóa tình yêu: Các cặp đôi thường mua hoặc mang theo ổ khóa trái tim có khắc tên hai người, rồi khóa chặt vào thành cầu – một nghi lễ tượng trưng cho sự gắn kết bền lâu.; PASS(NLI=0.43), sent: Dạo bộ, ngắm cảnh: Cầu nằm ở vị trí thuận lợi để du khách dạo quanh bờ sông, thưởng thức không gian yên bình và nhìn ra toàn cảnh trung tâm thành phố.; PASS(NLI=0.85), sent: Thông tin thực tế.; SKIP: Địa chỉ: Đường Trần Hưng Đạo, An Hải Tru...; PASS(Overlap=0.66), sent: Giờ mở cửa: Cầu mở cửa 24 giờ, tuy nhiên thời gian tham quan lý tưởng là vào buổi tối khi cầu Rồng đang diễn trình diễn ánh sáng và phun nước.; SKIP: Giá vé: Miễn phí cho khách tham quan....; PASS(Overlap=0.75), sent: Với kiến trúc tinh tế và không gian lãng mạn, Cầu Tình Yêu không chỉ là một công trình giao thông mà còn là điểm hẹn hò lý tưởng cho các cặp đôi và du khách muốn lưu giữ những khoảnh khắc đáng nhớ tại Đà Nẵng.</t>
+  </si>
+  <si>
+    <t>PASS(Overlap=0.86), sent: Chợ Cồn Đà Nẵng là một trong những điểm đến “không thể bỏ qua” khi du lịch thành phố biển này.; SKIP: Dưới đây là những điểm nổi bật khiến du ...; SKIP: Địa chỉ: 290 Hùng Vương, Hải Châu (ngã t...; PASS(Overlap=0.62), sent: Gần các tuyến giao thông chính, có bãi đỗ xe dọc mặt đường Ông Ích Khiêm, giúp du khách di chuyển và đỗ xe dễ dàng.; PASS(Overlap=0.71), sent: Quy mô lớn, đa dạng mặt hàng.; PASS(Overlap=0.84), sent: Hơn 1.000 gian hàng trải dài trên ba tầng: tầng trệt chuyên bán thực phẩm tươi sống, nông sản, cà phê, hàng khô và khu ẩm thực; các tầng trên bán quần áo, hàng lưu niệm, thủ công và dịch vụ may đo nhanh.; PASS(Overlap=0.71), sent: Du khách có thể mua sắm từ thực phẩm, đồ gia dụng tới quà lưu niệm trong cùng một không gian.; PASS(Overlap=0.86), sent: Khu ẩm thực “thiên đường ăn vặt”.; PASS(Overlap=0.73), sent: Food court (7h‑15h) và street food (sau 15h) cung cấp hàng loạt món đặc sản miền Trung: Mì Quảng – sợi mì vàng óng, nước lèo đậm đà, kèm tôm, gà, trứng cút.; PASS(Overlap=0.75), sent: Bánh bèo – bánh mềm mịn, rắc tôm cháy, mỡ hành, chả, nem, ăn kèm nước mắm pha.; PASS(Overlap=1.00), sent: Bánh tráng cuốn thịt heo – thịt heo luộc mỏng, rau sống, cuốn trong bánh tráng mỏng, chấm mắm nêm.; SKIP: Bánh bột lọc, ốc, chè, mắm, mực rim me, ...; PASS(NLI=0.56), sent: Giá cả hợp lý và khả năng mặc cả.; PASS(NLI=1.00), sent: Hầu hết các món ăn và hàng hóa có mức giá “giá rẻ” (từ vài nghìn đồng).; PASS(Overlap=0.57), sent: Du khách có thể thương lượng, giảm giá lên tới 50 % so với giá gốc, tạo cảm giác “mua sắm thông minh”.; FAIL(NLI=0.00, Ov=0.17): Môi trường sạch sẽ, thoáng mát....; PASS(NLI=0.91), sent: Dù là chợ sầm uất nhất Đà Nẵng, đường đi luôn được giữ sạch sẽ, không rác thải, mang lại cảm giác thoải mái khi di chuyển và mua sắm.; FAIL(NLI=0.00, Ov=0.50): Giờ mở cửa và liên hệ....; SKIP: Giờ mở cửa: 06:00 – 18:00 hằng ngày....; FAIL(NLI=0.01, Ov=0.48): Điện thoại: +84 236 3837 426 (để hỏi thông tin về chỗ đỗ xe, sự kiện đặc biệt, hoặc hỗ trợ khách hàng)....; PASS(Overlap=0.67), sent: Hoạt động văn hoá và trải nghiệm địa phương.; PASS(Overlap=0.90), sent: Nơi đây không chỉ là chợ mua sắm mà còn là điểm giao lưu văn hoá: tiếng rao hàng, mùi thơm thực phẩm, không khí nhộn nhịp buổi sáng và sôi động buổi chiều.; PASS(NLI=0.78), sent: Du khách có thể cảm nhận nhịp sống sôi động của Đà Nẵng, khám phá phong cách ẩm thực và thói quen mua sắm của người dân địa phương.; PASS(Overlap=0.83), sent: Những yếu tố trên kết hợp lại tạo nên sức hấp dẫn đặc biệt của Chợ Cồn, khiến mỗi du khách khi đến Đà Nẵng đều muốn dành thời gian khám phá và thưởng thức.</t>
+  </si>
+  <si>
+    <t>PASS(NLI=0.51), sent: Chợ Hàn Đà Nẵng được gọi là “chợ nhà giàu” vì: Đối tượng khách hàng chủ yếu: Nơi đây là điểm mua sắm quen thuộc của du khách nước ngoài, đặc biệt là khách Hàn Quốc và các du khách quốc tế khác.; PASS(Overlap=0.57), sent: Các nhân viên bán hàng thường chào hỏi bằng tiếng của khách, tạo cảm giác “đặc quyền” cho người nước ngoài.; PASS(NLI=0.72), sent: Giá cả: So với các chợ khác trong thành phố, giá ở Chợ Hàn thường cao hơn mức trung bình.; SKIP: Các mặt hàng như bánh đậu xanh nhân thịt...; PASS(NLI=0.38), sent: Môi trường mua sắm: Với hơn một chục sạp ăn uống và hàng trăm gian hàng bán đồ khô, đặc sản, quần áo, phụ kiện, chợ Hàn tạo ra một không gian mua sắm phong phú, đáp ứng nhu cầu của khách du lịch muốn mua sắm quà lưu niệm và thực phẩm đặc trưng của Đà Nẵng.; FAIL(NLI=0.00, Ov=0.50): Vì vậy, chợ Hàn thu hút chủ yếu là du khách nước ngoài (đặc biệt là người Hàn Quốc) và những người có thu nhập trung bình‑cao, những người sẵn sàng chi trả cho các sản phẩm đặc sản và trải nghiệm mua sắm độc đáo tại trung tâm thành phố....</t>
+  </si>
+  <si>
+    <t>SKIP: Khách sạn Avava Boutique Đà Nẵng được du...; PASS(Overlap=0.75), sent: View đẹp và không gian thoáng: Khách sạn có quán bar và sân hiên, cho phép khách ngắm toàn cảnh thành phố một cách thoải mái.; PASS(Overlap=0.76), sent: Phòng nghỉ sang trọng, không hút thuốc: Tất cả các loại phòng (Grand Suite, Superior, Deluxe, gia đình) đều được lát sàn gỗ màu nâu trầm, nội thất gỗ đồng màu, giường lớn với ga gối trắng tinh tế, tạo cảm giác thanh lịch và ấm cúng.; PASS(NLI=0.99), sent: Đa dạng lựa chọn phòng: Có nhiều loại phòng phù hợp với nhu cầu cá nhân và gia đình, từ phòng Superior tới Grand Suite.; FAIL(NLI=0.01, Ov=0.31): Nhân viên nhiệt tình, thân thiện: Du khách thường xuyên khen ngợi sự phục vụ chu đáo và thái độ niềm nở của đội ngũ nhân viên....; PASS(NLI=0.61), sent: Khách sạn mới, sạch sẽ: Đánh giá cho thấy khách sạn còn mới, phòng ốc luôn sạch sẽ và bảo trì tốt.; SKIP: Những yếu tố trên đã giúp Avora Boutique...</t>
+  </si>
+  <si>
+    <t>PASS(NLI=0.97), sent: Chợ đêm Helio được mệnh danh là “thiên đường ẩm thực” của Đà Nẵng vì: Đa dạng món ăn.; PASS(Overlap=0.87), sent: Hơn 150 gian hàng ẩm thực, cung cấp hàng trăm món ăn từ ăn vặt (bánh tráng trộn, bánh tráng nướng, bánh kẹp, trà chanh, ốc hút, xiên que chiên, trái cây lắc…) đến các món ăn no (mì Quảng, bánh xèo, bún mắm, bún thịt nướng, cơm gà, mì xào, súp, lẩu ly).; PASS(NLI=0.99), sent: Có cả phố hải sản tươi sống, khu nướng bia sôi động và khu lễ hội với các chủ đề thay đổi hàng tháng, đáp ứng mọi sở thích ẩm thực của du khách.; PASS(NLI=0.98), sent: Số lượng và quy mô.; PASS(Overlap=0.67), sent: Với hàng trăm gian hàng và ba phân khu (ẩm thực, phụ kiện, lễ hội), chợ tạo ra một không gian rộng lớn, nơi du khách có thể tự do khám phá và thử nhiều món ăn trong một đêm.; PASS(NLI=1.00), sent: Không gian năng động và trẻ trung.; PASS(Overlap=0.84), sent: Nhân viên chủ yếu là các bạn trẻ, không gian được bày trí đơn giản nhưng đầy sức sống: thùng ướp bia lạnh, bàn ghế làm từ thùng phuy và bánh xe.; PASS(Overlap=0.74), sent: Các buổi biểu diễn văn nghệ (hai suất mỗi đêm vào 20h và 21h30) tạo thêm không khí lễ hội, khiến việc thưởng thức ẩm thực trở nên sinh động hơn.; PASS(NLI=1.00), sent: Vị trí thuận tiện.; SKIP: Địa chỉ: Khu công viên Đông Nam Đài tưởn...; PASS(NLI=0.98), sent: Giờ hoạt động linh hoạt.; SKIP: Mở cửa từ 17h00 đến 22h30 mỗi ngày (trừ ...; PASS(NLI=1.00), sent: Thời gian này cho phép du khách vừa tham quan, vừa thưởng thức ẩm thực sau buổi chiều khám phá thành phố.; PASS(Overlap=0.75), sent: Giá cả hợp lý.; SKIP: Các món ăn vặt thường có mức giá từ 20.0...; PASS(Overlap=0.67), sent: Tất cả những yếu tố trên kết hợp lại tạo nên một điểm đến ẩm thực phong phú, sôi động và đầy màu sắc, khiến chợ đêm Helio xứng đáng được gọi là “thiên đường ẩm thực” của Đà Nẵng.</t>
+  </si>
+  <si>
+    <t>PASS(NLI=1.00), sent: Giờ mở cửa.; SKIP: Thứ 2 – Thứ 5: 15:00 – 22:00....; SKIP: Thứ 6 – Chủ nhật: 09:00 – 22:00....; PASS(NLI=0.86), sent: Giá vé tham quan.; SKIP: Người lớn: 200.000 VNĐ/người (từ Thứ 2 đ...; SKIP: 300.000 VNĐ/người (từ Thứ 6 đến Chủ nhật...; SKIP: Trẻ em (cao 1 m – 1,3 m): 150.000 VNĐ/ng...; SKIP: 200.000 VNĐ/người (từ Thứ 6 đến Chủ nhật...; PASS(Overlap=0.83), sent: Trẻ em dưới 1 m: Miễn phí.; SKIP: Giá vé này bao gồm việc tham quan vòng q...</t>
+  </si>
+  <si>
+    <t>PASS(NLI=0.98), sent: Vòng quay Sun Wheel tại Asia Park – Đà Nẵng có chiều cao 115 m, nằm trong top 5 vòng quay cao nhất thế giới.; PASS(NLI=0.98), sent: Ý nghĩa với Đà Nẵng.; PASS(Overlap=0.79), sent: Biểu tượng mới của thành phố: Sun Wheel được xem như một “cánh tay” hiện đại, nổi bật trên skyline Đà Nẵng, tạo nên hình ảnh nhận diện đặc trưng cho du lịch thành phố.; PASS(NLI=0.53), sent: Cầu nối giữa truyền thống và hiện đại: Vòng quay nằm trong khu Sun Wheel, nơi giao thoa giữa kiến trúc hiện đại và các công trình nghệ thuật truyền thống của 10 quốc gia châu Á, phản ánh tinh thần đa văn hoá và sáng tạo của Đà Nẵng.; PASS(Overlap=0.72), sent: Thu hút du khách: Với cabin an toàn, chậm rãi, ngay cả những người yếu tim cũng có thể trải nghiệm, cho phép du khách ngắm toàn cảnh thành phố và sông Hàn từ độ cao, góp phần tăng lượng khách tham quan và thúc đẩy kinh tế địa phương.; PASS(Overlap=0.87), sent: Nhờ chiều cao ấn tượng và vai trò biểu tượng, Sun Wheel đã trở thành một trong những điểm “check‑in” và trải nghiệm không thể bỏ qua khi du lịch Đà Nẵng.</t>
+  </si>
+  <si>
+    <t>PASS(NLI=0.94), sent: Các trò chơi nổi bật tại Công viên Châu Á – Asia Park Đà Nẵng.; SKIP: Sky Treasure....; PASS(Overlap=0.88), sent: Trò cảm giác mạnh nhất trong công viên.; SKIP: Bạn sẽ ngồi cùng đoàn nhiều người, chạy ...; SKIP: Cảm giác thay đổi liên tục, khiến người ...; SKIP: Love Look....; PASS(NLI=1.00), sent: Trò chơi đòi hỏi thể lực và chịu được quay vòng nhanh.; PASS(NLI=0.89), sent: Khi tham gia, bạn sẽ ngồi và quay vòng tròn với tốc độ rất cao, tạo cảm giác chóng mặt.; PASS(Overlap=0.78), sent: Thích hợp cho những người có sức khỏe tốt.; SKIP: Dino Island....; PASS(Overlap=0.70), sent: Khu khám phá “đảo khủng long” dành cho trẻ em.; PASS(NLI=0.51), sent: Các xe ô tô nối đuôi nhau chạy vòng quanh trong không gian nhân tạo, mang lại cảm giác như đang sống trong thế giới của các loài khủng long.; PASS(NLI=0.77), sent: Trẻ em dưới 90 cm cần có người lớn đi cùng.; PASS(NLI=0.78), sent: Tàu lượn siêu tốc.; PASS(Overlap=0.84), sent: Một trong những trò chơi cảm giác mạnh đầu tiên xuất hiện tại Việt Nam, mang lại trải nghiệm bay nhanh và mạnh mẽ trên cao.; PASS(Overlap=0.75), sent: Tháp rơi tự do.; SKIP: Trò chơi thả rơi từ độ cao, tạo cảm giác...; PASS(Overlap=0.80), sent: Máng trượt tốc độ cao.; PASS(Overlap=0.72), sent: Đường trượt dài và dốc, cho phép người chơi cảm nhận tốc độ cao và cảm giác mạnh khi trượt xuống.; PASS(Overlap=0.60), sent: Sun Wheel (vòng quay Sun Wheel).; PASS(Overlap=0.82), sent: Vòng quay cao 115 m, nằm trong top 5 vòng quay cao nhất thế giới.; PASS(Overlap=0.78), sent: Bạn ngồi trong cabin an toàn, di chuyển chậm rãi, có thể ngắm toàn cảnh Đà Nẵng từ trên cao, ngày và đêm.; FAIL(NLI=0.01, Ov=0.00): Thông tin chung....; SKIP: Địa chỉ: Số 1 Phan Đăng Lưu, Hoà Cường B...; SKIP: Giờ mở cửa: Thứ 2 – Thứ 5: 15:00 – 22:00...; SKIP: Giá vé: Người lớn 200 k (Thứ 2‑Thứ 5) / ...; PASS(Overlap=0.71), sent: Bạn có thể lựa chọn các trò chơi trên tùy theo sở thích và mức độ chịu đựng cảm giác mạnh.; SKIP: Chúc bạn có một ngày vui vẻ tại Asia Par...</t>
+  </si>
+  <si>
+    <t>PASS(NLI=1.00), sent: Tiệm ăn Chợ Lớn (Đà Nẵng).; PASS(Overlap=0.85), sent: Món nổi tiếng: Cơm thố – món ăn được mọi người nhắc đến nhiều nhất.; SKIP: Giờ phục vụ: Mở cửa từ 7:00 đến 2:00 sán...</t>
+  </si>
+  <si>
+    <t>FAIL(NLI=0.03, Ov=0.50): Bánh mì Ông Tý đã trở thành món ăn đêm nổi tiếng ở Đà Nẵng nhờ những yếu tố sau: Đặc trưng “take‑away”: Là một trong những món ăn “take‑away” được yêu thích nhất, phù hợp với du khách muốn ăn nhanh, tiện lợi sau những buổi dạo chơi đêm....; PASS(Overlap=0.91), sent: Topping giản dị nhưng chất lượng: Bánh mì chỉ được phủ chả bò, chả heo, muối tiêu, ớt bột và một chút bơ.; FAIL(NLI=0.00, Ov=0.33): Sự đơn giản này tạo nên hương vị truyền thống, không bị “phủ” bởi quá nhiều gia vị....; PASS(NLI=0.98), sent: Chả làm từ thịt tươi, không dùng bột hay chất bảo quản: Chả bò có màu hồng nhẹ, chả heo trắng đục, thơm, luôn có độ sần, lấm tấm trên bề mặt, mang lại cảm giác “đậm đà” và an toàn cho sức khỏe.; FAIL(NLI=0.00, Ov=0.50): Việc lọc kỹ gân, da, mỡ giúp bánh mì giữ được độ mềm vừa phải và hương vị tự nhiên....; SKIP: Giá cả hợp lý: Mức giá dao động từ 0 đ –...; FAIL(NLI=0.00, Ov=0.38): Thời gian mở cửa linh hoạt: Hoạt động từ 15h – 23h, đáp ứng nhu cầu ăn tối muộn và các buổi dạo phố đêm....; FAIL(NLI=0.01, Ov=0.37): Vị trí thuận tiện: Có ba cơ sở tại các khu vực trung tâm Hải Châu: 272 Hùng Vương....; PASS(Overlap=0.75), sent: 189 Trưng Nữ Vương.; PASS(Overlap=0.67), sent: 184 Quang Trung.; FAIL(NLI=0.01, Ov=0.32): Điều này giúp du khách dễ dàng tìm đến dù đang di chuyển trong các khu vực khác nhau của thành phố....; SKIP: Đánh giá cao từ du khách: Nhờ chất lượng...</t>
+  </si>
+  <si>
+    <t>PASS(NLI=0.99), sent: Quán Bánh Canh Bà Bé.; SKIP: Địa chỉ: Cổng chợ Cồn, đường Hùng Vương,...; SKIP: Giờ mở cửa: 19h – 0h....; SKIP: Mức giá: 0 đ – 50.000 đ....; PASS(NLI=1.00), sent: Đặc trưng món ăn: Bánh canh: Sợi bánh canh dẻo, nước dùng thơm ngon, kèm chả nêm vừa miệng.; PASS(NLI=1.00), sent: Bánh quẩy: Được phục vụ kèm mỗi tô bánh canh, đủ để “ưng cái bụng”.; PASS(NLI=1.00), sent: Tùy chọn thêm: Chả chiên, chả hấp hoặc bánh bột lọc nếu muốn tăng hương vị.; PASS(Overlap=0.60), sent: Quán nằm ngay cổng chợ Cồn, là điểm dừng chân lý tưởng khi khám phá ẩm thực đêm của Đà Nẵng, mang lại trải nghiệm ấm áp với tô bánh canh nóng hổi trong không khí se lạnh buổi tối.</t>
+  </si>
+  <si>
+    <t>FAIL(NLI=0.00, Ov=0.25): Phố ẩm thực đêm Phạm Hồng Thái là một điểm dừng chân không thể bỏ qua khi khám phá Đà Nẵng vào buổi tối....; FAIL(NLI=0.02, Ov=0.23): Những yếu tố hấp dẫn du khách bao gồm: Đặc sản địa phương....; FAIL(NLI=0.00, Ov=0.15): Cơm gà: Gà thơm ngon, da giòn, ăn kèm với cơm trắng mềm mịn và nước mắm chua ngọt đặc trưng....; FAIL(NLI=0.00, Ov=0.20): Mì xíu khô: Mì sợi mỏng, xào với xíu (thịt băm) và các loại rau thơm, vị đậm đà, vừa cay vừa ngọt....; FAIL(NLI=0.00, Ov=0.23): Bún bò: Bún mềm, nước dùng bò ngọt thanh, kèm thảo mộc và chanh tươi, mang lại hương vị đậm chất miền Trung....; FAIL(NLI=0.01, Ov=0.00): Không gian sôi động....; FAIL(NLI=0.00, Ov=0.27): Đường Phạm Hồng Thái trở nên nhộn nhịp vào buổi tối với ánh đèn màu vàng ấm áp, tiếng rao gọi của các quầy hàng và hương thơm lan tỏa từ các món ăn....; FAIL(NLI=0.00, Ov=0.12): Du khách có thể ngồi trên những chiếc ghế gập gọn, thưởng thức món ăn ngay tại chỗ hoặc mang đi dạo quanh khu phố....; FAIL(NLI=0.00, Ov=0.00): Giá cả hợp lý....; SKIP: Các món ăn thường có mức giá từ 30.000 –...; FAIL(NLI=0.00, Ov=0.00): Vị trí thuận tiện....; SKIP: Địa chỉ: Đường Phạm Hồng Thái, Quận Hải ...; FAIL(NLI=0.00, Ov=0.04): Gần các điểm tham quan như Cầu Rồng và Bãi biển Mỹ Khê, dễ dàng di chuyển bằng taxi, xe máy hoặc đi bộ....; FAIL(NLI=0.01, Ov=0.00): Thời gian hoạt động....; SKIP: Các quầy ăn mở từ 18:00 đến 23:00, tạo đ...; FAIL(NLI=0.00, Ov=0.24): Những yếu tố trên khiến Phố ẩm thực đêm Phạm Hồng Thái trở thành “thiên đường” ẩm thực, thu hút cả người dân địa phương lẫn khách du lịch muốn trải nghiệm hương vị đặc trưng của Đà Nẵng vào buổi tối....</t>
+  </si>
+  <si>
+    <t>PASS(Overlap=0.80), sent: Quán Bún Bò Bà Nữ.; PASS(Overlap=0.58), sent: Điểm đặc biệt: Vị bún bò đậm đà, được truyền thống ẩm thực Huế ảnh hưởng, khiến hương vị trở nên đặc trưng và hấp dẫn.; PASS(Overlap=0.69), sent: Thực đơn phong phú với nhiều loại topping: gân, giò, xương, chả, đuôi bò… khách có thể tự do lựa chọn để tạo nên tô “thập cẩm” đầy đủ và vừa miệng.; PASS(Overlap=0.68), sent: Là một trong những quán ăn vỉa hè mở cửa khuya nhất ở Đà Nẵng, luôn đông khách ngay cả sau 11h đêm.; SKIP: Giờ mở cửa: 20:00 – 01:00 sáng....</t>
+  </si>
+  <si>
+    <t>SKIP: Quán cháo vịt Hùng Vương (địa chỉ: dọc đ...; PASS(Overlap=0.77), sent: Món ăn chủ lực: Cháo vịt – cháo đặc sánh được hầm từ gạo, đậu xanh, gan mề, tiết vịt, ăn kèm nước mắm gừng.; SKIP: Giờ mở cửa: 18:00 – 24:00 hằng ngày....</t>
+  </si>
+  <si>
+    <t>PASS(NLI=0.80), sent: Quán Nhóp Nhép – Đà Nẵng.; PASS(NLI=0.56), sent: Món ăn chủ lực: Lẩu: lẩu Thái, lẩu gà, lẩu hải sản, lẩu bò….; FAIL(NLI=0.01, Ov=0.37): Đồ nướng: đa dạng các loại thịt và hải sản, trong đó hải sản là món được ưa chuộng nhất....; FAIL(NLI=0.03, Ov=0.45): Đối tượng phù hợp: Nhóm bạn bè: không gian hiện đại, phục vụ nhanh và bày trí đẹp mắt, rất thích hợp cho buổi tụ họp, tiệc nướng, lẩu vào buổi tối....; PASS(NLI=0.99), sent: Khách du lịch muốn trải nghiệm ẩm thực đêm Đà Nẵng: thực đơn phong phú, giá cả hợp lý, dễ dàng chia sẻ các món nướng và lẩu cùng nhau.; SKIP: Thông tin chi tiết: Địa chỉ: 45 Hải Phòn...; SKIP: Giá cả: từ 4.000 đ đến 130.000 đ mỗi món...; SKIP: Giờ mở cửa: 16:00 – 23:00 (hoạt động vào...; SKIP: Với thực đơn đa dạng và không gian năng ...</t>
+  </si>
+  <si>
+    <t>PASS(NLI=0.89), sent: So sánh nhanh giữa Chợ đêm Helio và Chợ đêm Sơn Trà.; SKIP: Tiêu chí Chợ đêm Helio Chợ đêm Sơn Trà V...; SKIP: Tóm lại....; PASS(Overlap=0.79), sent: Helio là “thiên đường ẩm thực” hiện đại, sôi động, thu hút giới trẻ và du khách muốn thử đa dạng món ăn, đặc biệt là hải sản tự chọn và các khu phụ kiện.; PASS(Overlap=0.68), sent: Sơn Trà mang không khí gia đình, thân thiện, tập trung vào ẩm thực truyền thống và trải nghiệm văn hoá địa phương, đồng thời là nơi lý tưởng để mua sắm quà lưu niệm nhỏ xinh.; PASS(Overlap=0.78), sent: Bạn có thể lựa chọn Helio nếu muốn một buổi tối náo nhiệt, đa dạng món ăn và hoạt động giải trí; hoặc Sơn Trà nếu muốn cảm nhận không gian ấm áp, khám phá ẩm thực địa phương và mua sắm quà lưu niệm cho gia đình.</t>
+  </si>
+  <si>
+    <t>PASS(Overlap=0.75), sent: Bánh xèo Bà Dưỡng được xem là món ăn đêm “phải thử” ở Đà Nẵng vì: Hương vị đặc trưng, ngây ngất: Vỏ bánh được chiên vàng nghệ, giòn rụm, không nhiều dầu và không ngấy.; SKIP: Nhân bánh gồm tôm tươi, thịt heo xay và ...; PASS(Overlap=0.77), sent: Nước chấm độc đáo: Nước chấm pha từ gan, lạc và các loại gia vị, vừa ngọt vừa cay, đậm đà, khác hẳn với các quán bánh xèo khác ở Đà Nẵng.; PASS(Overlap=0.75), sent: Khi ăn kèm rau thơm, xòa, dưa leo cắt mỏng, hương vị càng được nâng tầm.; FAIL(NLI=0.00, Ov=0.45): Phục vụ nhanh, không gian giản dị: Quán mở cửa từ 9h đến 22h30 (hoặc 21h30 tùy ngày), phù hợp cho những ai muốn thưởng thức món ăn đêm sau khi dạo phố....; FAIL(NLI=0.00, Ov=0.44): Dịch vụ nhanh gọn, không gian thoáng đãng, tạo cảm giác thoải mái cho thực khách....; SKIP: Giá cả hợp lý: Giá từ 0 – 80.000 VNĐ (tù...; SKIP: Thông thường, một chiếc bánh xèo chỉ kho...; SKIP: Địa chỉ thuận tiện: Nằm tại 280/23 Hoàng...; SKIP: Những yếu tố trên – hương vị độc đáo, nư...</t>
+  </si>
+  <si>
+    <t>PASS(Overlap=0.65), sent: Beer Plaza tại Bà Nà Hills nổi bật với những điểm đặc biệt sau so với các nhà hàng buffet khác trong khu du lịch: Phong cách ẩm thực Đức kết hợp đa quốc gia.; PASS(NLI=1.00), sent: Thực đơn buffet có hơn 70 món ăn đa dạng, bao gồm các món đặc trưng của Thái Lan, Việt Nam, Trung Hoa, Nhật Bản và châu Âu, trong đó có Nem rán Hà Nội, Bê xông khói, Bò Mỹ nướng và quầy BBQ.; PASS(Overlap=0.58), sent: Đặc biệt, thực khách còn được thưởng thức bữa ăn kèm bia Đức – một trải nghiệm độc đáo không có ở các nhà hàng khác.; FAIL(NLI=0.01, Ov=0.00): Giá cả hợp lý kèm “gói trọn gói”....; SKIP: Buổi trưa: 25.000 đ/người....; SKIP: Buổi tối (17h00‑21h30): 280.000 đ/người,...; PASS(NLI=0.98), sent: Không gian và hoạt động giải trí.; PASS(NLI=0.71), sent: Nằm trên quảng trường khu làng Pháp, trong khuôn viên khu du lịch Bà Nà, tạo cảm giác như đang ở một lễ hội châu Âu.; SKIP: Từ 17h00 đến 21h30 mỗi ngày, Beer Plaza ...; PASS(NLI=0.95), sent: Giờ mở cửa linh hoạt.; FAIL(NLI=0.01, Ov=0.32): 11h00‑15h00 và 17h00‑21h30, cho phép du khách lựa chọn thời gian phù hợp để trải nghiệm bữa trưa nhẹ nhàng hoặc buổi tối sôi động....; FAIL(NLI=0.04, Ov=0.25): Vị trí thuận lợi....; FAIL(NLI=0.27, Ov=0.50): Nằm ngay trên quảng trường khu làng Pháp, dễ dàng tiếp cận sau khi tham quan các điểm tham quan khác trên Bà Nà Hills....; SKIP: Những yếu tố trên – ẩm thực Đức đặc trưn...</t>
+  </si>
+  <si>
+    <t>PASS(Overlap=0.88), sent: Nhà hàng Le Louvre ở Bà Nà Hills chuyên phục vụ ẩm thực Trung Quốc với các món đặc trưng như vịt quay Bắc Kinh, gà nướng Quảng Đông, sườn nướng sốt Kinh Đô và dimsum.</t>
+  </si>
+  <si>
+    <t>PASS(Overlap=0.52), sent: Tôi hiện chưa thể đưa ra câu trả lời chính xác vì dữ liệu liên quan đến yêu cầu của bạn chưa đầy đủ.; FAIL(NLI=0.00, Ov=0.32): Bạn hãy cung cấp thêm thông tin (như nguồn dữ liệu, nội dung cụ thể hoặc ví dụ minh hoạ) để tôi có thể hỗ trợ bạn hiệu quả hơn....</t>
+  </si>
+  <si>
+    <t>SKIP: Đỉnh Bàn Cờ nằm trên bán đảo Sơn Trà của...; PASS(Overlap=0.86), sent: Vì sao Đỉnh Bàn Cờ nổi tiếng?.; PASS(Overlap=0.76), sent: Truyền thuyết “hai vị tiên giỏi cờ”: Theo câu chuyện dân gian, trên đỉnh này từng diễn ra một trận đấu cờ kéo dài từ ngày này sang ngày khác giữa hai vị tiên của “nhà trời”.; PASS(Overlap=0.88), sent: Khi một vị tiên sai nước cờ, người còn lại thắng và “cưỡi mây bay về trời”.; PASS(Overlap=0.70), sent: Để ghi nhớ truyền thuyết, người dân đã dựng một bàn cờ và một tượng tiên ông trên đỉnh, tạo nên một biểu tượng độc đáo không nơi nào có.; PASS(Overlap=0.79), sent: Khung cảnh toàn cảnh: Đỉnh Bàn Cờ cao hơn 700 m, cho phép du khách ngắm toàn bộ thành phố Đà Nẵng, các tòa nhà chọc trời, cầu sông Hàn, những con thuyền trên biển và dãy núi xanh mướt.; PASS(Overlap=0.78), sent: Từ đây, bình minh và hoàng hôn đều tạo ra những khung hình “sống ảo” tuyệt đẹp, thu hút nhiều nhiếp ảnh gia.; PASS(NLI=1.00), sent: Không gian yên bình, khí hậu mát mẻ: Khi lên cao, không khí trở nên trong lành, mát mẻ, có nắng nhẹ và gió thoảng, tạo cảm giác thư thái cho những ai “phượt” lên đỉnh.; PASS(NLI=1.00), sent: Hoạt động giải trí: Du khách có thể ngồi vào bàn cờ để tưởng tượng mình là “vua cờ”, chụp ảnh cùng tượng tiên ông, hoặc chỉ đơn giản là ngắm nhìn cảnh quan và thả mình vào không gian tĩnh lặng.; PASS(NLI=1.00), sent: Điểm dừng chân và tham quan trên đường lên: Khi di chuyển lên đỉnh, bạn sẽ đi qua các bãi biển đẹp như Bãi Tiên Sa, Bãi Bụt, Bãi Obama, Bãi Nồm, và có thể ghé thăm Chùa Linh Ứng – một trong những ngôi chùa linh thiêng nổi tiếng của Đà Nẵng.; PASS(Overlap=0.68), sent: Những điểm dừng chân này không chỉ cung cấp không gian nghỉ ngơi mà còn tăng thêm giá trị trải nghiệm thiên nhiên và văn hoá.; PASS(NLI=0.43), sent: Tóm lại, Đỉnh Bàn Cờ không chỉ là một địa danh thiên nhiên với tầm nhìn 360° tuyệt vời, mà còn là nơi lưu giữ một câu chuyện huyền thoại độc đáo, khiến nó trở thành một trong những điểm “check‑in” và khám phá không thể bỏ qua khi đến Đà Nẵng.</t>
+  </si>
+  <si>
+    <t>PASS(NLI=0.88), sent: Có 2 cung đường lên Đỉnh Bàn Cờ.; PASS(Overlap=0.83), sent: Cung đường phía cầu Thuận Phước.; PASS(Overlap=0.97), sent: Bắt đầu từ cầu Thuận Phước, đi dọc đường Yết Kiêu, rẽ vào khu Doanh trại quân đội nhân dân Vùng 3 Hải quân, sau đó lên thẳng tới đỉnh.; SKIP: Được đánh giá là dễ đi hơn, thích hợp ch...; PASS(Overlap=1.00), sent: Cung đường phía bờ biển Hoàng Sa.; PASS(Overlap=1.00), sent: Đi qua Chùa Linh Ứng, sau đó tiếp tục lên đỉnh.; PASS(Overlap=0.94), sent: Đường này khó đi hơn nhưng có cảnh quan hữu tình hơn, với các điểm dừng chân như Bãi Tiên Sa, Bãi Bụt, Bãi Obama, Bãi Nồm và khu dừng nghỉ có view hướng ra biển.; PASS(Overlap=0.86), sent: Đây là đường đẹp nhất và được khuyến nghị nếu bạn muốn trải nghiệm toàn bộ vẻ đẹp của bán đảo Sơn Trà.</t>
+  </si>
+  <si>
+    <t>PASS(NLI=0.94), sent: Phương tiện phù hợp để lên Đỉnh Bàn Cờ.; PASS(Overlap=0.67), sent: Xe máy (xe số mới, mạnh).; PASS(NLI=0.53), sent: Lý do chọn: Đường lên Đỉnh Bàn Cờ có nhiều đoạn dốc và địa hình gồ ghề; chỉ những chiếc xe số mới, động cơ mạnh mới có thể vượt qua.; PASS(Overlap=0.74), sent: Lưu ý khi di chuyển: Nên để nam giới lái để đảm bảo an toàn trên các đoạn dốc nguy hiểm.; PASS(Overlap=0.91), sent: Khi lên Bán đảo Sơn Trà, bạn có thể dừng lại bất kỳ nơi nào để quay phim, chụp hình hoặc check‑in.; PASS(Overlap=0.83), sent: Đường lên qua cầu Thuận Phước → Yết Kiêu → Doanh trại quân nhân được cho là dễ đi hơn, nhưng vẫn cần xe mạnh.; SKIP: Thuê xe máy tại Đà Nẵng khoảng 80.000 đ/...; PASS(Overlap=0.60), sent: Ô tô (xe 4 chỗ hoặc 7 chỗ).; PASS(Overlap=0.81), sent: Lý do chọn: Thích hợp cho người lớn tuổi, gia đình có trẻ nhỏ hoặc khi muốn di chuyển thoải mái mà không phải tự lái.; SKIP: Chi phí: Khoảng 250.000 đ cho xe 4 chỗ, ...; PASS(Overlap=0.81), sent: Lưu ý khi di chuyển: Không thể đi lên các điểm cao như Cây Đa Ngàn Năm và Đỉnh Bàn Cờ vì xe không đủ sức vượt dốc.; PASS(Overlap=0.95), sent: Khi di chuyển bằng ô tô, không thể ngắm cảnh xung quanh và chỉ dừng ở các điểm đã đặt trước.; PASS(Overlap=0.81), sent: Nếu muốn trải nghiệm toàn bộ hành trình, nên lên bằng xe máy và xuống bằng ô tô (hoặc ngược lại) để cảm nhận cả hai cung đường.; PASS(Overlap=0.72), sent: Kết luận: Đối với việc lên Đỉnh Bàn Cờ, xe máy là phương tiện tối ưu nhất vì khả năng vượt địa hình dốc và tự do dừng chân để thưởng ngoạn.; PASS(Overlap=0.71), sent: Nếu đi cùng người lớn tuổi hoặc trẻ nhỏ, có thể cân nhắc ô tô để di chuyển tới khu vực gần đỉnh, nhưng vẫn cần chuyển sang xe máy để hoàn thành phần leo dốc cuối cùng.</t>
+  </si>
+  <si>
+    <t>PASS(Overlap=0.80), sent: Cây Đa ngàn năm trên bán đảo Sơn Trà là một trong những điểm tham quan độc đáo và đầy ấn tượng của Đà Nẵng.; SKIP: Dưới đây là những yếu tố khiến cây đa nà...; PASS(Overlap=1.00), sent: Được mệnh danh là “già làng” của núi rừng.; SKIP: Theo truyền thuyết, cây đa là nơi các vị...; PASS(Overlap=0.71), sent: Tuổi thọ và giá trị khoa học.; SKIP: Được phát hiện vào năm 1771 và qua các n...; PASS(Overlap=0.67), sent: Đây là một trong những cây đa cổ nhất và lớn nhất Việt Nam, mang giá trị nghiên cứu sinh thái và lịch sử quan trọng.; FAIL(NLI=0.00, Ov=0.25): Kích thước hùng vĩ....; PASS(Overlap=0.80), sent: Chu vi thân: khoảng 10 m, khiến thân cây to bằng cả 10 người ôm nhau.; FAIL(NLI=0.04, Ov=0.48): Rễ phụ: có 26 rễ lớn, mỗi rễ dài khoảng 25 m, tạo nên một hệ thống rễ khổng lồ “ôm” quanh khu vực....; PASS(Overlap=0.65), sent: Gốc cây rộng đến mức “vài người ôm không hết”, thể hiện sức mạnh và tuổi thọ vượt thời gian.; FAIL(NLI=0.00, Ov=0.33): Vị trí địa lý độc đáo....; SKIP: Nằm trên tuyến đường lên đỉnh Bàn Cờ, cá...; PASS(Overlap=0.93), sent: Đường lên cây đa hơi dốc và khó đi, nhưng khi tới nơi du khách sẽ được chiêm ngưỡng cảnh quan rừng nguyên sinh và toàn cảnh núi rừng Sơn Trà.; PASS(Overlap=0.71), sent: Giá trị du lịch và trải nghiệm.; PASS(Overlap=0.55), sent: Là điểm dừng chân lý tưởng để nghỉ ngơi, chiêm ngưỡng và cảm nhận sự hùng vĩ của thiên nhiên.; FAIL(NLI=0.00, Ov=0.29): Không thu phí vào cửa, chỉ cần mang giày thoải mái, nước uống và áo khoác nhẹ (đặc biệt vào buổi sáng hoặc chiều mát)....; FAIL(NLI=0.00, Ov=0.42): Thời gian tham quan tốt nhất: sáng sớm hoặc muộn chiều khi ánh sáng nhẹ nhàng, giúp bạn tận hưởng không gian yên tĩnh và tránh nắng gắt....; FAIL(NLI=0.00, Ov=0.50): Biểu tượng sinh thái....; PASS(Overlap=0.67), sent: Cây đa này được xem là cây đa lớn nhất Việt Nam về hình thể, là biểu tượng của rừng nguyên sinh trên bán đảo Sơn Trà, thu hút những người yêu thiên nhiên, nhiếp ảnh và các nhà nghiên cứu sinh thái.; PASS(Overlap=0.69), sent: Với những đặc điểm trên, Cây Đa ngàn năm không chỉ là một danh thắng thiên nhiên mà còn là một “kho báu” văn hoá, lịch sử và sinh thái, xứng đáng là điểm dừng chân không thể bỏ qua khi khám phá bán đảo Sơn Trà.</t>
+  </si>
+  <si>
+    <t>PASS(Overlap=0.62), sent: InterContinental Danang Sun Peninsula Resort gây ấn tượng mạnh mẽ cho du khách nhờ những yếu tố sau: Vị trí độc đáo: Nằm trên bán đảo Sơn Trà, resort có vịnh biển riêng và tầm nhìn toàn cảnh Biển Đông cùng rừng nhiệt đới xanh mướt, tạo cảm giác “đánh rơi” vào thiên đường riêng tư.; SKIP: Thiết kế kiến trúc đỉnh cao: Được kiến t...; PASS(Overlap=0.68), sent: Kiến trúc và nghệ thuật địa phương: Một góc resort tái hiện làng gốm Bát Tràng với màu sắc và họa tiết đặc trưng, giúp du khách cảm nhận sâu sắc nét đẹp văn hoá Việt.; PASS(NLI=1.00), sent: Cơ sở lưu trú sang trọng: 180 phòng rộng rãi, thiết kế mở, hướng ra biển.; SKIP: 5 biệt thự có hồ bơi riêng, mỗi biệt thự...; PASS(NLI=0.99), sent: Hơn 20 phòng suite thuộc 5 loại biệt thự khác nhau (Sun Peninsula Residence, Villa Club Penthouse, Villa Collection, Intercontinental Rooms &amp; Suites, Son Tra Rooms &amp; Suites).; PASS(Overlap=0.84), sent: Ẩm thực đẳng cấp thế giới: Nhà hàng La Maison 1888 – được The Daily Meal bình chọn là một trong 10 nhà hàng đẹp nhất thế giới – mang đến trải nghiệm ẩm thực Pháp‑Việt tinh tế.; PASS(Overlap=0.81), sent: Spa và chăm sóc sức khỏe: HARNN Heritage Spa, được vinh danh là Spa mới tốt nhất thế giới năm 2015, cung cấp các liệu pháp chăm sóc cơ thể và tinh thần độc đáo.; PASS(Overlap=0.78), sent: Ngoài ra, PEDI:MANI:CURE Studio by Bastien Gonzalez mang đến dịch vụ chăm sóc móng đẳng cấp quốc tế.; PASS(Overlap=0.71), sent: Môi trường tự nhiên và sinh vật đặc biệt: Khu nghỉ dưỡng nằm trong khu rừng nhiệt đới, nơi sinh sống của loài voọc chà vá – một điểm thu hút những du khách yêu thiên nhiên.; FAIL(NLI=0.01, Ov=0.33): Dịch vụ 24/7: Lễ tân và dịch vụ phòng luôn sẵn sàng 24 giờ, đảm bảo mọi nhu cầu của khách được đáp ứng nhanh chóng....; SKIP: Thông tin chi tiết (bổ sung)....; SKIP: Địa chỉ: 1 Hoàng Sa, Bán đảo Sơn Trà, Đà...; FAIL(NLI=0.02, Ov=0.00): Số điện thoại: +84 236 3939 888....; FAIL(NLI=0.05, Ov=0.47): Giờ mở cửa: Lễ tân 24 h; nhà hàng La Maison 1888 (12:00‑22:00), HARNN Heritage Spa (09:00‑21:00)....; SKIP: Giá phòng (tham khảo): Phòng Deluxe: ~40...; FAIL(NLI=0.00, Ov=0.00): Suite: ~800 USD/đêm....; FAIL(NLI=0.00, Ov=0.25): Biệt thự: ~1.500 USD/đêm....; PASS(Overlap=0.76), sent: Những yếu tố trên kết hợp lại tạo nên một trải nghiệm “choáng ngợp” cho du khách, khiến InterContinental Danang Sun Peninsula Resort trở thành điểm đến sang trọng bậc nhất tại Đà Nẵng và cả Việt Nam.</t>
+  </si>
+  <si>
+    <t>PASS(Overlap=0.80), sent: Hyatt Regency Danang Resort &amp; Spa.; PASS(NLI=0.91), sent: Số phòng: 200 phòng sang trọng.; PASS(Overlap=0.57), sent: Số căn hộ: 182 căn hộ cao cấp.; PASS(Overlap=0.70), sent: Số biệt thự biển: 27 biệt thự biển có hồ bơi riêng.; SKIP: Địa chỉ: 2 Hải Vân, Sơn Trà, Đà Nẵng, Vi...</t>
+  </si>
+  <si>
+    <t>PASS(Overlap=0.76), sent: Furama Resort Đà Nẵng được mệnh danh là “ốc đảo xanh giữa lòng thành phố” vì: Mật độ cây xanh ấn tượng: Khoảng 80 % diện tích của khu nghỉ dưỡng được bao phủ bởi mảng xanh, bao gồm các cây cao như dừa, cau, bàng và những cây cổ thụ hơn 100 năm tuổi.; PASS(Overlap=0.76), sent: Hệ sinh thái đa dạng: Khu vườn có nhiều tầng bậc, đa dạng chủng loại thực vật, là nơi cư trú của chim sẻ, chim sâu, cu gáy, ong bướm và các loài chim khác, tạo nên một môi trường sinh thái phong phú ngay trong trung tâm đô thị.; PASS(NLI=0.99), sent: Không gian thiên nhiên hoang sơ: Trước hiên mỗi phòng là bụi cây, khóm hoa dâm bụt rực rỡ, hoa nhài ngát hương; trên cánh đồng trồng đu đủ còn có các chòi gỗ mái lá để khách thư giãn, mát xa ngoài trời hoặc tổ chức tiệc.; SKIP: Vị trí đắc địa: Nằm trên đường Võ Nguyên...; PASS(Overlap=0.83), sent: Thiết kế hòa quyện thiên nhiên: Các khu vực nghỉ dưỡng được xây trên vị trí cao hơn khu vực trồng cây, cho phép khách khi di chuyển trong khu vườn như đang dạo trong thung lũng xanh mát, mang lại cảm giác như đang ở một “đảo” riêng biệt giữa lòng đô thị.; PASS(Overlap=0.68), sent: Những yếu tố trên kết hợp lại tạo nên hình ảnh một “ốc đảo xanh” – một không gian thiên nhiên tươi đẹp, trong lành và yên bình, nhưng vẫn nằm ngay trong trung tâm sầm uất của Đà Nẵng.</t>
+  </si>
+  <si>
+    <t>PASS(NLI=0.92), sent: The Ocean Villas Đà Nẵng – Ưu điểm nổi bật cho kỳ nghỉ gia đình.; PASS(Overlap=0.75), sent: Vị trí thuận tiện, kết nối dễ dàng.; PASS(Overlap=0.91), sent: Nằm tại phường Hòa Hải, quận Ngũ Hành Sơn, Đà Nẵng.; SKIP: Cách sân bay quốc tế Đà Nẵng khoảng 28,5...; PASS(NLI=1.00), sent: Kiến trúc và không gian sống sang trọng, riêng tư.; PASS(Overlap=0.81), sent: Khu nghỉ dưỡng trải rộng 21 ha với 115 biệt thự được thiết kế như những “ốc đảo” riêng biệt, mỗi villa có hồ bơi riêng, sân vườn xanh mát và không gian riêng cho từng thành viên.; PASS(Overlap=0.81), sent: Nội thất hiện đại: TV màn hình phẳng, kênh truyền hình quốc tế, điện thoại quốc tế, tủ lạnh, internet không dây, phòng tắm sang trọng, phòng họp và phòng hút thuốc.; PASS(Overlap=0.64), sent: Tiện nghi giải trí đa dạng, phù hợp mọi lứa tuổi.; PASS(NLI=0.85), sent: Beach Club với hồ bơi lớn, sân tennis và dịch vụ spa cao cấp, cho phép cả gia đình tận hưởng làn gió biển trong lành và các hoạt động thể thao.; PASS(NLI=0.94), sent: Khu vườn rộng rãi, hồ bơi riêng cho mỗi villa, thích hợp cho tiệc ngoài trời, trò chơi trẻ em hoặc thư giãn yên tĩnh.; PASS(NLI=0.97), sent: Dịch vụ và tiện ích hỗ trợ gia đình.; PASS(Overlap=0.76), sent: Hệ thống điện thoại quốc tế, internet không dây toàn khu, giúp gia đình luôn kết nối.; PASS(Overlap=0.75), sent: Phòng họp và phòng sinh hoạt chung cho các buổi họp mặt, hội họp gia đình hoặc các hoạt động nhóm.; PASS(Overlap=0.65), sent: Dịch vụ đưa đón sân bay và các điểm du lịch lân cận (phố cổ Hội An, các khu vui chơi) theo yêu cầu.; PASS(Overlap=0.86), sent: Môi trường xanh, phong thủy hài hòa.; SKIP: Hệ thống cây xanh, các “nhánh sông” giả ...; FAIL(NLI=0.00, Ov=0.50): Giá cả và thông tin liên hệ (được cập nhật từ nguồn nội bộ)....; SKIP: Giá thuê villa: khoảng 5 – 12 triệu VND/...; SKIP: Giờ nhận phòng: 14:00 – 16:00; giờ trả p...; FAIL(NLI=0.01, Ov=0.14): Số điện thoại đặt phòng: +84 236 3 xxxx (đường dây hỗ trợ 24 h)....; FAIL(NLI=0.01, Ov=0.33): Website: www.theoceanvillas.com.vn (đặt phòng trực tuyến và xem chi tiết dịch vụ)....; PASS(Overlap=0.70), sent: Những ưu điểm trên khiến The Ocean Villas Đà Nẵng trở thành lựa chọn lý tưởng cho kỳ nghỉ gia đình, mang lại sự sang trọng, tiện nghi và không gian riêng tư, đồng thời dễ dàng tiếp cận các điểm tham quan nổi tiếng của Đà Nẵng.</t>
+  </si>
+  <si>
+    <t>PASS(Overlap=0.69), sent: Fusion Maia Đà Nẵng – Những điểm nổi bật độc đáo so với các resort 5 sao khác.; FAIL(NLI=0.00, Ov=0.40): Vị trí “cửa ngõ” UNESCO....; PASS(Overlap=0.88), sent: Nằm ngay trên bãi biển được mệnh danh là “đẹp nhất hành tinh”, chỉ 10 phút tới trung tâm Đà Nẵng, 20 phút tới phố cổ Hội An và 15 phút tới sân bay quốc tế Đà Nẵng.; PASS(NLI=0.98), sent: Đây là vị trí thuận lợi nhất để khám phá ba di sản thế giới: Cố đô Huế, Thánh địa Mỹ Sơn và Phố cổ Hội An.; PASS(Overlap=0.86), sent: Kiến trúc và thiết kế đặc trưng.; PASS(Overlap=0.71), sent: Phong cách giao thoa giữa kiến trúc cổ kính Huế, nét duyên Việt dịu dàng và đường nét hiện đại thanh tao, tạo nên không gian sang trọng nhưng vẫn gần gũi với thiên nhiên.; PASS(NLI=0.73), sent: Biệt thự hồ bơi riêng – Đa dạng lựa chọn.; PASS(Overlap=0.84), sent: 80 biệt thự hồ bơi sang trọng, 4 biệt thự spa và 3 biệt thự hướng biển, mỗi biệt thự đều có sân thượng, iPad, máy DVD và các tiện nghi cao cấp (TV trong phòng tắm, máy pha cà phê, miễn phí Internet, bồn tắm, vòi sen).; PASS(Overlap=0.86), sent: Dịch vụ spa MIỄN PHÍ toàn diện.; PASS(Overlap=0.87), sent: Hơn 50 chuyên viên chuyên nghiệp cung cấp các liệu pháp “Liệu pháp sống tự nhiên” với 7 hướng: cải thiện, làm mới, phục hồi, tăng cường, cân bằng, thư giãn, thức tỉnh.; PASS(Overlap=0.79), sent: Các dịch vụ bao gồm massage điều trị, ủ nóng cơ thể, chăm sóc da mặt, yoga, thiền… – tất cả đều không tính phí, điều hiếm thấy ở các resort 5 sao khác.; FAIL(NLI=0.29, Ov=0.43): Ẩm thực đa dạng, phong cách 5 sao....; PASS(Overlap=0.78), sent: Nhà hàng Five: mì và rượu vang thượng hạng.; PASS(Overlap=0.79), sent: Nhà hàng Fresh: bánh quy hỗn hợp kèm cocktails từ trái cây nhập khẩu.; PASS(Overlap=0.83), sent: Nhà hàng Tonic: món Tây Ban Nha kết hợp trà hảo hạng.; PASS(Overlap=0.86), sent: Các món đặc sản biển và pizza vuông ngộ nghĩnh cũng là điểm nhấn.; PASS(Overlap=0.78), sent: Chương trình “Liệu pháp sống tự nhiên” độc quyền.; PASS(Overlap=0.75), sent: Chỉ có tại Fusion Maia, tập trung vào cân bằng cảm xúc và thể chất, mang lại trải nghiệm “sống dậy cùng thiên nhiên” cho khách lưu trú.; PASS(NLI=0.67), sent: Dịch vụ tour du lịch đa dạng ngay tại resort.; PASS(NLI=0.49), sent: Đặt tour tham quan Hội An, Mỹ Sơn, Huế, Ngũ Hành Sơn, đảo Chàm, làng chài, làng chè, thuyền du ngoạn… Tất cả được sắp xếp thuận tiện từ khách sạn.; SKIP: Địa chỉ &amp; thông tin thực tế....; SKIP: Địa chỉ: 1‑3 Hoàng Diệu, Quận Sơn Trà, Đ...; SKIP: Giá phòng (theo loại biệt thự): khoảng U...; SKIP: Giờ nhận phòng: 14:00 – 22:00 (check‑in)...; FAIL(NLI=0.00, Ov=0.00): Lễ tân 24 h....; PASS(Overlap=0.64), sent: So sánh nhanh với các resort 5 sao khác trong danh sách (InterContinental Danang Sun Peninsula, Naman Retreat, Premier Village, Hyatt Regency, Furama, The Ocean Villas, Vinpearl, Pullman, Furama Villas): Tiêu chí Fusion Maia Các resort 5 sao khác Spa Miễn phí toàn bộ dịch vụ, hơn 50 chuyên viên Thường tính phí, ví dụ HARNN Heritage Spa (InterContinental) Biệt thự hồ bơi riêng 80+ biệt thự, đa dạng thiết kế Số lượng ít hơn, thường chỉ vài villa Chương trình sức khỏe đặc trưng “Liệu pháp sống tự nhiên” 7 hướng Không có chương trình tương đương Địa điểm “cửa ngõ” UNESCO Gần 3 di sản thế giới Vị trí đẹp nhưng không đặc biệt gần UNESCO Ẩm thực Ba nhà hàng với concept riêng biệt, món đặc sản biển &amp; pizza vuông Thường có 1‑2 nhà hàng cao cấp, ít đa dạng về concept Tour du lịch tại chỗ Đặt tour đa dạng ngay tại resort Thường chỉ hỗ trợ đặt tour qua đối tác bên ngoài.; PASS(Overlap=0.75), sent: Những yếu tố trên khiến Fusion Maia Đà Nẵng nổi bật và khác biệt so với các resort 5 sao khác, mang lại trải nghiệm nghỉ dưỡng sang trọng, chăm sóc sức khỏe toàn diện và tiện lợi cho du khách muốn khám phá di sản UNESCO của miền Trung.</t>
+  </si>
+  <si>
+    <t>SKIP: Vị trí: Ngũ Hành Sơn nằm ở phường Hoà Hả...; PASS(NLI=0.99), sent: Số lượng ngọn núi: Ngũ Hành Sơn gồm 5 ngọn núi đá vôi, tượng trưng cho ngũ hành: Kim Sơn.; SKIP: Mộc Sơn....; SKIP: Thủy Sơn....; SKIP: Hỏa Sơn....; SKIP: Thổ Sơn....; PASS(Overlap=0.83), sent: Các ngọn núi này tạo thành một quần thể nổi tiếng với cảnh quan thiên nhiên hùng vĩ, các hang động, chùa chiền và làng nghề mỹ nghệ Non Nước.</t>
+  </si>
+  <si>
+    <t>PASS(Overlap=0.81), sent: Động Huyền Không được xem là hang động đẹp và linh thiêng nhất Ngũ Hành Sơn vì những lý do sau: Ánh sáng tự nhiên độc đáo.; PASS(NLI=0.94), sent: Vòm tròn của động có năm lỗ thông thoáng, cho phép ánh sáng mặt trời chiếu trực tiếp vào bên trong.; PASS(Overlap=0.68), sent: Khi trời trong xanh, ánh sáng rọi qua các lỗ tạo ra hiệu ứng lung linh, làm nổi bật vẻ đẹp của đá cẩm thạch trắng muốt, khiến không gian như một “chiếc điều hòa tự nhiên” trong những ngày nắng hè.; PASS(Overlap=0.60), sent: Đá cẩm thạch quý hiếm.; PASS(Overlap=0.59), sent: Động được xây dựng hoàn toàn từ đá cẩm thạch, một loại đá quý hiếm và bền vững.; PASS(Overlap=0.71), sent: Các vết thạch nhũ, hình thù độc đáo trên các bức tường (như khuôn mặt ông già, hình hạc, con voi hai đầu…) tạo nên một bức tranh thiên nhiên sống động, khác biệt hoàn toàn so với các hang động ẩm thấp như Phong Nha hay Hạ Long.; PASS(Overlap=1.00), sent: Kiến trúc và tượng Phật đặc sắc.; PASS(NLI=0.79), sent: Ở vị trí cao nhất của động là tượng Phật Thích Ca do nghệ nhân Nguyễn Chất tạc (1960) chạm khắc, bên dưới là bàn thờ Phật Địa Tạng Vương Bồ Tát.; PASS(Overlap=0.79), sent: Hai đền thờ bà Ngọc Phi (bà Chúa Tiên) và bà Lồi Phi (Chúa Thượng Ngàn) nằm ở hai phía, nơi du khách có thể cầu tài lộc, bình an và sức khỏe.; PASS(Overlap=0.81), sent: Phía bên phải còn có Trang Nghiêm Tự (xây năm 1825) với ba gian thờ các vị Thánh và các cặp uyên ương, tăng thêm tính linh thiêng.; PASS(Overlap=0.86), sent: Giá trị lịch sử và chiến lược.; PASS(NLI=0.99), sent: Động từng là căn cứ mật của quân du kích trong kháng chiến chống Pháp và là trạm huấn luyện, ẩn náu của quân đội Mỹ trong Chiến tranh Việt Nam.; PASS(Overlap=0.72), sent: Những dấu tích lịch sử này làm cho động không chỉ là nơi tôn giáo mà còn là chứng nhân của các thời kỳ lịch sử quan trọng.; FAIL(NLI=0.10, Ov=0.50): Vị trí đắc địa....; SKIP: Nằm trên đỉnh Thượng Thai, một trong ba ...; PASS(Overlap=0.64), sent: Khi lên tới động, du khách phải bước xuống sâu 5 m và vượt hơn 20 bậc thang, tạo cảm giác “đi vào thế giới khác” ngay từ lúc vào cổng.; PASS(NLI=0.48), sent: Môi trường trong lành, không ẩm thấp.; PASS(Overlap=0.74), sent: Khác với các hang động thường ẩm ướt và cần đèn chiếu sáng, Động Huyền Không luôn thoáng mát, không ẩm, cho phép du khách thưởng ngoạn vẻ đẹp tự nhiên mà không cần ánh sáng nhân tạo.; FAIL(NLI=0.09, Ov=0.25): Thông tin thực tế....; SKIP: Địa chỉ: Động Huyền Không, Ngũ Hành Sơn,...; SKIP: Giờ mở cửa: 07:00 – 18:00 hằng ngày....; SKIP: Vé vào cửa: Khoảng 40.000 VND cho khách ...; SKIP: Những yếu tố trên – ánh sáng tự nhiên tu...</t>
+  </si>
+  <si>
+    <t>SKIP: Vị trí....; PASS(Overlap=0.69), sent: Vọng Hải Đài nằm trên đỉnh núi Ngũ Hành Sơn, thành phố Đà Nẵng, Việt Nam.; SKIP: (Địa chỉ chung: Đỉnh Ngũ Hành Sơn, Đà Nẵ...; PASS(NLI=1.00), sent: Ý nghĩa lịch sử.; PASS(Overlap=0.73), sent: Nơi vua Minh Mạng hành hương: Vua Minh Mạng đã đến chùa Non Nước và dùng Vọng Hải Đài làm điểm nghỉ ngơi, ngắm cảnh.; PASS(Overlap=0.54), sent: Tên gọi “Vọng Giang Đài”: Nhờ ấn tượng mạnh mẽ với cảnh quan biển và núi, vua đã phong danh “Vọng Giang Đài” và đặt bia ghi danh tại đây.; PASS(NLI=0.56), sent: Quan sát toàn cảnh: Từ đài có thể nhìn bao quát vùng trời biển bao la, thấy Cù Lao Chàm phía Đông Nam, sông Cò uốn quanh phía Bắc và sông Hàn chảy vào vịnh Đà Nẵng, tạo nên một góc nhìn chiến lược và thơ mộng.; PASS(NLI=1.00), sent: Vai trò sinh thái và kinh tế: Con sông Cò đã cung cấp nguồn nước dồi dào cho người dân xung quanh, hỗ trợ nông nghiệp, trồng cây và nuôi thuỷ sản.; PASS(NLI=1.00), sent: Nơi tôn thờ và thư giãn: Đài là khu vực thờ cúng các vị thần tiên, phật cứu nhân độ thế, mang lại không gian thanh tịnh, giúp du khách tránh xa sự ồn ào, bon chen của cuộc sống.; FAIL(NLI=0.00, Ov=0.37): Với những yếu tố trên, Vọng Hải Đài không chỉ là một điểm ngắm cảnh đẹp mà còn là một di tích gắn liền với lịch sử hoàng gia, văn hoá tín ngưỡng và phát triển sinh thái của Đà Nẵng....</t>
+  </si>
+  <si>
+    <t>PASS(NLI=0.99), sent: Từ Vọng Giang Đài, du khách có thể ngắm nhìn một loạt cảnh quan tuyệt đẹp của khu vực Ngũ Hành Sơn và các vùng lân cận, bao gồm: Sông Cẩm Lệ và sông Cổ Cò – những dòng sông uốn lượn quanh chân núi, tạo nên những khúc quanh thơ mộng và đồng ruộng xanh mướt.; PASS(Overlap=0.69), sent: Toàn cảnh các ngọn núi Ngũ Hành Sơn – các đỉnh núi hùng vĩ, đá vôi đặc trưng và rừng cây bao phủ, cho cảm giác rộng mở và hùng vĩ.; PASS(Overlap=0.59), sent: Làng đá mỹ nghệ – các làng nghề truyền thống nằm quanh chân núi, nơi các nghệ nhân chế tác những tác phẩm đá mỹ nghệ độc đáo, tạo nên một bức tranh văn hoá đặc sắc.; FAIL(NLI=0.01, Ov=0.44): Đồng ruộng và bãi bồi tự nhiên – những thửa ruộng xanh mướt và bãi bồi hoang sơ, phản chiếu ánh sáng mặt trời và mang lại cảm giác yên bình....; PASS(Overlap=0.72), sent: Dãy Trường Sơn – ở phía xa, dãy núi Trường Sơn hiện ra như một bức nền hùng vĩ, tạo nên một khung cảnh thiên nhiên hoang sơ và tráng lệ.; PASS(Overlap=0.61), sent: Cảnh quan nông thôn và thôn quê – các ngôi nhà, cánh đồng và con đường mòn xen kẽ, giúp du khách cảm nhận được nhịp sống bình dị của người dân địa phương.; PASS(Overlap=0.62), sent: Những góc nhìn này kết hợp tạo nên một bức tranh thiên nhiên đa dạng, từ sông nước, núi non, đến làng nghề và đồng ruộng, mang lại trải nghiệm ngắm cảnh toàn diện và sâu sắc khi đứng trên Vọng Giang Đài.</t>
+  </si>
+  <si>
+    <t>PASS(NLI=0.73), sent: Hoạt động mạo hiểm tại Ngũ Hành Sơn.; PASS(Overlap=0.60), sent: Leo núi đá (Rock climbing).; PASS(Overlap=0.71), sent: Mô tả: Du khách sẽ được hướng dẫn viên chuyên nghiệp trang bị dây, mũ bảo hiểm và các thiết bị an toàn, thực hiện các đoạn leo trên những khối đá cẩm thạch đặc trưng của Ngũ Hành Sơn.; PASS(Overlap=0.56), sent: Hoạt động phù hợp cho cả người mới bắt đầu và những người đã có kinh nghiệm, giúp rèn luyện sức khỏe, tăng cường sự tự tin và khám phá các hang động bí ẩn.; SKIP: Địa chỉ: Khu vực Ngũ Hành Sơn, Đà Nẵng, ...; SKIP: Giá tham khảo: Khoảng 300.000 – 500.000 ...; SKIP: Giờ mở cửa: Thường từ 08:00 đến 17:00 hằ...; FAIL(NLI=0.00, Ov=0.32): Liên hệ: Số điện thoại +84 236 3822 88 (đặt lịch trước để đảm bảo có hướng dẫn viên)....; PASS(Overlap=0.75), sent: Đu dây tụt vách núi (Rope descent) để thám hiểm hang động.; PASS(Overlap=0.63), sent: Mô tả: Sau khi hoàn thành phần leo, du khách sẽ trải nghiệm việc tụt dây xuống các vách đá để vào sâu trong các hang động của Ngũ Hành Sơn.; PASS(Overlap=0.54), sent: Đây là cơ hội hiếm có để ngắm nhìn các thạch nhũ, măng đá và không gian thiên nhiên hoang sơ dưới lớp đá.; SKIP: Địa chỉ: Cùng khu vực leo núi đá tại Ngũ...; SKIP: Giá tham khảo: Khoảng 200.000 – 350.000 ...; SKIP: Giờ mở cửa: 08:00 – 17:00, đồng thời phụ...; FAIL(NLI=0.00, Ov=0.20): Liên hệ: Số điện thoại +84 236 3822 88 (đặt trước để sắp xếp lịch và đội ngũ hỗ trợ)....; SKIP: Hai hoạt động trên là những trải nghiệm ...</t>
+  </si>
+  <si>
+    <t>FAIL(NLI=0.00, Ov=0.13): Tôi hiện chưa thể đưa ra câu trả lời chính xác vì dữ liệu liên quan đến yêu cầu của bạn chưa đầy đủ....; FAIL(NLI=0.00, Ov=0.14): Bạn hãy cung cấp thêm thông tin (như nguồn dữ liệu, nội dung cụ thể hoặc ví dụ minh hoạ) để tôi có thể hỗ trợ bạn hiệu quả hơn....</t>
+  </si>
+  <si>
+    <t>PASS(NLI=0.95), sent: Bãi đá Obama – Đà Nẵng.; PASS(Overlap=0.86), sent: Vị trí: Nằm trên bán đảo Sơn Trà, phía đông thành phố Đà Nẵng, gần cây đa đại thụ (còn gọi là bãi Đa) và chùa Linh Ứng.; SKIP: Địa chỉ tham khảo: Bãi đá Obama, bán đảo...; SKIP: Bạn có thể tới bằng ô tô hoặc xe máy, đi...; PASS(Overlap=0.86), sent: Đặc điểm nổi bật: Cảnh quan hoang sơ, yên tĩnh: Không ồn ào, tấp nập như các bãi biển nổi tiếng khác của Đà Nẵng, mang lại cảm giác bình yên, gần gũi với thiên nhiên.; PASS(Overlap=0.79), sent: Hàng trăm tảng đá lớn, tròn, nhẵn: Các tảng đá được xếp san sát nhau, tạo thành một “ma trận đá” độc đáo, thích hợp cho việc leo trèo, ngâm chân hoặc chụp ảnh sáng tạo.; PASS(NLI=1.00), sent: Nước biển trong xanh: Độ trong của nước cho phép nhìn thấy rặng san hô và thậm chí phản chiếu hình ảnh mình dưới mặt nước.; PASS(Overlap=0.67), sent: Cây cầu gỗ, cối xay gió, cột đèn: Các công trình nhỏ này tạo nên khung cảnh lãng mạn, rất được các cặp đôi và nhóm bạn trẻ ưa chuộng để chụp ảnh cưới hoặc “sống ảo”.; PASS(Overlap=0.82), sent: Gần các điểm tham quan khác: Có thể kết hợp thăm chùa Linh Ứng (điểm linh thiêng với tầm nhìn toàn cảnh biển) rồi tiếp tục xuống bãi đá Obama, hoặc ghé thăm Bãi Bụt và Bãi Tiên Sa trong khu vực.; PASS(Overlap=0.74), sent: Không gian “Maldives thu nhỏ”: Với nước trong xanh, bầu trời rộng lớn và các tảng đá lớn, bãi đá Obama mang lại cảm giác như đang ở một hòn đảo nhiệt đới mà không cần ra nước ngoài.; PASS(NLI=0.84), sent: Hoạt động gợi ý: Leo đá, tắm biển, ngắm san hô, chụp ảnh cưới, dã ngoại, picnic, hoặc đơn giản là thư giãn dưới ánh nắng và tiếng sóng.; SKIP: Bãi đá Obama là điểm đến lý tưởng cho nh...</t>
+  </si>
+  <si>
+    <t>SKIP: Thời điểm lý tưởng nhất để đến Bãi đá Ob...; PASS(NLI=0.76), sent: Vào khoảng thời gian này, bạn sẽ được tận hưởng: Khí hậu dễ chịu với bầu không khí trong lành, nhiệt độ ấm áp nhưng không quá nóng.; PASS(NLI=0.99), sent: Làn nước biển trong xanh, mát lạnh, thích hợp để bơi lội, tắm biển và ngâm chân.; PASS(Overlap=0.61), sent: Cảnh quan tuyệt đẹp khi ánh sáng ban ngày chiếu sáng rõ ràng, giúp bạn chụp được những bức ảnh ấn tượng, đặc biệt là vào lúc bình minh hoặc hoàng hôn.; PASS(Overlap=0.79), sent: Độ đông đúc thấp hơn so với các bãi biển nổi tiếng khác, mang lại không gian riêng tư để bạn thư giãn cùng bạn bè và gia đình.</t>
+  </si>
+  <si>
+    <t>PASS(Overlap=0.88), sent: Bãi biển Mỹ Khê được xem là một trong những bãi biển đẹp nhất hành tinh vì các lý do sau: Đánh giá quốc tế cao: Được tạp chí Forbes (Mỹ) bình chọn là một trong 6 bãi biển quyến rũ nhất hành tinh.; PASS(Overlap=0.67), sent: Năm 2021, TripAdvisor xếp Mỹ Khê vào top 25 bãi biển đẹp nhất châu Á.; PASS(Overlap=0.85), sent: Báo Sunday Herald Sun (Úc) cũng xếp nó vào 10 bãi biển châu Á thu hút đông đảo khách du lịch.; PASS(Overlap=0.76), sent: Vẻ đẹp tự nhiên nổi bật: Bãi cát trải dài khoảng 900 m, cát trắng mịn, sạch sẽ, không có rác thải.; PASS(Overlap=0.82), sent: Nước biển trong veo, ấm quanh năm, màu xanh ngọc bích, thích hợp cho việc tắm biển và các hoạt động dưới nước.; PASS(Overlap=0.55), sent: Sóng nhẹ, êm, tạo cảm giác thư giãn; chỉ có lúc mưa gió hoặc thời điểm sóng mạnh thì cần chú ý an toàn.; PASS(Overlap=0.68), sent: Khung cảnh tuyệt vời vào các thời điểm trong ngày: Bình minh và hoàng hôn tại Mỹ Khê được nhiều du khách khen ngợi vì ánh sáng mềm mại, tạo nên những bức ảnh “sống ảo” lung linh.; PASS(NLI=0.88), sent: Vị trí thuận lợi: Nằm trên đường Phạm Văn Đồng, gần trung tâm thành phố Đà Nẵng, dễ dàng di chuyển và kết hợp với các khách sạn, nhà hàng, dịch vụ cho thuê dù, phao bơi, v.v.; PASS(Overlap=0.80), sent: Gần cầu sông Hàn và nhiều điểm du lịch khác, nên thường xuất hiện trong các tour du lịch và hoạt động team‑building.; PASS(Overlap=0.76), sent: Văn hoá địa phương: Du khách có cơ hội ngắm đời sống ngư dân và thưởng thức hải sản tươi ngon tại các quán ăn ven bãi, tạo nên trải nghiệm du lịch đa chiều.; SKIP: Môi trường sạch sẽ và an toàn: Bãi biển ...; PASS(Overlap=0.83), sent: Những yếu tố trên kết hợp lại đã khiến Bãi biển Mỹ Khê không chỉ được công nhận bởi các tạp chí và trang du lịch quốc tế mà còn trở thành điểm đến yêu thích của du khách trong và ngoài nước.</t>
+  </si>
+  <si>
+    <t>PASS(NLI=0.68), sent: Các khách sạn nổi bật gần bãi biển Mỹ Khê Đà Nẵng.; PASS(Overlap=0.86), sent: Khách sạn À La Carte Đà Nẵng Beach.; SKIP: Địa chỉ: 1 Võ Nguyên Giáp, Phước Mỹ, Quậ...; PASS(NLI=0.99), sent: Mô tả: Nằm sát bãi biển Phạm Văn Đồng, kiến trúc cổ điển sang trọng, 202 phòng với ban công, wifi miễn phí, két an toàn, điều hòa và tầm nhìn hướng biển hoặc núi.; SKIP: Giá phòng: khoảng 1.200.000 VNĐ/đêm (giá...; FAIL(NLI=0.00, Ov=0.00): Giờ hoạt động: 24 giờ/ngày....; PASS(Overlap=1.00), sent: Furama Resort Đà Nẵng.; SKIP: Địa chỉ: 1 Võ Nguyên Giáp, Khuê Mỹ, Quận...; PASS(Overlap=0.81), sent: Mô tả: Resort 5 sao trên bãi biển Bắc Mỹ An, 80 % diện tích là mảng xanh, môi trường “đảo xanh” giữa thành phố, cung cấp các dịch vụ cao cấp và trải nghiệm nghỉ dưỡng sang trọng.; SKIP: Giá phòng: bắt đầu từ 2.500.000 VNĐ/đêm ...; FAIL(NLI=0.00, Ov=0.00): Giờ hoạt động: 24 giờ/ngày....; PASS(Overlap=1.00), sent: Hyatt Regency Đà Nẵng.; SKIP: Địa chỉ: 2 Võ Nguyên Giáp, Khuê Mỹ, Quận...; PASS(Overlap=0.66), sent: Mô tả: Khách sạn 5 sao nằm ngay bên bãi biển Mỹ Khê, thiết kế hiện đại, 300+ phòng và suite, hồ bơi vô cực, spa và nhà hàng quốc tế.; SKIP: Giá phòng: khoảng 3.000.000 VNĐ/đêm cho ...; FAIL(NLI=0.00, Ov=0.00): Giờ hoạt động: 24 giờ/ngày....; PASS(Overlap=0.67), sent: Diamond Sea Hotel.; SKIP: Địa chỉ: 2 Phan Đình Phùng, Quận Hải Châ...; PASS(Overlap=0.67), sent: Mô tả: Khách sạn 4 sao gần bãi biển Mỹ Khê, 150 phòng với thiết kế hiện đại, cung cấp bữa sáng phong phú và dịch vụ lễ tân 24 h.; SKIP: Giá phòng: khoảng 1.500.000 VNĐ/đêm cho ...; FAIL(NLI=0.00, Ov=0.00): Giờ hoạt động: 24 giờ/ngày....; PASS(Overlap=0.80), sent: Nhat Linh Da Nang Hotel.; SKIP: Địa chỉ: 194 Nguyễn Chí Thanh, Phước Nin...; SKIP: Mô tả: Khách sạn 3 sao trung tâm, cách b...; SKIP: Giá phòng: 550.000 VNĐ/đêm (giá cơ bản)....; FAIL(NLI=0.00, Ov=0.00): Giờ hoạt động: 24 giờ/ngày....</t>
+  </si>
+  <si>
+    <t>PASS(NLI=0.95), sent: Khách sạn À La Carte Đà Nẵng Beach.; SKIP: Địa chỉ: 68/68 Đường Võ Nguyên Giáp, Phư...; FAIL(NLI=0.02, Ov=0.50): Đà Nẵng, Việt Nam....; SKIP: Vị trí nổi bật: Nằm sát bãi biển Phạm Vă...; PASS(Overlap=0.89), sent: Kiến trúc &amp; không gian: Kiến trúc cổ điển hòa quyện hiện đại, 202 phòng nghỉ sang trọng đạt tiêu chuẩn 4 sao.; PASS(Overlap=0.88), sent: Mỗi phòng đều có ban công, wifi miễn phí, bàn làm việc, két sắt, TV truyền hình vệ tinh, điều hòa và tủ lạnh.; PASS(NLI=0.91), sent: Các loại phòng: Phòng Light, Light Plus, Delight… với diện tích và không gian đa dạng, hầu hết hướng ra biển hoặc núi, cho tầm nhìn tuyệt đẹp ra đại dương xanh mênh mông và dãy núi non hùng vĩ.; PASS(Overlap=0.70), sent: Tiện nghi &amp; dịch vụ: Khu vực bãi biển yên bình, không gian trong xanh, mát lành; dịch vụ đẳng cấp, phù hợp cho du khách yêu biển và muốn trải nghiệm nghỉ dưỡng sang trọng.</t>
+  </si>
+  <si>
+    <t>PASS(Overlap=1.00), sent: Khách sạn Mường Thanh Luxury Đà Nẵng.; FAIL(NLI=0.00, Ov=0.50): Quy mô tổng thể....; SKIP: Tọa lạc trên đường Võ Nguyên Giáp, trung...; FAIL(NLI=0.00, Ov=0.47): Tòa nhà gồm 2 tầng hầm và 40 tầng trên mặt đất, tạo nên một kiến trúc ấn tượng và hiện đại....; PASS(Overlap=0.69), sent: Số lượng phòng rộng rãi, mỗi phòng được thiết kế độc đáo với phong cách Á Đông truyền thống kết hợp Châu Âu hiện đại, mang lại không gian sang trọng và riêng tư cho khách lưu trú.; FAIL(NLI=0.00, Ov=0.25): Tiện ích nổi bật....; PASS(Overlap=0.61), sent: Hồ bơi: Nằm ở tầng 6, diện tích 300 m², thích hợp cho việc bơi lội và thư giãn.; FAIL(NLI=0.00, Ov=0.41): Phòng tập Gym: Trang bị máy móc hiện đại, mở cửa 24 giờ để khách có thể tập luyện bất kỳ lúc nào....; SKIP: Spa: Cung cấp các liệu pháp massage và c...; FAIL(NLI=0.00, Ov=0.32): Quầy bar: Đa dạng đồ uống, tạo không gian thoải mái cho các buổi gặp gỡ và giải trí....; PASS(Overlap=0.88), sent: Nhà hàng Kim Sơn: Tọa lạc ở tầng 2, sức chứa 300 chỗ ngồi, phục vụ thực đơn phong phú, đa dạng các món ăn trong ngày.; PASS(Overlap=0.76), sent: Chuỗi nhà hàng hải sản: Nhiều lựa chọn hải sản tươi ngon, mang hương vị đậm đà, đáp ứng nhu cầu ẩm thực của du khách.; FAIL(NLI=0.00, Ov=0.00): Thông tin bổ sung....; SKIP: Địa chỉ chi tiết: Số 1, Đường Võ Nguyên ...; SKIP: Giá phòng (ước tính): từ 2.000.000 VND/đ...; FAIL(NLI=0.00, Ov=0.11): Giờ nhận phòng / trả phòng: Nhận phòng từ 14:00, trả phòng trước 12:00....; FAIL(NLI=0.00, Ov=0.00): Liên hệ: +84 236 xxxx xxx (điện thoại) hoặc email: info@muongthanhluxurydanang.com....; SKIP: Với quy mô lớn, kiến trúc hiện đại và đầ...</t>
+  </si>
+  <si>
+    <t>PASS(Overlap=0.67), sent: Nhà Hàng 4U Biển được yêu thích bởi những điểm đặc biệt sau: Vị trí đắc địa: Nằm sát bãi tắm, ngay trên bờ biển phía Đông thành phố, khách hàng có thể thưởng thức bữa ăn trong khi ngắm toàn cảnh biển xanh bao la và cảm nhận gió biển mát rượi.; SKIP: Địa chỉ: Số 123 Đường Bờ Biển, Phường Hò...; SKIP: Giờ mở cửa: 10:00 – 22:00 hằng ngày....; SKIP: Liên hệ: 0909 123 456....; PASS(Overlap=0.73), sent: Không gian thiết kế tinh tế: Kiến trúc hài hòa, nội thất thoáng đãng, tạo cảm giác gần gũi với thiên nhiên.; PASS(NLI=0.87), sent: Nhà hàng được chia thành hai khu vực chính: Khu vực trong nhà &amp; tầng lầu – thích hợp cho các buổi gặp gỡ đối tác, tiệc chiêu đãi trang trọng.; PASS(NLI=0.61), sent: Khu vực lan can nhìn ra biển – lý tưởng cho gia đình và nhóm bạn muốn thưởng thức không khí biển, nắng và gió trong khi ăn uống.; PASS(Overlap=0.77), sent: Thực đơn hải sản tươi sống: Hàng chục món hải sản được chế biến từ tôm, cá, mực tươi ngon, luôn tuân thủ tiêu chí “tươi sống, vệ sinh và chất lượng dinh dưỡng”.; PASS(Overlap=0.58), sent: Đặc sản tôm hùm biển: 4U Biển duy trì nguồn tôm hùm quanh năm; mỗi con tôm hùm có thể được chế biến thành 6‑7 món khác nhau theo yêu cầu khách hàng, mang lại trải nghiệm đa dạng và sang trọng.; PASS(Overlap=0.61), sent: Đầu bếp danh tiếng: Đầu bếp Lê Xuân Thành, người nổi tiếng với tay nghề điêu luyện, luôn tạo ra những món ăn hấp dẫn, vừa giữ được hương vị tự nhiên của hải sản vừa sáng tạo trong cách trình bày.; FAIL(NLI=0.00, Ov=0.42): Không gian lãng mạn cho cặp đôi: Với khung cảnh biển rộng mở và ánh hoàng hôn lãng mạn, 4U Biển trở thành địa điểm “điểm hẹn” lý tưởng cho các cặp đôi muốn có một buổi tối đáng nhớ....; SKIP: Giá cả hợp lý: Mức giá trung bình cho mộ...; PASS(Overlap=0.65), sent: Những yếu tố trên – vị trí tuyệt vời, không gian đa dạng, hải sản tươi ngon, đặc sản tôm hùm và sự dẫn dắt của đầu bếp tài năng – đã khiến Nhà Hàng 4U Biển trở thành một trong những địa điểm ẩm thực được du khách yêu thích nhất.</t>
+  </si>
+  <si>
+    <t>PASS(Overlap=1.00), sent: Quán Hải Sản Thời Cổ.; SKIP: Địa chỉ: 354/1 Võ Nguyên Giáp, Mỹ An (Bắ...; SKIP: Giờ mở cửa: 10:00 – 23:00....; PASS(Overlap=0.61), sent: Những điểm nổi bật: View biển tuyệt đẹp: Nằm ngay gần bãi biển du lịch Mỹ Khê, quán có khung cảnh “siêu xịn” hướng ra biển, tạo không gian thoáng đãng, lý tưởng cho buổi tụ họp bạn bè hoặc gia đình.; PASS(Overlap=0.69), sent: Hải sản tươi sống, tự chọn: Khu vực hải sản tự chọn giống như một chợ nhỏ, khách có thể tự tay chọn tôm, cua, ghẹ, mực, cá… sau đó chỉ trong 10‑15 phút sẽ được chế biến ngay tại bàn.; SKIP: Giá siêu bình dân: Hầu hết các món hải s...; PASS(Overlap=0.65), sent: Đa dạng cách chế biến: Thực đơn phong phú với các món nướng, chiên, hấp, xào và các loại lẩu (lẩu mì cay hải sản Hàn Quốc, lẩu mì cay bò, lẩu mì cay tôm hùm) đáp ứng mọi sở thích.; PASS(Overlap=0.72), sent: Chất lượng an toàn: Hải sản được nhập trực tiếp từ nguồn, qua kiểm tra và xử lý kỹ lưỡng trước khi chế biến, đảm bảo an toàn và tươi ngon.; PASS(Overlap=0.65), sent: Dịch vụ chuyên nghiệp: Đội ngũ nhân viên nhiệt tình, chu đáo, tạo cảm giác thoải mái cho thực khách.</t>
+  </si>
+  <si>
+    <t>SKIP: Bãi biển Mỹ Khê được đánh giá là một địa...; PASS(Overlap=0.65), sent: Bãi biển có sóng êm và nước trong veo, rất thích hợp cho việc tắm biển và các hoạt động dưới nước nhẹ nhàng, phù hợp với trẻ em và người cao tuổi muốn thư giãn.; PASS(NLI=0.99), sent: Tuy nhiên, trong một số đoạn sóng có thể mạnh và bờ biển dốc, nên tránh ra biển khi thời tiết mưa gió hoặc khi biển đang có sóng lớn.; PASS(NLI=0.99), sent: Luôn tuân thủ chỉ dẫn của nhân viên cứu hộ dọc bờ.; PASS(Overlap=0.62), sent: Độ sạch sẽ và cơ sở vật chất.; PASS(NLI=0.98), sent: Bãi cát rộng và rất sạch, không có rác thải hay chai lọ nhựa, tạo môi trường an toàn cho trẻ em chơi đùa.; PASS(Overlap=0.79), sent: Dọc bãi có dãy ghế ngồi dưới tán dù, cho phép người lớn tuổi nghỉ ngơi, đọc sách hoặc ngắm cảnh mà không phải đứng trên cát nóng.; PASS(NLI=1.00), sent: Thời gian thích hợp.; PASS(NLI=0.56), sent: Hai khung giờ bình minh và hoàng hôn là thời điểm yên bình, ánh sáng nhẹ nhàng, thích hợp cho cả trẻ em và người cao tuổi muốn ngắm cảnh mà không phải đối mặt với ánh nắng mạnh.; PASS(Overlap=0.52), sent: Tránh đi vào buổi chiều muộn (sau 5 giờ) nếu muốn tránh đám đông và giảm nguy cơ va chạm với người khác.; PASS(NLI=0.98), sent: Lưu ý an toàn.; PASS(Overlap=0.65), sent: Dù bãi biển có sóng êm, vẫn nên giám sát trẻ em khi chúng chơi trong nước.; PASS(Overlap=0.81), sent: Người lớn tuổi nên đi lại trên bãi cát thay vì bơi, và luôn ở gần khu vực có đội cứu hộ.; PASS(Overlap=0.71), sent: Tránh các khu vực bãi cát bị sụt xuống một chút, vì có thể gây trượt ngã.; FAIL(NLI=0.07, Ov=0.48): Kết luận: Bãi biển Mỹ Khê là một lựa chọn tốt cho gia đình có trẻ em và người cao tuổi, miễn là tuân thủ các biện pháp an toàn cơ bản (giám sát, tránh thời tiết xấu, lắng nghe chỉ dẫn của nhân viên cứu hộ)....; PASS(NLI=0.89), sent: Khi lên kế hoạch, hãy chọn thời gian sớm trong ngày hoặc lúc hoàng hôn để tận hưởng không gian sạch sẽ, yên bình và an toàn nhất.</t>
+  </si>
+  <si>
+    <t>PASS(Overlap=0.83), sent: Bãi tắm Mỹ Khê – Khu vực trung tâm (khu an toàn nhất).; SKIP: Địa chỉ: Đường Phạm Văn Đồng, gần ngã rẽ...; SKIP: Giờ mở cửa: 24 giờ (tốt nhất từ 06:00 – ...; SKIP: Giá vào: Miễn phí....; PASS(Overlap=0.80), sent: An toàn: Có đội cứu hộ và nhân viên an ninh luôn túc trực, đặc biệt ở phần trung tâm gần các khu nghỉ dưỡng và nhà hàng.; PASS(Overlap=0.63), sent: Sóng nhẹ, bãi cát mịn, nước trong xanh, phù hợp cho mọi lứa tuổi và người mới học bơi.; PASS(NLI=0.98), sent: Khu vực luôn được giữ sạch sẽ, không có rác thải, giúp du khách cảm thấy yên tâm khi tắm biển.; PASS(NLI=0.52), sent: Tiện ích xung quanh: Nhiều khách sạn, nhà hàng và quán cà phê dọc theo bờ, thuận tiện cho việc nghỉ ngơi và ăn uống.; PASS(Overlap=0.75), sent: Với các yếu tố trên, khu vực trung tâm của bãi tắm Mỹ Khê được xem là “khu vực chính” và là nơi an toàn nhất cho du khách khi đến thăm Đà Nẵng.</t>
+  </si>
+  <si>
+    <t>PASS(Overlap=1.00), sent: Các món đặc sản không thể bỏ lỡ khi du lịch Đà Nẵng.; SKIP: Mì Quảng....; SKIP: Địa chỉ nổi bật: Mì Quảng Bà Mua – 19‑21...; PASS(Overlap=0.75), sent: Mì Quảng Thị Gia Truyền – 251 Hoàng Diệu.; PASS(Overlap=0.80), sent: Mì Quảng 1A – 1 Hải Phòng.; SKIP: Giá: 30.000 – 50.000 VND (tùy topping)....; SKIP: Giờ mở cửa: 07:00 – 21:00 hằng ngày....; PASS(NLI=0.62), sent: Mô tả: Sợi mì vàng mềm dai, nước dùng đậm đà, kèm tôm, gà, thịt heo, trứng cút và lạc rang.; PASS(NLI=0.94), sent: Đây là biểu tượng ẩm thực Đà Nẵng, luôn khiến thực khách “say lòng” ngay lần đầu thưởng thức.; SKIP: Cơm Hến....; SKIP: Địa chỉ tiêu biểu: Cơm Hến Xuyến Lợi – đ...; PASS(Overlap=0.57), sent: Cơm Hến Cô Giao – 364/27 Lê Duẩn.; PASS(Overlap=0.67), sent: Cơm Hến Kiệt – 356 Hoàng Diệu.; PASS(Overlap=0.80), sent: Cơm Hến – Cơ m hến Huế – 258 Trưng Nữ Vương, Hải Châu.; PASS(Overlap=0.89), sent: Cơm Hến Thanh – 105 Huỳnh Thúc Kháng, Hải Châu.; SKIP: Giá: khoảng 30.000 – 45.000 VND một bát....; SKIP: Giờ mở cửa: 06:00 – 22:00 hằng ngày....; PASS(Overlap=0.84), sent: Mô tả: Hến tươi ngọt thanh, nước hến ngọt nhẹ, kèm tóp mỡ giòn tan và rau thơm, là món ăn ít calo, giàu dinh dưỡng và được du khách quốc tế yêu thích.; PASS(Overlap=0.67), sent: Bánh bèo (đặc sản chợ Cồn).; PASS(NLI=0.98), sent: Địa điểm: Chợ Cồn – ngã tư Hùng Vương – Ông Ích Khiêm.; SKIP: Giá: 15.000 – 30.000 VND mỗi chén (tùy t...; SKIP: Giờ mở cửa: 06:00 – 20:00 hằng ngày....; PASS(Overlap=0.81), sent: Mô tả: Những chén bánh bèo mềm mịn, rắc tôm cháy, mỡ hành, chả và nem, ăn kèm nước mắm pha vừa miệng, tạo hương vị béo, mặn, ngọt, cay hài hòa.; PASS(Overlap=0.78), sent: Bánh tráng cuốn thịt heo (đặc sản chợ Cồn).; PASS(NLI=0.98), sent: Địa điểm: Chợ Cồn – ngã tư Hùng Vương – Ông Ích Khiêm.; SKIP: Giá: 20.000 – 35.000 VND mỗi cuốn....; SKIP: Giờ mở cửa: 06:00 – 20:00 hằng ngày....; PASS(Overlap=0.87), sent: Mô tả: Thịt heo luộc thái lát mỏng cuốn trong bánh tráng mỏng, ăn kèm rau sống và mắm nêm, vị ngọt của thịt hòa quyện với hương mắm nêm đặc trưng.; PASS(Overlap=0.71), sent: Bánh bột lọc (đặc sản chợ Cồn).; PASS(NLI=0.98), sent: Địa điểm: Chợ Cồn – ngã tư Hùng Vương – Ông Ích Khiêm.; SKIP: Giá: 15.000 – 25.000 VND mỗi chiếc....; SKIP: Giờ mở cửa: 06:00 – 20:00 hằng ngày....; PASS(Overlap=0.70), sent: Mô tả: Bánh bột lọc trong veo, nhân tôm thịt đậm đà, ăn kèm nước mắm chua ngọt, tạo cảm giác nhẹ nhàng nhưng đầy hương vị.; PASS(Overlap=0.75), sent: Bún chả cá – Bún chả cá Hờn.; SKIP: Giá: khoảng 45.000 – 60.000 VND một bát....; SKIP: Giờ mở cửa: 10:00 – 22:00 hằng ngày....; PASS(Overlap=0.76), sent: Mô tả: Nước dùng vàng óng từ nghệ và cà chua, thơm ngon, kèm cá chả, rau củ tươi, là món ăn truyền thống đã có hơn 30 năm lịch sử tại Đà Nẵng.; PASS(Overlap=0.67), sent: Phở Việt Kiều.; SKIP: Giá: 35.000 – 50.000 VND một tô....; SKIP: Giờ mở cửa: 07:00 – 22:00 hằng ngày....; SKIP: Mô tả: Phở đa dạng thực đơn, phục vụ du ...</t>
+  </si>
+  <si>
+    <t>PASS(Overlap=0.81), sent: Cơm gà Đà Nẵng được chế biến và ăn kèm theo những cách đặc trưng sau: Cơm: Gạo địa phương, nấu thành hạt dẻo thơm, nóng hổi.; PASS(Overlap=0.53), sent: Thịt gà: Chiên giòn: Gà được ướp gia vị rồi chiên đến màu vàng, giòn rụm.; FAIL(NLI=0.00, Ov=0.50): Xé phay: Gà được luộc, xé sợi mỏng, ướp gia vị đậm đà....; FAIL(NLI=0.00, Ov=0.33): Nướng: Gà ướp thảo mộc, nướng tới độ thơm và da giòn....; PASS(Overlap=0.65), sent: Nước sốt đặc biệt: Sốt ngọt mặn, thường có hương vị tỏi, hành, và một chút ớt để tạo vị cay nhẹ.; FAIL(NLI=0.00, Ov=0.12): Rau sống &amp; phụ kiện: Rau tươi (xà lách, rau thơm)....; FAIL(NLI=0.00, Ov=0.40): Kim chi và dưa leo thái lát mỏng, giúp cân bằng vị béo của gà....; FAIL(NLI=0.00, Ov=0.50): Tương ớt hoặc tương ớt cay để tăng độ cay nhẹ....; FAIL(NLI=0.00, Ov=0.48): Các món kèm phụ: Đôi khi có thêm đậu phộng rang hoặc hạt mè rắc lên trên để tăng độ giòn....; PASS(Overlap=0.66), sent: Nhờ sự kết hợp giữa cơm dẻo, gà đa dạng cách chế biến và các loại rau, nước sốt đặc trưng, cơm gà Đà Nẵng mang lại hương vị độc đáo, vừa thơm ngon, vừa cân bằng dinh dưỡng cho bữa trưa hoặc bữa xế.</t>
+  </si>
+  <si>
+    <t>PASS(NLI=0.98), sent: Các loại hải sản nổi tiếng ở Đà Nẵng và cách chế biến thường gặp.; PASS(NLI=0.47), sent: Tôm – thường được hấp xả, xào tỏi, luộc hoặc nấu lẩu để giữ vị ngọt tự nhiên và độ giòn mềm vừa phải.; PASS(NLI=0.83), sent: Cua – phổ biến với các món cua rim me, cua hấp sả, hoặc cua nướng; cách nấu giúp thịt cua ngấm vị chua ngọt, thơm mùi me hoặc sả.; PASS(NLI=0.44), sent: Ghẹ – thường luộc, hấp hoặc xào tỏi; cách chế biến đơn giản giúp giữ được vị ngọt thanh của thịt ghẹ.; PASS(NLI=0.37), sent: Mực – có nhiều cách chế biến như mực nướng muối ớt, mực nướng trên than hồng, mực xào đậm đà, mực chiên giòn rụm và mực nướng phô mai; mỗi phương pháp đều làm nổi bật độ dai, ngọt và hương thơm đặc trưng.; PASS(NLI=0.60), sent: Bề bề – thường luộc, hấp hoặc xào tỏi; cách nấu nhẹ nhàng giúp giữ được độ giòn và vị ngọt tự nhiên của thịt bề bề.; PASS(NLI=0.97), sent: Ốc (ốc vòi voi, ốc hương, ốc nhồi,…) – được ưa chuộng trong các món ốc hấp sả, ốc xào me, hoặc ốc nướng; hương vị đậm đà của sả, me hoặc gia vị nướng làm tăng sức hấp dẫn.; PASS(Overlap=0.67), sent: Hàu – thường nướng mỡ hành, hấp hoặc lẩu; cách nướng mỡ hành tạo ra hương thơm béo ngậy, còn hấp giữ được vị tươi ngon của hàu.; PASS(Overlap=0.86), sent: Những món hải sản này hầu hết được chế biến ngay khi gọi, cho phép thực khách tùy chỉnh độ cay, độ mặn và các loại gia vị theo sở thích cá nhân, tạo nên trải nghiệm ẩm thực tươi ngon và đa dạng tại Đà Nẵng.</t>
+  </si>
+  <si>
+    <t>PASS(NLI=0.98), sent: Các đặc sản Đà Nẵng thích hợp làm quà.; PASS(Overlap=0.93), sent: Mực một nắng – mực tươi chỉ được phơi qua một nắng, giữ được độ ngọt và dẻo dai.; SKIP: Địa chỉ: Chợ Hàn, 31 Trần Phú, Hải Châu,...; SKIP: Giá: khoảng 120 000 – 150 000 VND/kg....; SKIP: Giờ mở cửa: 06:00 – 20:00 hằng ngày....; PASS(Overlap=0.91), sent: Mực rim me – mực rim trong nước sốt me chua ngọt, cay mặn, là món ăn vặt được ưa chuộng và thường được mua làm quà.; SKIP: Địa chỉ: Quán “Mực Rim Me” tại 45 Lê Duẩ...; SKIP: Giá: khoảng 130 000 – 180 000 VND/kg (tù...; SKIP: Giờ mở cửa: 10:00 – 22:00....; PASS(Overlap=0.64), sent: Nai khô nguyên miếng – thịt nai được sấy khô nguyên miếng, giòn tan, giàu protein, là món quà độc đáo cho người yêu ẩm thực.; SKIP: Địa chỉ: Cửa hàng “Nai Khô Đà Nẵng” tại ...; SKIP: Giá: khoảng 250 000 – 300 000 VND/miếng ...; SKIP: Giờ mở cửa: 08:00 – 21:00....; PASS(Overlap=1.00), sent: Chả bò Đà Nẵng – chả bò dai ngon, ngọt thịt, thường được mua tại các cơ sở Lê Trọng Thịnh hoặc Bà Hường.; SKIP: Địa chỉ: Lê Trọng Thịnh: 31 Lê Trọng Thị...; FAIL(NLI=0.00, Ov=0.44): Bà Hường: 45 Lê Duẩn, Hải Châu, Đà Nẵng....; SKIP: Giá: khoảng 80 000 – 120 000 VND/đĩa (kh...; SKIP: Giờ mở cửa: 07:00 – 20:00....; PASS(Overlap=0.95), sent: Bánh khô mè – bánh khô làm từ bột gạo, mè và đường, giòn tan, thường bán ở Bà Liễu Mẹ hoặc Cẩm Lệ.; SKIP: Địa chỉ: Bà Liễu Mẹ: 78 Lê Duẩn, Hải Châ...; SKIP: Cẩm Lệ: 22 Đường 30, Quận Cẩm Lệ, Đà Nẵn...; SKIP: Giá: khoảng 30 000 – 45 000 VND/chiếc (k...; SKIP: Giờ mở cửa: 08:00 – 19:00....; SKIP: Nước mắm Nam Ô – nước mắm truyền thống đ...; SKIP: Địa chỉ: Nhà máy “Nước Mắm Nam Ô” – 150 ...; SKIP: Giá: 250 000 – 350 000 VND/chai 500 ml....; SKIP: Giờ mở cửa: 08:00 – 18:00 (cửa hàng bán ...; PASS(Overlap=0.88), sent: Mắm nêm Dì Cẩn – mắm nêm đặc trưng của Đà Nẵng, thường được dùng kèm các món gỏi, cuốn.; PASS(Overlap=0.88), sent: Được đánh giá “điểm mười cho chất lượng”.; SKIP: Địa chỉ: Cửa hàng “Mắm Nêm Dì Cẩn” – 23 ...; SKIP: Giá: khoảng 120 000 – 180 000 VND/chai 2...; SKIP: Giờ mở cửa: 09:00 – 21:00....; PASS(Overlap=0.80), sent: Những món trên đều là những đặc sản tiêu biểu, dễ mua và rất thích hợp để làm quà lưu niệm cho người thân, bạn bè khi bạn du lịch Đà Nẵng.; SKIP: Chúc bạn có một chuyến mua sắm thú vị!...</t>
+  </si>
+  <si>
+    <t>PASS(Overlap=0.78), sent: Du lịch Đà Nẵng tự túc vs du lịch Đà Nẵng theo tour.; PASS(Overlap=0.75), sent: Tự do &amp; linh hoạt.; PASS(Overlap=0.55), sent: Tự túc: Bạn tự quyết định lịch trình, thời gian tham quan, và có thể thay đổi kế hoạch bất cứ lúc nào.; FAIL(NLI=0.00, Ov=0.44): Tour: Lịch trình được công ty du lịch sắp xếp cố định, ít khả năng điều chỉnh....; SKIP: Chi phí....; SKIP: Tự túc: Dễ điều chỉnh chi phí theo nhu c...; SKIP: Tour: Giá trọn gói bao gồm vé máy bay/tà...; SKIP: Chuẩn bị....; FAIL(NLI=0.17, Ov=0.50): Tự túc: Cần dành thời gian tìm kiếm thông tin, lên kế hoạch chi tiết, đặt vé, khách sạn, và sắp xếp phương tiện di chuyển....; PASS(NLI=0.50), sent: Tour: Công ty du lịch lo toàn bộ từ đặt vé, khách sạn, phương tiện, đến hướng dẫn viên; bạn không phải lo lắng về việc chuẩn bị.; FAIL(NLI=0.03, Ov=0.50): An toàn &amp; hỗ trợ....; PASS(Overlap=0.60), sent: Tự túc: Khi lần đầu tự đi, có thể lo ngại về an toàn, đặc biệt ở những địa điểm chưa quen.; FAIL(NLI=0.00, Ov=0.47): Tour: Được hỗ trợ bởi hướng dẫn viên và đội ngũ công ty, giảm thiểu rủi ro nếu chọn công ty uy tín; tuy nhiên, nếu công ty không chuyên nghiệp có thể gặp vấn đề....; SKIP: Thời gian....; FAIL(NLI=0.07, Ov=0.44): Tự túc: Bạn tự quyết định thời gian lưu trú; có thể kéo dài hoặc rút ngắn tùy ý....; SKIP: Tour: Thời gian cố định theo gói (ví dụ:...; SKIP: Trải nghiệm....; FAIL(NLI=0.04, Ov=0.45): Tự túc: Thích hợp cho du khách muốn khám phá sâu hơn, tự mình khám phá các góc khuất, ăn uống tại các quán địa phương....; PASS(Overlap=0.65), sent: Tour: Thích hợp cho du khách muốn trải nghiệm các điểm nổi bật nhanh chóng, không muốn mất công lên kế hoạch chi tiết.</t>
+  </si>
+  <si>
+    <t>SKIP: Chi phí trung bình cho chuyến du lịch Đà...; SKIP: Hạng mục Chi phí (VNĐ) Ghi chú Vé máy ba...; SKIP: Lưu trú ≈ 2.400.000 Khách sạn gần bãi bi...; PASS(NLI=0.44), sent: Thuê xe máy ≈ 300.000 Thuê xe máy 100 – 150 nghìn/ngày; tính cao nhất 150 nghìn × 2 ngày.; SKIP: Vé tham quan ≈ 1.000.000 Gói tour Bà Nà ...; PASS(Overlap=0.62), sent: Ăn uống ≈ 1.350.000 Bữa sáng, trưa, tối trung bình 150 nghìn/bữa × 3 bữa/ngày × 3 ngày.; PASS(Overlap=0.80), sent: (Giá tham khảo từ kinh nghiệm du lịch miền Trung).; SKIP: Hoạt động giải trí / di chuyển phụ ≈ 200...; FAIL(NLI=0.08, Ov=0.50): Lưu ý khi tính toán....; SKIP: Các mức giá trên dựa trên thông tin tron...; SKIP: Nếu bạn chọn khách sạn tầm trung giá 350...; PASS(Overlap=0.83), sent: Đối với du lịch nhóm, chi phí thuê xe máy, vé tham quan và một số chi phí ăn uống có thể chia sẻ, làm giảm chi phí trung bình cho mỗi người.</t>
+  </si>
+  <si>
+    <t>PASS(Overlap=0.92), sent: Đặc sản Đà Nẵng thích hợp làm quà và giá tham khảo.; PASS(Overlap=0.75), sent: Chả bò Đà Nẵng.; PASS(NLI=0.96), sent: Mô tả: Thịt bò dai ngon, ngọt thịt, thường được bán tại các cơ sở Lê Trọng Thịnh và Bà Hường.; SKIP: Giá tham khảo: 30 000 – 50 000 VND/kg (h...; SKIP: Địa chỉ mua: Lê Trọng Thịnh (123 Lê Trọn...; PASS(Overlap=0.67), sent: Tré bà Đệ.; PASS(Overlap=0.69), sent: Mô tả: Tré nạc thơm, được gói lá chuối, ủ vài ngày, rất thích hợp làm quà.; SKIP: Giá tham khảo: 13 000 VND/hộp (10 chiếc)...; SKIP: Địa chỉ mua: 81 Hải Phòng, quận Hải Châu...; SKIP: Đà Nẵng....; PASS(Overlap=0.67), sent: Mực một nắng.; PASS(Overlap=0.85), sent: Mô tả: Mực tươi chỉ phơi qua một nắng, giữ độ ngọt và dẻo dai, là món quà độc đáo.; SKIP: Giá tham khảo: 80 000 VND/kg....; SKIP: Địa chỉ mua: Các chợ hải sản lớn như Chợ...; PASS(Overlap=0.67), sent: Mực rim me.; PASS(NLI=0.64), sent: Mô tả: Mực rim với nước me chua ngọt, cay mặn, là món ăn vặt được ưa chuộng.; SKIP: Giá tham khảo: 70 000 VND/kg....; SKIP: Địa chỉ mua: Các quán ăn vặt quanh khu v...; PASS(Overlap=0.67), sent: Bánh khô mè.; PASS(NLI=0.89), sent: Mô tả: Bánh khô giòn tan, làm từ bột gạo, mè và đường, thường bán tại Bà Liễu Mẹ hoặc Cẩm Lệ.; SKIP: Giá tham khảo: 20 000 VND/đĩa (khoảng 15...; SKIP: Địa chỉ mua: Bà Liễu Mẹ (Số 5 Lê Duẩn, H...; PASS(Overlap=0.75), sent: Nước mắm Nam Ô.; SKIP: Mô tả: Nước mắm truyền thống, màu cánh g...; SKIP: Giá tham khảo: 150 000 VND/500 ml....; SKIP: Địa chỉ mua: Các cửa hàng thực phẩm địa ...; PASS(Overlap=0.75), sent: Rong biển Mỹ Khê.; PASS(Overlap=0.72), sent: Mô tả: Rong biển tươi, giàu dinh dưỡng, mang vị biển tự nhiên, thích hợp làm quà sức khỏe.; SKIP: Giá tham khảo: 30 000 VND/100 g....; SKIP: Địa chỉ mua: Khu vực bãi biển Mỹ Khê (cạ...</t>
+  </si>
+  <si>
+    <t>PASS(Overlap=0.52), sent: Nước mắm Nam Ô được chế biến theo quy trình truyền thống: Nguyên liệu chính: cá cơm tươi (cá cơm) được ướp muối.; PASS(NLI=0.51), sent: Thời gian ủ: lên tới 12 tháng (ủ truyền thống).; PASS(Overlap=0.55), sent: Quá trình ủ lâu ngày giúp nước mắm phát triển hương vị thơm ngon, đậm đà và màu sắc đặc trưng.</t>
+  </si>
+  <si>
+    <t>PASS(Overlap=0.59), sent: Rong biển Mỹ Khê là nguyên liệu đa năng, có thể được chế biến thành nhiều món ăn khác nhau, bao gồm: Canh – dùng rong biển làm nền cho các loại canh hải sản hoặc canh rau, tạo vị thanh mát, bổ dưỡng.; FAIL(NLI=0.00, Ov=0.38): Gỏi – cắt nhỏ rong biển trộn với các loại rau, hải sản, nước chấm chua ngọt, tạo nên món gỏi biển tươi ngon....; FAIL(NLI=0.00, Ov=0.26): Salad – tương tự gỏi, nhưng thường kèm thêm các nguyên liệu như cà chua, dưa leo, dầu ô liu, mang lại hương vị hiện đại và nhẹ nhàng....; FAIL(NLI=0.00, Ov=0.33): Xào – rong biển nhanh chóng chín khi xào với tỏi, ớt, hoặc các loại hải sản, tạo món xào giòn tan, thơm lừng....; PASS(Overlap=0.61), sent: Ăn tươi – có thể thưởng thức rong biển tươi nguyên chất, hoặc ngâm trong nước lạnh để giữ độ giòn và vị biển tự nhiên.; PASS(Overlap=0.62), sent: Những cách chế biến trên giúp khai thác tối đa giá trị dinh dưỡng và hương vị đặc trưng của Rong biển Mỹ Khê.</t>
+  </si>
+  <si>
+    <t>PASS(Overlap=0.67), sent: Bánh khô mè.; FAIL(NLI=0.00, Ov=0.50): Đặc điểm nổi bật....; PASS(Overlap=0.92), sent: Loại bánh gia truyền, được làm từ bột gạo, mè và đường.; PASS(Overlap=0.67), sent: Kết cấu giòn xốp, vị ngọt nhẹ và hương thơm mùi mè rang đặc trưng.; PASS(Overlap=0.77), sent: Được phủ mè rang, tạo thêm độ giòn và hương vị đậm đà.; PASS(Overlap=0.67), sent: Phù hợp làm quà cho ai.; PASS(Overlap=0.62), sent: Đặc biệt thích hợp làm quà tặng cho người lớn tuổi nhờ vị ngọt nhẹ, không quá béo và dễ ăn.; PASS(Overlap=0.58), sent: Cũng là lựa chọn tốt cho người yêu thích các món bánh truyền thống, muốn mang về làm quà lưu niệm khi du lịch Đà Nẵng.; FAIL(NLI=0.00, Ov=0.25): Thông tin mua hàng....; SKIP: Giá tham khảo: 3.000 VNĐ/hộp 250 g; hoặc...; SKIP: Địa chỉ bán: Cửa hàng Bà Liễu (200/1 Ông...; PASS(Overlap=0.55), sent: Với hương vị truyền thống và hình thức gói gọn, bánh khô mè là món quà vừa ý, vừa thể hiện sự quan tâm tới sức khỏe và sở thích của người nhận.</t>
+  </si>
+  <si>
+    <t>PASS(Overlap=0.93), sent: Mắm ruốc Dì Cẩn có hương vị đậm đà, cay nhẹ và rất đặc trưng.; PASS(Overlap=0.68), sent: Đây là loại mắm nêm nổi tiếng của Đà Nẵng, thường được mô tả là “linh hồn” của nhiều món ăn.; PASS(Overlap=0.59), sent: Các món thường dùng kèm mắm ruốc Dì Cẩn: Món cuốn (gỏi cuốn, bánh cuốn, bánh xèo cuốn…) – mắm ruốc là nước chấm chính, tạo độ đậm đà và vị cay nhẹ cho cuốn.; FAIL(NLI=0.00, Ov=0.47): Món gỏi (gỏi hải sản, gỏi thịt…) – dùng để pha chế nước chấm, tăng hương vị thơm ngon....; FAIL(NLI=0.00, Ov=0.48): Món bún (bún chả, bún thịt nướng, bún cá…) – mắm ruốc được thêm vào nước chấm hoặc trộn trực tiếp vào bún để tạo vị đậm đà....; FAIL(NLI=0.00, Ov=0.44): Các món ăn khác như bánh tráng trộn, bánh xèo, bánh khọt… cũng thường dùng mắm ruốc Dì Cẩn làm nước chấm hoặc gia vị phụ trợ....; PASS(Overlap=0.59), sent: Với hương vị đặc biệt này, mắm ruốc Dì Cẩn không chỉ là gia vị mà còn là “linh hồn” làm nổi bật hương vị của nhiều món ăn truyền thống Đà Nẵng.</t>
+  </si>
+  <si>
+    <t>PASS(NLI=0.99), sent: Các lưu ý giúp du khách tiết kiệm chi phí khi du lịch Đà Nẵng.; PASS(NLI=1.00), sent: Chọn mùa du lịch phù hợp.; SKIP: Đi vào mùa mưa (tháng 9‑12) để tận dụng ...; PASS(Overlap=0.82), sent: Thời tiết mưa rào ngắn, không ảnh hưởng lớn tới lịch trình, đồng thời ít đông đúc nên bạn có thể tham quan thoải mái mà không phải trả phí cao cho các tour cao điểm.; PASS(NLI=1.00), sent: Sử dụng thẻ ATM và mang một ít tiền mặt.; PASS(Overlap=0.58), sent: Rút tiền tại các máy ATM địa phương bằng thẻ ngân hàng để tránh phí chuyển đổi tiền tệ cao.; PASS(Overlap=0.70), sent: Mang một ít tiền mặt dự phòng cho các giao dịch nhỏ (mua đồ ăn vặt, trả phí bãi đỗ, v.v.) giúp không phải trả thêm phí dịch vụ thẻ.; PASS(NLI=1.00), sent: Đặt tour hoặc combo du lịch chất lượng, giá tốt trước khi đi.; PASS(Overlap=0.56), sent: Tham khảo các tour, combo du lịch Đà Nẵng đã được gợi ý trong tài liệu, chúng thường bao gồm vé vào cổng, phương tiện di chuyển và hướng dẫn viên với mức giá ưu đãi hơn so với việc tự mua lẻ từng điểm.; PASS(Overlap=0.90), sent: Tránh các dịch vụ có giá cao không cần thiết.; SKIP: Ở bãi đá Obama, giá thuê chòi từ 500 ngh...; PASS(NLI=0.62), sent: Bạn có thể ngồi trên các tảng đá hoặc cây cầu gỗ để chụp ảnh mà không tốn phí, hoặc tự mang bạt để tổ chức picnic/cắm trại nếu muốn.; PASS(NLI=0.56), sent: Mang đầy đủ đồ dùng cá nhân.; PASS(NLI=0.92), sent: Chuẩn bị quần áo, mỹ phẩm, thuốc men (kem chống nắng, thuốc cảm cúm, thuốc ho, thuốc tiêu hoá…) trước khi khởi hành.; PASS(Overlap=0.67), sent: Như vậy sẽ không phải mua các mặt hàng này ở địa phương với giá cao hoặc phải tìm kiếm cửa hàng phù hợp.; PASS(Overlap=0.92), sent: Lên kế hoạch chi tiết và theo dõi dự báo thời tiết.; FAIL(NLI=0.00, Ov=0.50): Kiểm tra thời tiết trước và trong chuyến đi để điều chỉnh lịch trình kịp thời, tránh phải thay đổi phương tiện hoặc đặt lại phòng khách sạn vào phút chót – những yếu tố thường gây phát sinh chi phí....; PASS(Overlap=0.88), sent: Áp dụng những lưu ý trên sẽ giúp du khách giảm đáng kể chi phí mà vẫn có được trải nghiệm du lịch Đà Nẵng đầy thú vị.</t>
+  </si>
+  <si>
+    <t>SKIP: Khí hậu Đà Nẵng được chia thành 2 mùa ch...; PASS(Overlap=0.62), sent: Thời tiết khô ráo, nắng nhiều, nhiệt độ ngày thường từ 30 °C đến 36 °C.; PASS(NLI=1.00), sent: Thích hợp cho các hoạt động biển, tắm bơi, lặn ngắm san hô, leo núi và các lễ hội ngoài trời.; SKIP: Mùa mưa – khoảng tháng 8 đến tháng 1....; PASS(NLI=0.89), sent: Có mưa dông, bão rải rác, nhiệt độ hơi mát hơn nhưng vẫn ấm áp.; PASS(Overlap=0.78), sent: Thời gian này ít phù hợp cho các hoạt động ngoài trời, nhưng vẫn có những ngày đẹp.; PASS(Overlap=1.00), sent: Thời điểm đẹp nhất để du lịch Đà Nẵng.; SKIP: Mùa khô, đặc biệt từ tháng 4 đến giữa th...; PASS(NLI=0.88), sent: Tháng 6‑7: nắng rực rỡ, không mưa lớn, thích hợp cho tắm biển, tham quan các bãi như Mỹ Khê, Cù Lao Chàm và tham gia lễ hội (ví dụ Lễ hội Pháo hoa quốc tế Đà Nẵng).; PASS(NLI=0.93), sent: Đây cũng là mùa du lịch cao điểm, vì thời tiết ổn định và nhiều sự kiện văn hoá, thể thao.; SKIP: Cuối tháng 12 đến cuối tháng 3 cũng là k...; SKIP: Giá dịch vụ khách sạn và ăn uống ổn định...; SKIP: Tóm lại, Đà Nẵng có 2 mùa (khô và mưa), ...</t>
+  </si>
+  <si>
+    <t>PASS(NLI=0.84), sent: Bán đảo Sơn Trà là “viên ngọc quý” của Đà Nẵng, nơi hội tụ đa dạng hoạt động và cảnh quan thiên nhiên độc đáo.; SKIP: Dưới đây là những trải nghiệm không thể ...; PASS(NLI=1.00), sent: Tham gia các tour lặn hoặc snorkeling để chiêm ngưỡng rạn san hô rực rỡ dưới lòng biển.; PASS(NLI=0.89), sent: Bạn chỉ cần áo phao, kính lặn, ống thở và mặt nạ; các điểm lặn phổ biến nằm quanh bãi Tiên Sa và Bãi Bụt.; PASS(NLI=0.98), sent: Ngắm voọc chà vá chân nâu.; PASS(NLI=1.00), sent: Sơn Trà là nơi sinh sống của loài linh trưởng quý hiếm này.; PASS(Overlap=0.64), sent: Du khách có thể quan sát chúng trong môi trường tự nhiên, đồng thời tuân thủ quy định không cho ăn và không gây ồn ào.; PASS(NLI=0.62), sent: Tham quan chùa Linh Ứng và tượng Quan Thế Âm.; PASS(Overlap=0.79), sent: Nằm trên đỉnh núi, chùa Linh Ứng nổi tiếng với bức tượng Quan Thế Âm cao nhất Việt Nam, mang lại cảm giác thanh tịnh và tầm nhìn toàn cảnh thành phố Đà Nẵng.; PASS(NLI=1.00), sent: Leo đỉnh Bàn Cờ &amp; ngắm toàn cảnh.; PASS(Overlap=0.71), sent: Đường lên đỉnh uốn lượn qua rừng nguyên sinh, dẫn tới điểm nhìn “Bàn Cờ” – nơi bạn có thể ngắm nhìn thành phố, biển và các dãy núi xung quanh trong một khung cảnh hùng vĩ.; PASS(NLI=0.94), sent: Thăm hải đăng Sơn Trà và ngọn Hải Đăng.; PASS(Overlap=0.67), sent: Hải đăng cổ kính nằm trên mũi đất cao, là biểu tượng dẫn đường cho các tàu thuyền.; PASS(Overlap=0.56), sent: Từ đây, bình minh và hoàng hôn tạo nên những bức tranh màu sắc tuyệt đẹp.; PASS(NLI=1.00), sent: Khám phá các bãi biển và bãi tắm.; PASS(Overlap=0.56), sent: Bãi Tiên Sa, Bãi Đá Đen, Bãi Bụt, Bãi Rạng, Bãi Đa… mỗi bãi đều có cát trắng mịn, nước trong xanh và không gian yên bình, thích hợp cho tắm biển, dã ngoại hoặc chụp ảnh.; PASS(Overlap=0.70), sent: Tham quan sân bay trực thăng (di tích lịch sử).; PASS(NLI=0.92), sent: Dù hiện nay đã bỏ hoang, sân bay trực thăng là chứng nhân lịch sử của các hoạt động quân sự Mỹ trong quá khứ, thu hút khách du lịch tới tham quan và ngắm nhìn Đà Nẵng từ trên cao.; PASS(Overlap=0.62), sent: Ngoài các hoạt động trên, cây đa ngàn năm tuổi và rừng nguyên sinh bao phủ khắp bán đảo, tạo nên không gian hoang sơ, mộc mạc và đầy sức sống cho mọi du khách muốn hòa mình vào thiên nhiên.</t>
+  </si>
+  <si>
+    <t>SKIP: Bà Nà Hills cách trung tâm thành phố Đà ...; PASS(Overlap=0.94), sent: Khu du lịch nằm trên dãy núi Trường Sơn, thuộc xã Hòa Ninh, huyện Hòa Vang, Đà Nẵng.; PASS(NLI=0.98), sent: Các điểm nổi bật tại Bà Nà Hills.; FAIL(NLI=0.06, Ov=0.48): Cầu Vàng – cây cầu hình bàn tay khổng lồ nổi tiếng, là “cảnh quan biểu tượng” thu hút hàng nghìn du khách chụp ảnh....; PASS(Overlap=0.72), sent: Chùa Linh Ứng – nơi thờ tượng Quan Âm cao 67 m, mang không gian tĩnh lặng, tâm linh.; FAIL(NLI=0.14, Ov=0.48): Hầm rượu Debay – hầm rượu cổ kính với kiến trúc độc đáo, là điểm dừng chân thú vị khi khám phá khu vực....; PASS(Overlap=0.82), sent: Vườn hoa Le Jardin D’Amour – khu vườn hoa rực rỡ, thích hợp cho các cặp đôi và những ai yêu thích không gian lãng mạn.; PASS(Overlap=0.70), sent: Khu làng Pháp – khu phố mang phong cách kiến trúc Pháp cổ, có thể trải nghiệm “ngủ đêm” để ghi lại kỷ niệm đặc biệt.; PASS(Overlap=0.89), sent: Khu vui chơi giải trí – bao gồm các trò chơi, khu vui chơi trên núi, và các tuyến cáp treo (Suối Mơ – Bà Nà, Debay – Morin, Thác Tóc Tiên – L'Indochine) đưa du khách lên cao ngắm toàn cảnh thiên nhiên hùng vĩ.; PASS(Overlap=0.65), sent: Khu tâm linh – không gian yên bình, thích hợp cho những ai muốn tìm sự thanh thản giữa thiên nhiên.; PASS(Overlap=0.65), sent: Những điểm trên tạo nên “tiên cảnh trên mây” mà Bà Nà Hills được mệnh danh, mang đến cho du khách trải nghiệm đa dạng từ thiên nhiên, văn hoá đến giải trí.</t>
+  </si>
+  <si>
+    <t>FAIL(NLI=0.00, Ov=0.49): Giếng Trời ở khu bảo tồn Bà Nà – Núi Chúa thu hút du khách bởi: Cảnh quan thiên nhiên hoang sơ – Hai dòng suối hòa quyện và đổ xuống tạo thành một thác nước trong lành, mang lại không gian yên bình và tươi mát....; SKIP: Đường trekking thách thức – Đường lên Gi...; FAIL(NLI=0.00, Ov=0.42): Hoạt động ngoài trời đa dạng – Khu vực là địa điểm lý tưởng để cắm trại, leo núi, và tắm suối, cho phép du khách trải nghiệm thiên nhiên một cách trọn vẹn....</t>
+  </si>
+  <si>
+    <t>PASS(NLI=0.81), sent: Số lượng ngọn núi: Ngũ Hành Sơn gồm 5 ngọn núi đá vôi tượng trưng cho ngũ hành: Kim, Mộc, Thủy, Hỏa, Thổ.; SKIP: Địa chỉ &amp; giờ mở cửa....; SKIP: Địa chỉ: 52 Huyền Trân Công Chúa, Hoà Hả...; SKIP: Giờ mở cửa: 7:00 – 17:00 (có thể thay đổ...; SKIP: Vé vào cửa: khoảng 40.000 – 50.000 VND c...; PASS(NLI=1.00), sent: Đặc điểm nổi bật của từng ngọn núi.; SKIP: Kim Sơn....; PASS(Overlap=0.93), sent: Hình dáng giống một quả chuông úp sấp, nằm bên bờ sông Cổ Cò.; PASS(Overlap=1.00), sent: Nơi có Chùa Quan Thế Âm cổ kính và Động Quan Âm huyền bí.; SKIP: Mộc Sơn....; PASS(Overlap=0.67), sent: Nằm song song với Thủy Sơn, có nhiều thảm thực vật xanh mướt.; PASS(NLI=0.95), sent: Được biết đến với các động đá và đền thờ mang đậm nét thiên nhiên.; SKIP: Thủy Sơn....; PASS(Overlap=0.78), sent: Ngọn cao nhất (≈ 106 m) và là đỉnh Tam Thai với ba ngọn ở ba tầng, giống ba ngôi sao Tam Thai.; PASS(Overlap=0.72), sent: Tập trung nhiều hang động (Động Huyền Không, Động Âm Phủ) và chùa chiền (Chùa Linh Ứng, Chùa Tam Thai).; PASS(Overlap=0.85), sent: Cảnh quan hùng vĩ, là điểm thu hút du khách nhất trong cụm.; SKIP: Hỏa Sơn....; FAIL(NLI=0.00, Ov=0.50): Đá vôi có màu sắc ấm áp, tạo cảm giác “lửa” khi ánh nắng chiếu vào....; PASS(Overlap=0.62), sent: Có một số đền thờ và động nhỏ mang nét đặc trưng của yếu tố Hỏa.; SKIP: Thổ Sơn....; FAIL(NLI=0.01, Ov=0.47): Đá vôi dày đặc, tạo nên những khối đá to lớn và bề mặt gồ ghề....; PASS(NLI=0.80), sent: Nơi có cây cổ thụ được công nhận là di sản và một số đền chùa linh thiêng.; PASS(NLI=0.78), sent: Các điểm tham quan chung trong khu vực Ngũ Hành Sơn.; PASS(Overlap=0.80), sent: Chùa Linh Ứng – nơi yên bình, thu hút du khách yêu thích du lịch tâm linh.; PASS(Overlap=0.82), sent: Chùa Tam Thai – ngôi chùa lớn trọng cụm danh thắng, thường được khách tham quan để cầu nguyện.; PASS(Overlap=0.90), sent: Động Huyền Không – phong cảnh đẹp nhất trong các động, thích hợp cho những ai muốn khám phá không gian kỳ bí.; PASS(Overlap=0.78), sent: Động Âm Phủ – hang động lớn, âm u, được người dân dựng các hình phạt tượng trưng để răn đe.; PASS(Overlap=0.70), sent: Làng nghề mỹ nghệ Non Nước – nơi du khách có thể mua sắm các sản phẩm thủ công truyền thống.; PASS(Overlap=0.89), sent: Ngũ Hành Sơn không chỉ là một khu danh thắng thiên nhiên hùng vĩ mà còn là nơi hội tụ văn hoá tâm linh, lịch sử và nghệ thuật, phù hợp cho cả ngày mưa hay nắng.</t>
+  </si>
+  <si>
+    <t>PASS(NLI=0.35), sent: Đèo Hải Vân được mệnh danh là cung đường đẹp nhất Việt Nam, đồng thời được khen ngợi là một trong những cung đường ven biển đẹp nhất thế giới.; PASS(NLI=0.97), sent: Các điểm check‑in nổi bật trên đèo.; PASS(Overlap=1.00), sent: Đỉnh Hải Vân Quan – nơi có tầm nhìn toàn cảnh núi non, biển mây và hoàng hôn tuyệt đẹp.; PASS(NLI=0.43), sent: Vườn trên mây – khu vực xanh mướt, tạo cảm giác như đang lạc vào một khu vườn giữa những đám mây.; PASS(Overlap=0.52), sent: Làng Vân – làng truyền thống nằm trên đèo, mang đậm nét văn hoá địa phương và là địa điểm chụp ảnh độc đáo.</t>
+  </si>
+  <si>
+    <t>SKIP: Rạn Nam Ô là một điểm đến độc đáo ở ngoạ...; PASS(NLI=0.98), sent: Những điểm đặc biệt.; PASS(Overlap=0.67), sent: Cảnh quan thiên nhiên hoang sơ: Các tảng đá lớn phủ rêu xanh, tạo nên khung cảnh “điểm sống ảo” thu hút giới trẻ và các cặp đôi muốn chụp ảnh cưới.; PASS(Overlap=0.91), sent: Rạn Cả và Rạn Con là hai khu vực nổi bật với bãi đá tự nhiên, nước trong xanh và bãi cát trắng trải dài.; PASS(Overlap=0.77), sent: Vị trí lý tưởng để ngắm bình minh và hoàng hôn: Đứng trên các phiến đá, du khách có thể ngắm toàn cảnh biển, bán đảo Sơn Trà và xa xa là đèo Hải Vân trong sương mù.; PASS(NLI=0.57), sent: Hoạt động ngoài trời: Check‑in “cực chất”, chụp ảnh, cắm trại, dã ngoại.; PASS(Overlap=0.76), sent: Thưởng thức hải sản tươi ngon, đặc biệt là gỏi cá Nam Ô và nước mắm truyền thống.; PASS(NLI=0.46), sent: Gắn liền với văn hoá địa phương.; PASS(Overlap=0.70), sent: Lịch sử ngư dân: Rạn Nam Ô đã tồn tại từ lâu như một bãi biển “bảo tàng” của cộng đồng ngư dân địa phương.; FAIL(NLI=0.00, Ov=0.48): Những câu chuyện, kỹ thuật đánh bắt và phong tục liên quan đến biển được truyền lại qua các thế hệ....; FAIL(NLI=0.01, Ov=0.32): Ẩm thực truyền thống: Gỏi cá Nam Ô – món ăn đặc trưng được chế biến từ cá tươi bắt ngay tại khu vực, kết hợp với các loại rau thơm, chanh và ớt, phản ánh hương vị biển miền Trung....; PASS(Overlap=0.63), sent: Nước mắm truyền thống: Được làm theo phương pháp lên men tự nhiên, là một phần không thể thiếu trong bữa ăn của người dân nơi đây.; PASS(Overlap=0.67), sent: Những yếu tố thiên nhiên kỳ vĩ cùng di sản ẩm thực và lịch sử ngư dân đã tạo nên bản sắc văn hoá độc đáo cho Rạn Nam Ô, khiến nơi này không chỉ là điểm du lịch mà còn là nơi trải nghiệm và cảm nhận sâu sắc nét văn hoá biển Đà Nẵng.</t>
+  </si>
+  <si>
+    <t>PASS(Overlap=0.73), sent: Các làng nghề truyền thống nổi tiếng ở Đà Nẵng mà du khách thường biết đến.; SKIP: Làng nghề Địa chỉ (điền đầy) Điểm nổi bậ...; SKIP: Chiếu từ 30 000 đ – 200 000 đ; mở cửa 08...; PASS(Overlap=0.61), sent: Làng bánh tráng Túy Loan (Hòa Vang) Thôn Túy Loan, xã Hòa Vàng, huyện Hòa Vang, Đà Nẵng Bánh tráng mỏng, giòn, có hơn 500 năm lịch sử; đồng thời nổi tiếng với mì Quảng địa phương.; SKIP: Bánh tráng ~20 000 đ/miếng, mì Quảng ~30...; PASS(Overlap=0.61), sent: Làng đá mỹ nghệ Non Nước (gần Ngũ Hành Sơn) Đường Lê Đình Dương, xã Hòa Hải, quận Ngũ Hành Sơn, Đà Nẵng Nghệ nhân chế tác các sản phẩm đá tinh xảo (đèn, tượng, đồ trang trí) từ đá Non Nước; lịch sử gần 400 năm.; SKIP: Sản phẩm đá từ 50 000 đ trở lên; mở cửa ...; PASS(Overlap=0.57), sent: Làng bích hoạ Đà Nẵng Khu phố 2, phường Hòa Hải, Đà Nẵng Làng tranh vẽ truyền thống, thu hút những người yêu nghệ thuật; có các workshop và triển lãm thường xuyên.; SKIP: Tham gia workshop ~150 000 đ/người; mở c...; PASS(Overlap=0.75), sent: Làng đá mỹ nghệ Non Nước (khu vực Ngũ Hành Sơn) 52 Huyền Trân Công Chúa, phường Hòa Hải, Đà Nẵng Nằm ngay trong khu du lịch Ngũ Hành Sơn, là điểm dừng chân phổ biến khi tham quan các ngọn núi.; FAIL(NLI=0.02, Ov=0.33): Xem bảng trên....; PASS(Overlap=0.57), sent: &gt; Những làng nghề trên đều được du khách trong và ngoài nước biết đến rộng rãi nhờ vào lịch sử lâu đời, sản phẩm độc đáo và vị trí thuận lợi khi tham quan Đà Nẵng.; FAIL(NLI=0.00, Ov=0.50): Bạn có thể ghé thăm một hoặc nhiều làng để trải nghiệm văn hoá địa phương và mua sắm quà lưu niệm....</t>
+  </si>
+  <si>
+    <t>PASS(NLI=0.86), sent: Vị trí của Hồ Hòa Trung.; PASS(Overlap=0.69), sent: Nằm ở hai xã Hòa Liên và Hòa Sơn, quận Liên Chiểu, thành phố Đà Nẵng.; SKIP: Cách trung tâm thành phố khoảng 20 km (k...; SKIP: Đường đi: Từ đường Âu Cơ (chợ Hòa Khánh)...; PASS(NLI=1.00), sent: Lưu ý khi cắm trại tại Hồ Hòa Trung.; FAIL(NLI=0.01, Ov=0.35): Chuẩn bị đầy đủ: mang theo thực phẩm, nước uống, đồ dùng cá nhân và dụng cụ cắm trại (lều, túi ngủ, đèn pin, bếp mini)....; FAIL(NLI=0.00, Ov=0.32): Giữ vệ sinh: thu gom rác thải và mang ra ngoài, không để lại bất kỳ chất thải nào trong khu vực hồ....; FAIL(NLI=0.00, Ov=0.22): An toàn thực phẩm: bảo quản thực phẩm trong tủ lạnh di động hoặc túi cách nhiệt để tránh hỏng hóc trong thời gian dài....; FAIL(NLI=0.00, Ov=0.10): Chú ý thời tiết: kiểm tra dự báo thời tiết trước khi đi; tránh cắm trại khi có mưa lớn hoặc gió mạnh....; FAIL(NLI=0.00, Ov=0.21): Không thắp lửa mở: nếu muốn nấu ăn, sử dụng bếp mini có thiết kế an toàn và dập tắt hoàn toàn sau khi sử dụng....; FAIL(NLI=0.00, Ov=0.16): Bảo vệ môi trường: tôn trọng thiên nhiên, không phá hủy cây cối, không lấy côn trùng hay sinh vật hoang dã làm quà lưu niệm....; SKIP: An ninh cá nhân: giữ đồ vật có giá trị t...; FAIL(NLI=0.00, Ov=0.29): Chỉ cần tuân thủ các lưu ý trên, bạn sẽ có một trải nghiệm cắm trại thư giãn và an toàn tại Hồ Hòa Trung....</t>
+  </si>
+  <si>
+    <t>PASS(Overlap=0.80), sent: Các cây cầu tạo nên danh xưng “thành phố của những cây cầu” cho Đà Nẵng.; SKIP: Cầu Rồng....; FAIL(NLI=0.00, Ov=0.46): Vị trí: Đường Hoàng Diệu, quận Hải Châu, ngay bên bờ sông Hàn....; PASS(Overlap=0.81), sent: Đặc điểm: Khiêu vũ với màn trình diễn phun lửa và phun nước vào lúc 21h mỗi tối thứ Bảy, Chủ Nhật; trong thời gian biểu diễn giao thông tạm dừng khoảng 15 phút.; PASS(Overlap=0.52), sent: Giờ mở cửa: Cầu luôn mở cho giao thông; chương trình ánh sáng diễn ra từ 21h đến 22h (ngày cuối tuần).; PASS(NLI=0.79), sent: Cầu quay sông Hàn.; PASS(NLI=0.99), sent: Vị trí: Đường Bạch Đằng, nối quận Hải Châu với quận Sơn Trà.; PASS(Overlap=0.62), sent: Đặc điểm: Cầu quay đầu tiên ở Việt Nam; phần giữa quay 90° vào khoảng 0:30 sáng, mở đường cho tàu lớn, và quay lại vào khoảng 3:30 sáng.; PASS(Overlap=0.70), sent: Giờ mở cửa: 24 giờ mỗi ngày; lịch quay như trên.; PASS(Overlap=0.75), sent: Cầu Trần Thị Lý.; PASS(Overlap=0.82), sent: Vị trí: Đường Trần Thị Lý, nối Hải Châu – Sơn Trà.; PASS(Overlap=0.86), sent: Đặc điểm: Được đặt tên theo nữ anh hùng Quảng Nam, là một trong những cây cầu biểu tượng của thành phố.; FAIL(NLI=0.00, Ov=0.40): Giờ mở cửa: 24 giờ....; PASS(Overlap=0.78), sent: Cầu Tình Yêu (cùng tượng cá chép hóa rồng).; PASS(Overlap=0.64), sent: Vị trí: Gần Cầu Rồng, trên đoạn đường Trần Thị Lý.; PASS(Overlap=0.52), sent: Đặc điểm: Kèm theo tượng cá chép biến thành rồng, là điểm check‑in lãng mạn và thu hút nhiều du khách.; FAIL(NLI=0.00, Ov=0.40): Giờ mở cửa: 24 giờ....; PASS(Overlap=0.67), sent: Cầu Thuận Phước.; PASS(Overlap=0.70), sent: Vị trí: Đường Thuận Phước, nối Hải Châu – Sơn Trà.; PASS(Overlap=0.70), sent: Đặc điểm: Cầu dây võng lớn nhất cả nước, mang lại tầm nhìn bao quát sông Hàn và thành phố.; FAIL(NLI=0.00, Ov=0.40): Giờ mở cửa: 24 giờ....; PASS(Overlap=0.60), sent: Cầu Vàng (Bà Nà Hills).; FAIL(NLI=0.00, Ov=0.40): Vị trí: Khu du lịch Bà Nà Hills, xã Hòa Phước, huyện Hòa Vang, Đà Nẵng....; PASS(NLI=0.50), sent: Đặc điểm: Kiến trúc độc đáo với hai bàn tay khổng lồ “nâng” cây cầu, tạo nên khung cảnh selfie ấn tượng.; SKIP: Giờ mở cửa: 08:00 – 18:00 (tùy mùa, có t...; PASS(Overlap=0.71), sent: Những cây cầu trên không chỉ là công trình giao thông mà còn là biểu tượng văn hoá, nghệ thuật và điểm đến “check‑in” nổi tiếng, góp phần tạo nên danh xưng “thành phố của những cây cầu” cho Đà Nẵng.</t>
+  </si>
+  <si>
+    <t>PASS(Overlap=0.69), sent: Các bảo tàng nổi tiếng ở Đà Nẵng và đặc điểm của từng nơi.; PASS(Overlap=0.86), sent: Bảo tàng Nghệ thuật Điêu khắc Chăm.; SKIP: Địa chỉ: 2 Đường 2/9, Quận Hải Châu, Đà ...; SKIP: Giờ mở cửa: 07:00 – 17:00 hằng ngày....; SKIP: Vé tham quan: 60.000 đồng/người....; PASS(Overlap=0.75), sent: Đặc điểm: Là bảo tàng duy nhất trưng bày di sản Chăm Pa tại Đà Nẵng.; PASS(Overlap=0.64), sent: Cung cấp dịch vụ thuyết minh tự động và công nghệ scan 4D giúp du khách khám phá hiện vật một cách sinh động và chi tiết.; PASS(Overlap=0.75), sent: Bảo tàng Đà Nẵng.; SKIP: Địa chỉ: 24 Trần Phú, Quận Hải Châu, Đà ...; SKIP: Giờ mở cửa: 08:00 – 17:00 hằng ngày....; SKIP: Vé tham quan: 30.000 đồng/người (giá tha...; PASS(Overlap=0.55), sent: Đặc điểm: Lưu giữ hơn 500 hiện vật phản ánh lịch sử nông nghiệp, văn hoá và chiến tranh của miền Trung.; PASS(Overlap=0.71), sent: Bao gồm trang phục truyền thống, nhạc cụ, đồ trang sức cổ và một tầng chuyên đề về các cuộc kháng chiến chống Pháp và Mỹ.; PASS(Overlap=0.86), sent: Bảo tàng 3D Trick Eye Đà Nẵng.; SKIP: Địa chỉ: 35‑37 Hoàng Diệu, Quận Hải Châu...; SKIP: Giờ mở cửa: 09:00 – 22:00 hằng ngày....; SKIP: Vé tham quan: Khoảng 150.000 đồng/người ...; SKIP: Đặc điểm: Trưng bày các tác phẩm nghệ th...; FAIL(NLI=0.00, Ov=0.08): Không gian sáng tạo, phù hợp cho gia đình và nhóm bạn....</t>
+  </si>
+  <si>
+    <t>PASS(NLI=0.90), sent: Các hoạt động đặc biệt mà du khách có thể trải nghiệm khi du lịch Đà Nẵng.; PASS(Overlap=0.75), sent: Du thuyền trên sông Hàn (cruise buổi tối).; PASS(Overlap=0.78), sent: Mô tả: Thưởng thức không gian lãng mạn khi du thuyền dọc sông Hàn vào buổi tối, ngắm toàn cảnh thành phố lung linh, có thể ăn tối trên thuyền hoặc nhâm nhi cocktail tại quầy bar.; SKIP: Địa chỉ: Bến du thuyền Sông Hàn, gần Cầu...; SKIP: Giá: khoảng 250.000 – 350.000 VNĐ/người ...; SKIP: Giờ hoạt động: 19:00 – 22:00, khởi hành ...; PASS(Overlap=0.80), sent: Chèo SUP (Stand‑Up Paddleboard) tại bãi biển Nguyễn Tất Thành.; PASS(NLI=0.99), sent: Mô tả: Trải nghiệm tự do trên mặt nước trong xanh, vừa rèn luyện thể chất vừa ngắm cảnh biển Đà Nẵng.; SKIP: Địa chỉ: Bãi biển Nguyễn Tất Thành, Quận...; SKIP: Giá: khoảng 200.000 VNĐ/giờ cho một ván....; SKIP: Giờ hoạt động: 07:00 – 18:00....; PASS(NLI=0.41), sent: Xem cầu Rồng phun lửa và phun nước.; PASS(NLI=0.87), sent: Mô tả: Mỗi tối 21:00 vào thứ 7, Chủ nhật và các ngày lễ lớn, cầu Rồng sẽ trình diễn pháo lửa và phun nước, tạo nên khung cảnh rực rỡ thu hút hàng ngàn du khách.; PASS(Overlap=0.75), sent: Địa điểm: Cầu Rồng, trung tâm Đà Nẵng.; SKIP: Giá: Miễn phí....; FAIL(NLI=0.00, Ov=0.12): Thời gian: 21:00 hàng ngày (theo lịch trên)....; PASS(NLI=0.88), sent: Khám phá Đà Nẵng bằng xe đạp.; PASS(Overlap=0.79), sent: Mô tả: Thuê xe đạp công cộng tại các trạm trong thành phố, di chuyển trên các tuyến đường thoáng đãng, ít khói bụi, tận hưởng không gian yên bình và cảnh quan đô thị.; FAIL(NLI=0.01, Ov=0.38): Các trạm thuê: Bãi biển Mỹ Khê, Cầu Rồng, Bảo tàng Chăm, …....; SKIP: Giá: 20.000 VNĐ/giờ hoặc 50.000 VNĐ/ngày...; SKIP: Giờ hoạt động: 06:00 – 22:00....; PASS(Overlap=1.00), sent: Tham gia Lễ hội pháo hoa quốc tế Đà Nẵng.; PASS(Overlap=0.77), sent: Mô tả: Sự kiện hàng năm quy tụ các đội pháo hoa quốc tế biểu diễn những màn bắn pháo hoa rực rỡ trên bầu trời Đà Nẵng, tạo trải nghiệm khó quên.; FAIL(NLI=0.02, Ov=0.31): Địa điểm: Bãi biển Mỹ Khê (hoặc bãi biển Non Nước) tùy năm tổ chức....; SKIP: Giá: Thông thường miễn phí; nếu muốn chỗ...; FAIL(NLI=0.00, Ov=0.27): Thời gian: Tối, thường vào cuối tháng 6 (theo lịch lễ hội)....; PASS(Overlap=0.83), sent: Thư giãn tại suối Khe Ram.; PASS(NLI=1.00), sent: Mô tả: Dừng chân tại suối Khe Ram, tắm mát trong làn nước trong xanh, tận hưởng không gian tĩnh lặng và cảnh quan hoang sơ của thôn An Định.; SKIP: Địa chỉ: Thôn An Định, xã Hòa Bắc, huyện...; SKIP: Giá: Miễn phí (hoặc phí giữ gìn khoảng 2...; SKIP: Giờ hoạt động: 08:00 – 18:00....; PASS(Overlap=0.85), sent: Trải nghiệm tắm bùn, tắm rượu vang và tắm khoáng nóng tại Bà Nà Hills.; PASS(NLI=0.50), sent: Mô tả: Tại công viên suối khoáng nóng Núi Thần Tài, du khách có thể thử các dịch vụ tắm bùn, tắm rượu vang, tắm khoáng nóng giúp thư giãn và làm đẹp da.; SKIP: Địa chỉ: Công viên suối khoáng nóng Núi ...; SKIP: Giá vé: 400.000 VNĐ/người lớn, 200.000 V...; SKIP: Giờ hoạt động: 07:00 – 22:00....; PASS(NLI=0.99), sent: Khám phá Cù Lao Chàm.; PASS(NLI=1.00), sent: Mô tả: Cụm đảo 8 hòn đảo được UNESCO công nhận là khu dự trữ sinh quyển thế giới, du khách có thể lặn ngắm san hô, tham quan làng chài, thưởng thức hải sản tươi ngon.; SKIP: Địa chỉ: Cù Lao Chàm, tỉnh Quảng Nam (đi...; SKIP: Giá tour: khoảng 300.000 VNĐ/người cho c...; SKIP: Giờ hoạt động: 08:00 – 17:00....; PASS(Overlap=0.81), sent: Những hoạt động trên đều là những trải nghiệm đặc sắc, mang lại cảm giác mới lạ và khó quên cho du khách khi khám phá Đà Nẵng.; SKIP: Chúc bạn có một chuyến đi tuyệt vời!...</t>
+  </si>
+  <si>
+    <t>PASS(Overlap=0.82), sent: Các đặc sản Đà Nẵng thích hợp làm quà lưu niệm.; PASS(NLI=0.99), sent: Chả bò Đà Nẵng.; PASS(NLI=1.00), sent: Mô tả: Thịt bò tươi ngon, được ướp gia vị truyền thống rồi hấp hoặc nướng, vị thơm đậm, dai giòn.; FAIL(NLI=0.02, Ov=0.37): Nơi mua: Cơ sở Lê Trọng Thịnh (123 Lê Trọng Thịnh, Quận Hải Châu) và Bà Hường (45 Hoàng Diệu, Quận Hải Châu)....; SKIP: Giá tham khảo: 150 000 – 250 000 VND/kg,...; SKIP: Giờ mở cửa: 08:00 – 20:00, cả tuần....; PASS(Overlap=0.67), sent: Mực một nắng.; PASS(Overlap=0.77), sent: Mô tả: Mực tươi chỉ phơi qua một nắng, giữ được độ ngọt tự nhiên và độ dai vừa phải, rất thích hợp làm quà sức khỏe.; FAIL(NLI=0.00, Ov=0.29): Nơi mua: Các chợ hải sản như Chợ Hàn (Số 1 Trần Phú, Quận Hải Châu) hoặc các cửa hàng hải sản quanh bãi biển Mỹ Khê....; SKIP: Giá tham khảo: 120 000 – 180 000 VND/kg....; SKIP: Giờ mở cửa: 07:00 – 19:00....; PASS(Overlap=0.67), sent: Mực rim me.; PASS(NLI=0.89), sent: Mô tả: Mực rim với nước me chua ngọt, cay mặn hài hòa, là món ăn vặt được ưa chuộng.; FAIL(NLI=0.01, Ov=0.27): Nơi mua: Quán ăn địa phương quanh khu phố Nguyễn Văn Linh (Quận Thanh Khê) và các quầy hàng tại Bến Thành....; SKIP: Giá tham khảo: 80 000 – 130 000 VND/đĩa ...; SKIP: Giờ mở cửa: 10:00 – 22:00....; PASS(Overlap=0.67), sent: Bánh khô mè.; PASS(NLI=0.92), sent: Mô tả: Bánh khô làm từ bột gạo, mè rang và đường, giòn tan, vị ngọt nhẹ, thích hợp để mang về làm quà.; SKIP: Nơi mua: Bà Liễu Mẹ (12 Lê Lợi, Quận Cẩm...; SKIP: Giá tham khảo: 30 000 – 50 000 VND/chiếc...; SKIP: Giờ mở cửa: 08:00 – 18:00....; PASS(Overlap=0.75), sent: Nước mắm Nam Ô.; SKIP: Mô tả: Nước mắm truyền thống được lên me...; FAIL(NLI=0.01, Ov=0.32): Nơi mua: Cửa hàng Nam Ô tại 78 Lê Duẩn, Quận Hải Châu hoặc các siêu thị lớn như Co.opmart và Big C....; SKIP: Giá tham khảo: 150 000 – 250 000 VND/cha...; SKIP: Giờ mở cửa: 07:30 – 21:00....; PASS(Overlap=0.75), sent: Rong biển Mỹ Khê.; PASS(NLI=0.47), sent: Mô tả: Rong biển tươi, giàu dinh dưỡng, được sấy khô tự nhiên, thích hợp làm món ăn nhẹ hoặc quà sức khỏe.; FAIL(NLI=0.01, Ov=0.29): Nơi mua: Các quầy hải sản quanh Bãi biển Mỹ Khê (đường Trần Phú, Quận Ngũ Hành Sơn) và chợ Hàn....; SKIP: Giá tham khảo: 60 000 – 100 000 VND/gói ...; SKIP: Giờ mở cửa: 07:00 – 19:00....; PASS(Overlap=0.67), sent: Trà sâm dứa.; PASS(NLI=0.50), sent: Mô tả: Trà sâm pha với dứa tươi, hương vị ngọt thanh, mát lạnh, là lựa chọn quà tặng độc đáo cho người yêu thích đồ uống lành mạnh.; FAIL(NLI=0.00, Ov=0.33): Nơi mua: Quán Sâm Dứa tại 22 Lê Duẩn, Quận Hải Châu hoặc các quán cà phê địa phương....; SKIP: Giá tham khảo: 40 000 – 70 000 VND/ly (2...; SKIP: Giờ mở cửa: 09:00 – 22:00....; SKIP: &gt; Những món trên đều được người dân và d...; SKIP: Chúc bạn có một chuyến đi thú vị và nhữn...</t>
+  </si>
+  <si>
+    <t>SKIP: Các địa chỉ nổi tiếng bán Mì Quảng ở Đà ...; PASS(Overlap=0.82), sent: Mì Quảng Bà Mua – 19‑21 Trần Bình Trọng, quận Hải Châu.; SKIP: Giá: 30.000 – 50.000 VND/bát....; PASS(NLI=0.92), sent: Đặc trưng với sợi mì dày, dai, nước lèo đậm đà từ xương hầm, kèm tôm, gà, thịt heo và lạc rang.; PASS(Overlap=0.91), sent: Mì Quảng Thị Gia Truyền – 251 Hoàng Diệu, quận Hải Châu.; SKIP: Giá: 30.000 – 50.000 VND/bát....; PASS(NLI=0.96), sent: Mì mềm, nước dùng thơm ngon, thường ăn kèm rau sống, bánh tráng nướng và đậu phộng rang.; PASS(Overlap=0.71), sent: Mì Quảng 1A – 1 Hải Phòng, quận Hải Châu.; SKIP: Giá: 30.000 – 50.000 VND/bát....; PASS(NLI=0.69), sent: Nổi tiếng với hương vị truyền thống, sợi mì dày dai và topping đa dạng (tôm, gà, thịt heo).; PASS(Overlap=0.70), sent: Mì Quảng Ánh – 45 Phạm Văn Nghị, quận Hải Châu.; SKIP: Giá: 30.000 – 50.000 VND/bát....; PASS(Overlap=0.64), sent: Được yêu thích nhờ nước dùng đậm đà và phần rau sống tươi ngon.; PASS(Overlap=0.73), sent: Mì Quảng Phú Chiêm – 63 Phạm Văn Nghị, quận Hải Châu.; SKIP: Giá: 30.000 – 50.000 VND/bát....; PASS(Overlap=0.79), sent: Mì dày, dai, nước lèo ngọt thanh, thường kèm trứng cút và lạc rang.; PASS(Overlap=0.91), sent: Mì Quảng Bà Vị – 166 Lê Đình Dương, quận Hải Châu.; SKIP: Giá: 30.000 – 50.000 VND/bát....; SKIP: Địa chỉ lâu năm, nổi tiếng với hương vị ...; PASS(Overlap=0.73), sent: Mì Quảng Ếch Bếp Trang – 212 Bạch Đằng, quận Hải Châu.; SKIP: Giá: 30.000 – 50.000 VND/bát....; PASS(Overlap=0.75), sent: Đặc biệt với nước dùng có hương vị cá lóc hoặc ếch, tạo nên hương vị độc đáo cho món mì Quảng.</t>
+  </si>
+  <si>
+    <t>PASS(Overlap=0.94), sent: Đường Phạm Hồng Thái – được mệnh danh là “thiên đường” ẩm thực về đêm tại Đà Nẵng.; PASS(Overlap=0.70), sent: Vị trí: Phạm Hồng Thái, quận Hải Châu, Đà Nẵng.; PASS(NLI=1.00), sent: Đặc điểm nổi bật: Nơi tập trung các quán ăn vặt đặc trưng của địa phương như cơm gà, mì xíu khô, bún bò.; PASS(Overlap=0.56), sent: Không gian sôi động, thích hợp cho những buổi dạo chơi và thưởng thức ẩm thực vào buổi tối.; SKIP: Thời gian hoạt động: Thường mở từ khoảng...; SKIP: Nếu bạn muốn khám phá hương vị địa phươn...</t>
+  </si>
+  <si>
+    <t>PASS(Overlap=0.52), sent: Cao Lầu Đà Nẵng có những đặc điểm độc đáo khiến nó khác biệt hẳn so với các món mì khác như Mì Quảng, Phở hay các loại mì thông thường: Sợi mì đặc trưng.; PASS(Overlap=0.62), sent: Cao Lầu: Sợi mì vàng, dai nhẹ, được làm từ bột gạo và nước giếng đặc biệt ở Hội An, tạo độ đàn hồi và màu sắc đặc biệt.; PASS(Overlap=0.65), sent: Mì Quảng / Phở: Sợi mì thường làm từ bột gạo thông thường, không có màu vàng đặc trưng và độ dai không bằng Cao Lầu.; SKIP: Nước dùng....; PASS(Overlap=0.59), sent: Cao Lầu: Nước dùng đậm đà, ngọt thanh, được ninh từ xương heo, thịt xá xíu và các loại gia vị truyền thống, mang hương vị “đất trời” của vùng biển Hội An – Đà Nẵng.; PASS(Overlap=0.62), sent: Mì Quảng: Nước dùng ninh từ xương heo, thường có vị mặn hơn và được ướp thêm nước mắm, tiêu, hành khô.; FAIL(NLI=0.02, Ov=0.38): Phở: Nước dùng trong, thanh nhẹ, ninh từ xương bò (hoặc gà) và các loại thảo mộc như quế, hồi, thảo quả....; PASS(NLI=0.93), sent: Thành phần ăn kèm.; PASS(Overlap=0.61), sent: Cao Lầu: Thịt heo xá xíu thái lát mỏng, rau sống (xà lách, húng quế, rau thơm), bánh tráng mè giã vụn, và một ít mì khô chiên giòn.; PASS(NLI=0.99), sent: Mì Quảng: Thường có tôm, trứng cút, thịt heo quay, hoặc gà, cá, bò; ăn kèm với đậu phộng rang, bánh tráng mè, rau sống và hoa chuối.; PASS(NLI=0.35), sent: Phở: Thịt bò (hoặc gà) thái mỏng, hành lá, rau thơm, chanh, ớt, và các loại gia vị như hoisin, tương ớt.; PASS(NLI=0.94), sent: Cách thưởng thức.; FAIL(NLI=0.00, Ov=0.48): Cao Lầu: Mì được trộn đều với nước dùng và các nguyên liệu, ăn kèm với ít nước dùng hơn so với phở, tạo cảm giác “khô” hơn, nhấn mạnh vị của mì và topping....; PASS(Overlap=0.55), sent: Mì Quảng: Thường ăn “khô” hơn, chỉ đổ một ít nước dùng lên trên, kèm nhiều loại topping phong phú.; FAIL(NLI=0.00, Ov=0.42): Phở: Ăn với bát nước dùng đầy, mì ngâm trong nước dùng suốt bữa....; PASS(Overlap=0.60), sent: Lịch sử và văn hoá.; PASS(Overlap=0.61), sent: Cao Lầu: Gắn liền với lịch sử thương cảng Hội An – Đà Nẵng, là món ăn duy nhất có nguồn gốc và công thức riêng chỉ tồn tại ở khu vực này.; PASS(Overlap=0.58), sent: Mì Quảng và Phở: Là những món ăn biểu tượng của Đà Nẵng và toàn quốc, có nhiều biến thể và lan rộng khắp các vùng.; PASS(Overlap=0.53), sent: Nhờ những yếu tố trên – sợi mì đặc biệt, nước dùng đậm đà, cách kết hợp topping độc đáo và bối cảnh lịch sử riêng – Cao Lầu Đà Nẵng tạo nên một trải nghiệm ẩm thực khác biệt so với các món mì khác.</t>
+  </si>
+  <si>
+    <t>PASS(NLI=1.00), sent: Các hoạt động nổi bật khi tham quan Bà Nà Hills.; PASS(NLI=0.98), sent: Cáp treo lên Bà Nà Hills.; PASS(NLI=0.99), sent: Đưa du khách lên cao, trải nghiệm “đường lên tiên cảnh” với cảnh rừng xanh, suối trắng và hoa rừng đủ màu.; SKIP: Giá vé: Người lớn (cao từ 4 m) 750.000 đ...; SKIP: Địa chỉ: Xã Hòa Ninh, huyện Hòa Vang, th...; SKIP: Giờ mở cửa: 08:00 – 17:30....; PASS(NLI=0.87), sent: Làng Pháp (French Village).; FAIL(NLI=0.02, Ov=0.45): Khu phố mang phong cách kiến trúc châu Âu cổ điển, với các quán cà phê, nhà hàng và cửa hàng lưu niệm....; PASS(Overlap=0.60), sent: Du khách có thể dạo bước, chụp ảnh và thưởng thức ẩm thực Pháp tại các nhà hàng trong khu.; PASS(NLI=0.78), sent: Cầu Vàng (Golden Bridge).; FAIL(NLI=0.00, Ov=0.33): Cây cầu dài 150 m, được nâng đỡ bởi hai bàn tay khổng lồ, tạo nên khung cảnh “tiên cảnh trên mây”....; FAIL(NLI=0.05, Ov=0.44): Nơi lý tưởng để ngắm toàn cảnh núi non và chụp những bức ảnh “độc đáo”....; PASS(NLI=0.94), sent: Khu vui chơi Fantasy Park.; SKIP: Công viên giải trí trong nhà với hơn 30 ...; PASS(Overlap=0.56), sent: Thích hợp cho cả gia đình và trẻ em.; PASS(Overlap=1.00), sent: Bảo tàng tượng sáp Bà Nà Hills.; PASS(Overlap=0.59), sent: Trưng bày các bức tượng sáp chi tiết của các nhân vật nổi tiếng trong và ngoài nước.; SKIP: Giá vé: 100.000 đ cho khách trên 3 m, dư...; PASS(NLI=0.99), sent: Buffet trưa tại nhà hàng trong khu.; SKIP: Buffet đa dạng các món ăn địa phương và ...; FAIL(NLI=0.01, Ov=0.44): Thích hợp cho những ai muốn nghỉ ngơi và nạp năng lượng trước khi tiếp tục khám phá....; PASS(Overlap=0.83), sent: Khu tâm linh và chùa Linh Ứng.; FAIL(NLI=0.03, Ov=0.50): Không gian yên bình, nơi du khách có thể thả hồn, chiêm bái và ngắm tượng Phật lớn....; PASS(Overlap=0.71), sent: Thêm vào đó là khu hầm rượu cổ kính và khu vườn hoa rực rỡ, tạo nên trải nghiệm đa dạng từ văn hoá, thiên nhiên đến giải trí.</t>
+  </si>
+  <si>
+    <t>PASS(NLI=1.00), sent: Các nhà hàng hải sản có view biển đẹp và nổi tiếng ở Đà Nẵng.; PASS(Overlap=0.83), sent: Nhà hàng Hải sản Mỹ Hạnh.; SKIP: Địa chỉ: Số 3‑5 Võ Nguyên Giáp, Phước Mỹ...; SKIP: Giờ mở cửa: 08h00 – 22h00....; PASS(NLI=0.92), sent: Mô tả: Nổi tiếng với view biển cực đẹp, không gian rộng rãi, thiết kế hiện đại và phong cách phục vụ chuyên nghiệp.; PASS(NLI=0.38), sent: Thực đơn đa dạng các món hải sản tươi sống 3 miền, được chế biến theo khẩu vị cá nhân.; SKIP: Giá trung bình từ 200.000 – 500.000 VNĐ ...; PASS(NLI=1.00), sent: Nhà Hàng Làng Cá.; SKIP: Địa chỉ: 262 Võ Nguyên Giáp, Phước Mỹ, S...; SKIP: Giờ mở cửa: 09h00 – 22h00....; PASS(NLI=0.84), sent: Mô tả: Được yêu thích vì view biển yên tĩnh, có thể ngồi trong nhà hoặc trực tiếp trên bãi biển.; PASS(NLI=1.00), sent: Thực đơn hải sản tươi ngon, đáp ứng tiêu chí “Ngon – Bổ – Rẻ”.; SKIP: Giá các món thường dao động 100.000 – 30...; PASS(NLI=0.96), sent: Hải Sản Thời Cổ.; SKIP: Địa chỉ: 354/1 Võ Nguyên Giáp, Bắc Mỹ An...; SKIP: Giờ mở cửa: 10h00 – 23h00....; PASS(NLI=0.71), sent: Mô tả: View biển rộng mở, không gian thoáng đãng, giá cả siêu bình dân.; PASS(NLI=1.00), sent: Đặc biệt nổi bật với các món lẩu hải sản Hàn Quốc và đa dạng các món tôm, ghẹ, cá, mực.; SKIP: Giá món hải sản chỉ từ 70.000 VNĐ và các...; SKIP: Đây là ba địa điểm được đánh giá cao về ...</t>
+  </si>
+  <si>
+    <t>PASS(Overlap=0.62), sent: 43 Factory Coffee Roaster – một điểm đến độc đáo cho những ai yêu thích cà phê hiện đại tại Đà Nẵng.; FAIL(NLI=0.00, Ov=0.20): Vị trí: 422 Ngô Thì Sỹ, gần biển, thuận tiện cho việc ghé thăm sau khi dạo chơi bãi biển....; FAIL(NLI=0.00, Ov=0.42): Không gian: Thiết kế theo phong cách xưởng công nghiệp hiện đại, với hồ cá koi tạo nên không gian thư giãn và sang trọng....; FAIL(NLI=0.00, Ov=0.37): Cà phê: Chuyên phục vụ cà phê Arabica thượng hạng nhập khẩu từ nhiều quốc gia, được rang xay tươi tại chỗ, mang lại hương vị phong phú và đa dạng....; FAIL(NLI=0.00, Ov=0.46): Thực đơn phụ: Ngoài cà phê, quán còn có bánh ngọt, smoothie và nước ép tươi, phù hợp cho cả bữa sáng và buổi chiều nhẹ nhàng....; SKIP: Giá cả: Mức giá trung bình từ 45.000 – 1...; SKIP: Giờ mở cửa: 7:00 – 22:00 hằng ngày, phục...; SKIP: Liên hệ: Điện thoại 0236 1234 567, có th...; FAIL(NLI=0.00, Ov=0.47): Những yếu tố trên – vị trí gần biển, không gian thiết kế độc đáo, cà phê Arabica chất lượng cao và thực đơn đa dạng – khiến 43 Factory Coffee Roaster nổi bật so với các quán cà phê truyền thống ở Đà Nẵng....</t>
+  </si>
+  <si>
+    <t>PASS(Overlap=0.71), sent: Đặc trưng của Mì Quảng Đà Nẵng.; PASS(Overlap=0.60), sent: Sợi mì: Dày, dai, thường được nhuộm vàng bằng nghệ, tạo màu sắc hấp dẫn và hương vị đặc biệt.; PASS(NLI=0.74), sent: Nước lèo: Đậm đà, ninh từ xương heo hoặc gà, pha chút nước mắm, tiêu, hành khô và tỏi, tạo nền tảng “bản giao hưởng” cho món ăn.; PASS(Overlap=0.65), sent: Topping: Thịt heo quay, thịt gà, tôm sông, chả lụa, trứng cút, cá hoặc bò – tùy từng quán.; FAIL(NLI=0.00, Ov=0.48): Rau sống &amp; phụ kiện: Rau thơm, hoa chuối, lạc rang, bánh tráng mè, giúp cân bằng vị ngọt, mặn, chua và béo....; FAIL(NLI=0.00, Ov=0.48): Cách ăn: Trộn đều mì, nước lèo và các topping, rồi ăn kèm rau sống và bánh tráng mè để cảm nhận hương vị đa tầng....; SKIP: Địa chỉ nên thử Mì Quảng ở Đà Nẵng (top ...; SKIP: Quán Địa chỉ Giá (một phần) Giờ mở cửa Đ...; PASS(Overlap=0.60), sent: Lưu ý khi chọn quán: Các quán trên đều nổi tiếng với sợi mì vàng nghệ và nước lèo đậm đà.; SKIP: Giá cả hợp lý, thường nằm trong khoảng 3...; FAIL(NLI=0.00, Ov=0.14): Thời gian mở cửa rộng rãi, phù hợp cho bữa sáng, trưa hoặc tối....; SKIP: Bạn có thể ghé thăm bất kỳ địa chỉ nào t...; FAIL(NLI=0.06, Ov=0.33): Chúc ngon miệng!...</t>
+  </si>
+  <si>
+    <t>FAIL(NLI=0.00, Ov=0.43): Gỏi cá Nam Ô được chế biến theo những bước truyền thống sau: Chọn nguyên liệu: Cá trích (hoặc cá tươi) được làm sạch, lược bỏ xương, giữ lại phần thịt mềm, tươi rói....; PASS(NLI=0.63), sent: Các gia vị chính: gừng, riềng, tỏi băm nhuyễn, sả, ớt, chanh, và một ít thính rang để tăng hương vị.; PASS(NLI=0.41), sent: Ướp cá: Thịt cá được trộn đều với gừng, riềng, tỏi, sả, ớt và nước cốt chanh.; PASS(Overlap=0.65), sent: Để cá ngấm gia vị trong khoảng 15‑20 phút, tạo nên vị chua cay hài hòa và không có mùi tanh.; FAIL(NLI=0.34, Ov=0.48): Thêm thính: Khi cá đã ướp vừa đủ, rắc một ít thính rang lên trên để “dậy vị”, mang lại hương thơm đặc trưng của món gỏi....; FAIL(NLI=0.00, Ov=0.33): Chuẩn bị rau sống và bánh tráng: Rau thơm (xà lách, rau diếp cá, rau mùi…) được rửa sạch, để ráo....; FAIL(NLI=0.00, Ov=0.27): Bánh tráng cắt thành miếng vừa ăn, có thể nướng nhẹ để tăng độ giòn....; PASS(Overlap=0.71), sent: Cuốn và thưởng thức: Đặt một miếng cá đã ướp lên bánh tráng, thêm rau sống và cuốn chặt.; PASS(Overlap=0.58), sent: Dùng kèm nước chấm đặc biệt – thường là nước mắm pha với mè rang, đậu phộng xay nhuyễn, tỏi, ớt và một chút đường, tạo nên hương vị “bùng nổ” khi chấm.; PASS(NLI=0.99), sent: Khi ăn, bạn sẽ cảm nhận được sự tươi mới của cá, vị chua cay của chanh và ớt, hương thơm của gừng‑riềng, cùng độ giòn của bánh tráng và rau sống, tạo nên một món gỏi độc đáo, khó quên trong hành trình du lịch Đà Nẵng.</t>
+  </si>
+  <si>
+    <t>PASS(NLI=0.55), sent: Bún chả cá Đà Nẵng – những điểm hấp dẫn.; PASS(Overlap=0.64), sent: Thành phần đa dạng: chả cá được làm từ cá thu, cá cam, cá thác lác, kết hợp với tiêu đen, mang lại vị ngọt tự nhiên, độ dai đặc trưng.; PASS(Overlap=0.80), sent: Nước dùng thanh ngọt: nấu từ xương cá, bí đỏ, dứa, cà chua và bắp cải, tạo hương vị hài hòa, vừa ngọt vừa hơi chua nhẹ.; FAIL(NLI=0.01, Ov=0.33): Cách ăn phong phú: kèm rau thơm, chanh, ớt, giúp tăng độ tươi mát và độ cay vừa phải, phù hợp với mọi khẩu vị....; FAIL(NLI=0.02, Ov=0.41): Phong cách “ít bún, nhiều chả”: lượng chả cá dày, bún nhẹ, làm nổi bật hương vị cá mà không bị lấn át....; SKIP: Địa chỉ nên thử ở Đà Nẵng (top 6)....; PASS(Overlap=0.80), sent: Bún chả cá Bà Hờn.; SKIP: Địa chỉ: 113/3 Nguyễn Chí Thanh, Đà Nẵng...; SKIP: Giờ mở cửa: 06:00 – 22:00....; SKIP: Giá: 60 000 – 120 000 VND (một phần)....; PASS(Overlap=0.89), sent: Đặc điểm: chả cá làm từ cá thu, cá cam, cá thác lác, nước dùng ngọt thanh, vị tiêu đen đặc trưng.; PASS(NLI=0.99), sent: Quán bún chả cá Bà Lữ.; SKIP: Địa chỉ: 319 Hùng Vương, Thanh Khê, Đà N...; SKIP: Giờ mở cửa: 06:30 – 21:30....; SKIP: Giá: 55 000 – 110 000 VND....; PASS(NLI=1.00), sent: Đặc điểm: “ít bún nhiều chả” kiểu miền biển, chả cá xay nhuyễn giữ nguyên vị ngọt tự nhiên.; PASS(NLI=0.99), sent: Quán bún chả cá Ông Tạ.; SKIP: Địa chỉ: 113 Nguyễn Chí Thanh, Đà Nẵng....; SKIP: Giờ mở cửa: 06:00 – 22:00....; SKIP: Giá: 60 000 – 115 000 VND....; PASS(Overlap=0.69), sent: Đặc điểm: nước lèo trong veo, đậm đà, chả cá tươi ngon, phục vụ nhanh chóng.; PASS(NLI=0.89), sent: Bún chả cá Bà Toải.; SKIP: Địa chỉ: 104 Trần Cao Vân, Đà Nẵng....; SKIP: Giờ mở cửa: 07:00 – 21:00....; SKIP: Giá: 58 000 – 118 000 VND....; PASS(NLI=0.85), sent: Đặc điểm: chả cá lát dày, giữ độ chắc thịt, nước dùng ngọt thanh kết hợp với rau thơm tươi.; PASS(NLI=0.97), sent: Bún Bà Ân.; SKIP: Địa chỉ: 295 Hùng Vương, Thanh Khê, Đà N...; SKIP: Giờ mở cửa: 06:30 – 22:30....; SKIP: Giá: 55 000 – 105 000 VND....; FAIL(NLI=0.01, Ov=0.48): Đặc điểm: phong cách “ít bún, nhiều chả” truyền thống, nước dùng có chút vị dứa nhẹ, tạo hương vị độc đáo....; PASS(NLI=0.94), sent: Bún Chả Cá Bà Hoa.; SKIP: Địa chỉ: 27 Lê Hồng Phong, Phước Ninh, H...; SKIP: Giờ mở cửa: 06:00 – 21:00....; SKIP: Giá: 60 000 – 120 000 VND....; SKIP: Đặc điểm: dùng cá lát thay cá viên, tạo ...; SKIP: Bạn có thể lựa chọn bất kỳ địa chỉ nào t...; PASS(NLI=0.65), sent: Chúc bạn ngon miệng!</t>
+  </si>
+  <si>
+    <t>FAIL(NLI=0.00, Ov=0.50): Bánh tráng cuốn thịt heo nổi bật bởi những yếu tố đặc trưng sau: Thịt heo luộc thái mỏng – vị ngọt tự nhiên, mềm mại, là lớp nhân chính tạo độ đậm đà cho món ăn....; FAIL(NLI=0.01, Ov=0.50): Bánh tráng dẻo dai – độ dẻo vừa phải giúp cuốn chặt, vừa giữ được độ giòn nhẹ khi ăn....; PASS(Overlap=0.52), sent: Rau sống tươi mát (rau diếp, rau thơm, xà lách) và đồ ăn kèm như xoài xanh, dưa leo, bún, mang lại hương vị thanh, cân bằng với vị mặn của nước chấm.; FAIL(NLI=0.00, Ov=0.44): Nước mắm nêm bí truyền – hỗn hợp mắm, chanh, ớt, đường và các gia vị đặc biệt, tạo nên hương vị chua, cay, mặn, ngọt hòa quyện, là “bí quyết” khiến món cuốn trở nên cuốn hút và khó quên....; PASS(Overlap=0.56), sent: Phong cách Đà Nẵng – món này được yêu thích ở Đà Nẵng nhờ sự kết hợp hài hòa giữa các nguyên liệu đơn giản, mang lại cảm giác tươi mát, nhẹ nhàng rất phù hợp với những ngày nắng nóng.; PASS(Overlap=0.55), sent: Những yếu tố trên cùng nhau tạo nên hương vị độc đáo, khiến bánh tráng cuốn thịt heo trở thành một trong những món ăn không thể bỏ qua khi ghé thăm Đà Nẵng.</t>
+  </si>
+  <si>
+    <t>PASS(Overlap=0.78), sent: Nguyên liệu chính của món Mít trộn Đà Nẵng.; PASS(Overlap=0.67), sent: Mít non (luộc chín, xé sợi).; PASS(NLI=0.90), sent: Bì heo / da heo.; PASS(Overlap=0.60), sent: Thịt ba chỉ (thái mỏng).; FAIL(NLI=0.01, Ov=0.38): Thịt (có thể là thịt ba chỉ hoặc thịt tôm)....; FAIL(NLI=0.07, Ov=0.25): Tôm (được trộn cùng)....; FAIL(NLI=0.02, Ov=0.33): Bò khô (đôi khi được thêm)....; FAIL(NLI=0.12, Ov=0.40): Rau răm, húng (rau thơm)....; FAIL(NLI=0.01, Ov=0.40): Đậu phộng (có thể rang)....; SKIP: Hành phi....; PASS(NLI=0.54), sent: Nước mắm chua ngọt (hoặc nước mắm cay).; PASS(Overlap=0.57), sent: Bánh tráng nướng giòn (để ăn kèm).; FAIL(NLI=0.00, Ov=0.14): Bánh đa (đôi khi dùng thay bánh tráng)...</t>
+  </si>
+  <si>
+    <t>PASS(Overlap=0.85), sent: Chè xoa xoa hạt lựu là một món tráng miệng thanh mát, kết hợp giữa xoa xoa mềm mịn, hạt lựu ngọt ngào, thạch đen dai và nước cốt dừa béo ngậy.; PASS(Overlap=0.53), sent: Vị ngọt mát, hương dừa thơm lừng và độ giòn của thạch giúp món chè trở thành lựa chọn lý tưởng để giải nhiệt trong những ngày hè nóng bức.; SKIP: Các địa chỉ nổi bật bán chè xoa xoa hạt ...; SKIP: Địa chỉ Giá (1 ly) Mô tả ngắn Chè Xoa Xo...; SKIP: Cô Châm – 374/6 Núi Thành, quận Thanh Kh...; SKIP: O Châm Chợ Cồn – 187 Hải Phòng, quận Tha...; SKIP: Chè Xoa Xoa Phan Thanh – 111 Phan Thanh,...; SKIP: &gt; Lưu ý: Giá có thể dao động nhẹ tùy thờ...; SKIP: Các quán thường mở cửa từ 10:00 đến 22:0...</t>
+  </si>
+  <si>
+    <t>PASS(Overlap=0.75), sent: 43 Factory Coffee Roaster.; SKIP: Phong cách: Không gian công nghiệp hiện ...; PASS(Overlap=0.65), sent: Đây là “quán tủ” của giới sành cà phê ở Đà Nẵng, mang lại cảm giác vừa sang trọng vừa gần gũi cho những người yêu cà phê thực thụ.; FAIL(NLI=0.02, Ov=0.38): Món ăn &amp; đồ uống: Espresso – cà phê rang Arabica chất lượng cao, hương vị đậm đà....; FAIL(NLI=0.00, Ov=0.42): Cold Brew – cà phê lạnh nhẹ nhàng, thích hợp cho ngày hè....; FAIL(NLI=0.00, Ov=0.40): Cà phê sữa đá – sự kết hợp giữa cà phê Arabica và sữa tươi, được phục vụ lạnh....; FAIL(NLI=0.00, Ov=0.37): Đồ tráng miệng – đa dạng các món bánh ngọt và bánh quy, tạo điểm nhấn cho trải nghiệm cà phê....; SKIP: Địa chỉ: 422 Ngô Thi Sỹ, Đà Nẵng....; SKIP: Giờ mở cửa: 08:00 – 22:00 (hàng ngày)....; SKIP: Mức giá tham khảo: Espresso, Cold Brew: ...; SKIP: Cà phê sữa đá: 60.000 – 90.000 VND....; SKIP: Đồ tráng miệng: 40.000 – 120.000 VND....; SKIP: Liên hệ: 0236 123 4567 (điện thoại)....</t>
+  </si>
+  <si>
+    <t>PASS(NLI=1.00), sent: Đặc trưng của món Bún mắm nêm.; FAIL(NLI=0.03, Ov=0.46): Nước mắm nêm đậm đà: Là hỗn hợp mắm cá, tỏi, ớt, đường và chanh, tạo vị chua ngọt, cay nhẹ, hương thơm đặc biệt....; FAIL(NLI=0.20, Ov=0.50): Thành phần chính: Bún tươi, thịt heo quay hoặc luộc, nem, chả, và các loại rau sống (xà lách, rau thơm, giá đỗ)....; FAIL(NLI=0.00, Ov=0.23): Đôi khi có thêm đậu phộng rang giã nhỏ để tăng độ giòn....; PASS(Overlap=0.56), sent: Cách thưởng thức: Khi ăn, người ta trộn bún với nước mắm nêm, sau đó cho các loại thịt, rau và đậu phộng lên trên, tạo nên hương vị “đậm, cay, chua, ngọt” hòa quyện, rất thích hợp với khí hậu nóng bức của Đà Nẵng.; FAIL(NLI=0.01, Ov=0.45): Các quán Bún mắm nêm ngon ở Đà Nẵng (được lựa chọn dựa trên độ phổ biến và đánh giá tốt)....; SKIP: Quán Địa chỉ Giá (một phần) Giờ mở cửa B...; SKIP: Đà Nẵng 55 000 – 75 000 VND 07:00 – 21:0...; SKIP: Đà Nẵng 50 000 – 70 000 VND 07:30 – 22:3...; PASS(NLI=0.99), sent: Gợi ý thưởng thức.; PASS(NLI=0.41), sent: Đến Bún mắm nêm Dì Liên hoặc Bún Mắm Liêm để cảm nhận hương vị truyền thống với thịt heo quay giòn rụm và rau sống tươi mát.; FAIL(NLI=0.00, Ov=0.42): Nếu muốn thử phong cách hơi hiện đại hơn, Bún mắm Ngọc có thêm đậu phộng rang giã nhỏ, tạo độ giòn hấp dẫn....; PASS(Overlap=0.67), sent: Bún mắm bà Thuyên nổi tiếng với phần nước mắm nêm đậm đà, thích hợp cho những ai ưa vị “nặng đô”.; SKIP: Chúc bạn có một bữa ăn ngon miệng và trả...</t>
   </si>
 </sst>
 </file>
@@ -5945,10 +6251,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V103"/>
+  <dimension ref="A1:Y103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B101" workbookViewId="0">
-      <selection activeCell="E111" sqref="E111"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="I106" sqref="I106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5956,15 +6262,18 @@
     <col min="5" max="5" width="16.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.44140625" customWidth="1"/>
-    <col min="15" max="15" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" customWidth="1"/>
+    <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.77734375" customWidth="1"/>
+    <col min="12" max="12" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.44140625" customWidth="1"/>
     <col min="18" max="18" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5984,47 +6293,54 @@
       <c r="G1" s="6" t="s">
         <v>915</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="5" t="s">
+      <c r="H1" s="6"/>
+      <c r="I1" s="6" t="s">
+        <v>916</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>917</v>
+      </c>
+      <c r="K1" s="1"/>
+      <c r="L1" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1"/>
+      <c r="N1" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1"/>
+      <c r="P1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="2" t="s">
         <v>247</v>
       </c>
       <c r="S1" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="T1" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="U1" s="4" t="s">
+      <c r="T1" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="U1" s="3" t="s">
         <v>247</v>
       </c>
       <c r="V1" s="3" t="s">
         <v>248</v>
       </c>
+      <c r="W1" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>248</v>
+      </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -6044,39 +6360,45 @@
         <v>0.90653312206268311</v>
       </c>
       <c r="I2">
-        <f>SUM(P2, S2,V2)/3</f>
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>918</v>
+      </c>
+      <c r="L2">
+        <f>SUM(S2, V2,Y2)/3</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="K2">
-        <f>IF(SUM(P2,S2,V2)&gt;=1, 1, 0)</f>
-        <v>1</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="N2">
+        <f>IF(SUM(S2,V2,Y2)&gt;=1, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="P2" t="s">
         <v>251</v>
       </c>
-      <c r="N2" t="s">
+      <c r="Q2" t="s">
         <v>409</v>
       </c>
-      <c r="O2" t="s">
+      <c r="R2" t="s">
         <v>410</v>
       </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2" t="s">
         <v>411</v>
       </c>
-      <c r="R2" t="s">
+      <c r="U2" t="s">
         <v>412</v>
       </c>
-      <c r="S2">
-        <v>1</v>
-      </c>
       <c r="V2">
+        <v>1</v>
+      </c>
+      <c r="Y2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -6096,39 +6418,45 @@
         <v>0.86426925659179688</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I66" si="0">SUM(P3, S3,V3)/3</f>
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="J3" t="s">
+        <v>919</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L66" si="0">SUM(S3, V3,Y3)/3</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="K3">
-        <f t="shared" ref="K3:K66" si="1">IF(SUM(P3,S3,V3)&gt;=1, 1, 0)</f>
-        <v>1</v>
-      </c>
-      <c r="M3" t="s">
+      <c r="N3">
+        <f t="shared" ref="N3:N66" si="1">IF(SUM(S3,V3,Y3)&gt;=1, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="P3" t="s">
         <v>252</v>
       </c>
-      <c r="N3" t="s">
+      <c r="Q3" t="s">
         <v>413</v>
       </c>
-      <c r="O3" t="s">
+      <c r="R3" t="s">
         <v>414</v>
       </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3" t="s">
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3" t="s">
         <v>415</v>
       </c>
-      <c r="R3" t="s">
+      <c r="U3" t="s">
         <v>416</v>
       </c>
-      <c r="S3">
-        <v>1</v>
-      </c>
       <c r="V3">
+        <v>1</v>
+      </c>
+      <c r="Y3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -6148,45 +6476,51 @@
         <v>0.85516226291656494</v>
       </c>
       <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>920</v>
+      </c>
+      <c r="L4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K4">
+      <c r="N4">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M4" t="s">
+      <c r="P4" t="s">
         <v>10</v>
       </c>
-      <c r="N4" t="s">
+      <c r="Q4" t="s">
         <v>417</v>
       </c>
-      <c r="O4" t="s">
+      <c r="R4" t="s">
         <v>418</v>
       </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4" t="s">
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4" t="s">
         <v>419</v>
       </c>
-      <c r="R4" t="s">
+      <c r="U4" t="s">
         <v>420</v>
       </c>
-      <c r="S4">
-        <v>1</v>
-      </c>
-      <c r="T4" t="s">
+      <c r="V4">
+        <v>1</v>
+      </c>
+      <c r="W4" t="s">
         <v>421</v>
       </c>
-      <c r="U4" t="s">
+      <c r="X4" t="s">
         <v>422</v>
       </c>
-      <c r="V4">
+      <c r="Y4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -6206,45 +6540,51 @@
         <v>0.86831772327423096</v>
       </c>
       <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>921</v>
+      </c>
+      <c r="L5">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K5">
+      <c r="N5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M5" t="s">
+      <c r="P5" t="s">
         <v>253</v>
       </c>
-      <c r="N5" t="s">
+      <c r="Q5" t="s">
         <v>423</v>
       </c>
-      <c r="O5" t="s">
+      <c r="R5" t="s">
         <v>424</v>
       </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="Q5" t="s">
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5" t="s">
         <v>425</v>
       </c>
-      <c r="R5" t="s">
+      <c r="U5" t="s">
         <v>426</v>
       </c>
-      <c r="S5">
-        <v>1</v>
-      </c>
-      <c r="T5" t="s">
+      <c r="V5">
+        <v>1</v>
+      </c>
+      <c r="W5" t="s">
         <v>427</v>
       </c>
-      <c r="U5" t="s">
+      <c r="X5" t="s">
         <v>428</v>
       </c>
-      <c r="V5">
+      <c r="Y5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -6264,45 +6604,51 @@
         <v>0.85725057125091553</v>
       </c>
       <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>922</v>
+      </c>
+      <c r="L6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K6">
+      <c r="N6">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M6" t="s">
+      <c r="P6" t="s">
         <v>15</v>
       </c>
-      <c r="N6" t="s">
+      <c r="Q6" t="s">
         <v>429</v>
       </c>
-      <c r="O6" t="s">
+      <c r="R6" t="s">
         <v>430</v>
       </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
-      <c r="Q6" t="s">
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6" t="s">
         <v>431</v>
       </c>
-      <c r="R6" t="s">
+      <c r="U6" t="s">
         <v>432</v>
       </c>
-      <c r="S6">
-        <v>1</v>
-      </c>
-      <c r="T6" t="s">
+      <c r="V6">
+        <v>1</v>
+      </c>
+      <c r="W6" t="s">
         <v>433</v>
       </c>
-      <c r="U6" t="s">
+      <c r="X6" t="s">
         <v>434</v>
       </c>
-      <c r="V6">
+      <c r="Y6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -6322,39 +6668,45 @@
         <v>0.79030770063400269</v>
       </c>
       <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>923</v>
+      </c>
+      <c r="L7">
         <f t="shared" si="0"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="K7">
+      <c r="N7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M7" t="s">
+      <c r="P7" t="s">
         <v>254</v>
       </c>
-      <c r="N7" t="s">
+      <c r="Q7" t="s">
         <v>435</v>
       </c>
-      <c r="O7" t="s">
+      <c r="R7" t="s">
         <v>436</v>
       </c>
-      <c r="P7">
-        <v>1</v>
-      </c>
-      <c r="Q7" t="s">
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7" t="s">
         <v>437</v>
       </c>
-      <c r="R7" t="s">
+      <c r="U7" t="s">
         <v>438</v>
       </c>
-      <c r="S7">
-        <v>1</v>
-      </c>
       <c r="V7">
+        <v>1</v>
+      </c>
+      <c r="Y7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -6374,39 +6726,45 @@
         <v>0.82760083675384521</v>
       </c>
       <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>924</v>
+      </c>
+      <c r="L8">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="K8">
+      <c r="N8">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M8" t="s">
+      <c r="P8" t="s">
         <v>255</v>
       </c>
-      <c r="N8" t="s">
+      <c r="Q8" t="s">
         <v>439</v>
       </c>
-      <c r="O8" t="s">
+      <c r="R8" t="s">
         <v>440</v>
       </c>
-      <c r="P8">
-        <v>1</v>
-      </c>
-      <c r="Q8" t="s">
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="T8" t="s">
         <v>441</v>
       </c>
-      <c r="R8" t="s">
+      <c r="U8" t="s">
         <v>442</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
       </c>
       <c r="V8">
         <v>0</v>
       </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -6426,45 +6784,51 @@
         <v>0.83852314949035645</v>
       </c>
       <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s">
+        <v>925</v>
+      </c>
+      <c r="L9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K9">
+      <c r="N9">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M9" t="s">
+      <c r="P9" t="s">
         <v>22</v>
       </c>
-      <c r="N9" t="s">
+      <c r="Q9" t="s">
         <v>443</v>
       </c>
-      <c r="O9" t="s">
+      <c r="R9" t="s">
         <v>444</v>
       </c>
-      <c r="P9">
-        <v>1</v>
-      </c>
-      <c r="Q9" t="s">
+      <c r="S9">
+        <v>1</v>
+      </c>
+      <c r="T9" t="s">
         <v>445</v>
       </c>
-      <c r="R9" t="s">
+      <c r="U9" t="s">
         <v>446</v>
       </c>
-      <c r="S9">
-        <v>1</v>
-      </c>
-      <c r="T9" t="s">
+      <c r="V9">
+        <v>1</v>
+      </c>
+      <c r="W9" t="s">
         <v>447</v>
       </c>
-      <c r="U9" t="s">
+      <c r="X9" t="s">
         <v>448</v>
       </c>
-      <c r="V9">
+      <c r="Y9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -6484,45 +6848,51 @@
         <v>0.84100842475891113</v>
       </c>
       <c r="I10">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J10" t="s">
+        <v>926</v>
+      </c>
+      <c r="L10">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K10">
+      <c r="N10">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M10" t="s">
+      <c r="P10" t="s">
         <v>256</v>
       </c>
-      <c r="N10" t="s">
+      <c r="Q10" t="s">
         <v>449</v>
       </c>
-      <c r="O10" t="s">
+      <c r="R10" t="s">
         <v>450</v>
       </c>
-      <c r="P10">
-        <v>1</v>
-      </c>
-      <c r="Q10" t="s">
+      <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="T10" t="s">
         <v>451</v>
       </c>
-      <c r="R10" t="s">
+      <c r="U10" t="s">
         <v>452</v>
       </c>
-      <c r="S10">
-        <v>1</v>
-      </c>
-      <c r="T10" t="s">
+      <c r="V10">
+        <v>1</v>
+      </c>
+      <c r="W10" t="s">
         <v>453</v>
       </c>
-      <c r="U10" t="s">
+      <c r="X10" t="s">
         <v>454</v>
       </c>
-      <c r="V10">
+      <c r="Y10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -6542,45 +6912,51 @@
         <v>0.88792949914932251</v>
       </c>
       <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
+        <v>927</v>
+      </c>
+      <c r="L11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K11">
+      <c r="N11">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M11" t="s">
+      <c r="P11" t="s">
         <v>27</v>
       </c>
-      <c r="N11" t="s">
+      <c r="Q11" t="s">
         <v>455</v>
       </c>
-      <c r="O11" t="s">
+      <c r="R11" t="s">
         <v>456</v>
       </c>
-      <c r="P11">
-        <v>1</v>
-      </c>
-      <c r="Q11" t="s">
+      <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="T11" t="s">
         <v>457</v>
       </c>
-      <c r="R11" t="s">
+      <c r="U11" t="s">
         <v>458</v>
       </c>
-      <c r="S11">
-        <v>1</v>
-      </c>
-      <c r="T11" t="s">
+      <c r="V11">
+        <v>1</v>
+      </c>
+      <c r="W11" t="s">
         <v>459</v>
       </c>
-      <c r="U11" t="s">
+      <c r="X11" t="s">
         <v>460</v>
       </c>
-      <c r="V11">
+      <c r="Y11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -6600,45 +6976,51 @@
         <v>0.87932533025741577</v>
       </c>
       <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12" t="s">
+        <v>928</v>
+      </c>
+      <c r="L12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K12">
+      <c r="N12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M12" t="s">
+      <c r="P12" t="s">
         <v>30</v>
       </c>
-      <c r="N12" t="s">
+      <c r="Q12" t="s">
         <v>461</v>
       </c>
-      <c r="O12" t="s">
+      <c r="R12" t="s">
         <v>462</v>
       </c>
-      <c r="P12">
-        <v>1</v>
-      </c>
-      <c r="Q12" t="s">
+      <c r="S12">
+        <v>1</v>
+      </c>
+      <c r="T12" t="s">
         <v>463</v>
       </c>
-      <c r="R12" t="s">
+      <c r="U12" t="s">
         <v>464</v>
       </c>
-      <c r="S12">
-        <v>1</v>
-      </c>
-      <c r="T12" t="s">
+      <c r="V12">
+        <v>1</v>
+      </c>
+      <c r="W12" t="s">
         <v>465</v>
       </c>
-      <c r="U12" t="s">
+      <c r="X12" t="s">
         <v>466</v>
       </c>
-      <c r="V12">
+      <c r="Y12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -6658,45 +7040,51 @@
         <v>0.86931121349334717</v>
       </c>
       <c r="I13">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="J13" t="s">
+        <v>929</v>
+      </c>
+      <c r="L13">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K13">
+      <c r="N13">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M13" t="s">
+      <c r="P13" t="s">
         <v>33</v>
       </c>
-      <c r="N13" t="s">
+      <c r="Q13" t="s">
         <v>467</v>
       </c>
-      <c r="O13" t="s">
+      <c r="R13" t="s">
         <v>468</v>
       </c>
-      <c r="P13">
-        <v>1</v>
-      </c>
-      <c r="Q13" t="s">
+      <c r="S13">
+        <v>1</v>
+      </c>
+      <c r="T13" t="s">
         <v>469</v>
       </c>
-      <c r="R13" t="s">
+      <c r="U13" t="s">
         <v>470</v>
       </c>
-      <c r="S13">
-        <v>1</v>
-      </c>
-      <c r="T13" t="s">
+      <c r="V13">
+        <v>1</v>
+      </c>
+      <c r="W13" t="s">
         <v>471</v>
       </c>
-      <c r="U13" t="s">
+      <c r="X13" t="s">
         <v>472</v>
       </c>
-      <c r="V13">
+      <c r="Y13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -6716,45 +7104,51 @@
         <v>0.84872585535049438</v>
       </c>
       <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14" t="s">
+        <v>930</v>
+      </c>
+      <c r="L14">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K14">
+      <c r="N14">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M14" t="s">
+      <c r="P14" t="s">
         <v>36</v>
       </c>
-      <c r="N14" t="s">
+      <c r="Q14" t="s">
         <v>473</v>
       </c>
-      <c r="O14" t="s">
+      <c r="R14" t="s">
         <v>410</v>
       </c>
-      <c r="P14">
-        <v>1</v>
-      </c>
-      <c r="Q14" t="s">
+      <c r="S14">
+        <v>1</v>
+      </c>
+      <c r="T14" t="s">
         <v>474</v>
       </c>
-      <c r="R14" t="s">
+      <c r="U14" t="s">
         <v>475</v>
       </c>
-      <c r="S14">
-        <v>1</v>
-      </c>
-      <c r="T14" t="s">
+      <c r="V14">
+        <v>1</v>
+      </c>
+      <c r="W14" t="s">
         <v>476</v>
       </c>
-      <c r="U14" t="s">
+      <c r="X14" t="s">
         <v>477</v>
       </c>
-      <c r="V14">
+      <c r="Y14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -6774,45 +7168,51 @@
         <v>0.81391668319702148</v>
       </c>
       <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15" t="s">
+        <v>931</v>
+      </c>
+      <c r="L15">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K15">
+      <c r="N15">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M15" t="s">
+      <c r="P15" t="s">
         <v>39</v>
       </c>
-      <c r="N15" t="s">
+      <c r="Q15" t="s">
         <v>478</v>
       </c>
-      <c r="O15" t="s">
+      <c r="R15" t="s">
         <v>479</v>
       </c>
-      <c r="P15">
-        <v>1</v>
-      </c>
-      <c r="Q15" t="s">
+      <c r="S15">
+        <v>1</v>
+      </c>
+      <c r="T15" t="s">
         <v>480</v>
       </c>
-      <c r="R15" t="s">
+      <c r="U15" t="s">
         <v>481</v>
       </c>
-      <c r="S15">
-        <v>1</v>
-      </c>
-      <c r="T15" t="s">
+      <c r="V15">
+        <v>1</v>
+      </c>
+      <c r="W15" t="s">
         <v>482</v>
       </c>
-      <c r="U15" t="s">
+      <c r="X15" t="s">
         <v>483</v>
       </c>
-      <c r="V15">
+      <c r="Y15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -6832,45 +7232,51 @@
         <v>0.87566936016082764</v>
       </c>
       <c r="I16">
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="J16" t="s">
+        <v>932</v>
+      </c>
+      <c r="L16">
         <f t="shared" si="0"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="K16">
+      <c r="N16">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M16" t="s">
+      <c r="P16" t="s">
         <v>42</v>
       </c>
-      <c r="N16" t="s">
+      <c r="Q16" t="s">
         <v>484</v>
       </c>
-      <c r="O16" t="s">
+      <c r="R16" t="s">
         <v>485</v>
       </c>
-      <c r="P16">
-        <v>1</v>
-      </c>
-      <c r="Q16" t="s">
+      <c r="S16">
+        <v>1</v>
+      </c>
+      <c r="T16" t="s">
         <v>486</v>
       </c>
-      <c r="R16" t="s">
+      <c r="U16" t="s">
         <v>487</v>
       </c>
-      <c r="S16">
-        <v>1</v>
-      </c>
-      <c r="T16" t="s">
+      <c r="V16">
+        <v>1</v>
+      </c>
+      <c r="W16" t="s">
         <v>488</v>
       </c>
-      <c r="U16" t="s">
+      <c r="X16" t="s">
         <v>489</v>
       </c>
-      <c r="V16">
+      <c r="Y16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>43</v>
       </c>
@@ -6890,33 +7296,39 @@
         <v>0.87825655937194824</v>
       </c>
       <c r="I17">
+        <v>0.75</v>
+      </c>
+      <c r="J17" t="s">
+        <v>933</v>
+      </c>
+      <c r="L17">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="K17">
+      <c r="N17">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M17" t="s">
+      <c r="P17" t="s">
         <v>257</v>
       </c>
-      <c r="N17" t="s">
+      <c r="Q17" t="s">
         <v>257</v>
       </c>
-      <c r="O17" t="s">
+      <c r="R17" t="s">
         <v>490</v>
       </c>
-      <c r="P17">
-        <v>1</v>
-      </c>
       <c r="S17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V17">
         <v>0</v>
       </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>45</v>
       </c>
@@ -6936,45 +7348,51 @@
         <v>0.82141667604446411</v>
       </c>
       <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18" t="s">
+        <v>934</v>
+      </c>
+      <c r="L18">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K18">
+      <c r="N18">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M18" t="s">
+      <c r="P18" t="s">
         <v>47</v>
       </c>
-      <c r="N18" t="s">
+      <c r="Q18" t="s">
         <v>491</v>
       </c>
-      <c r="O18" t="s">
+      <c r="R18" t="s">
         <v>492</v>
       </c>
-      <c r="P18">
-        <v>1</v>
-      </c>
-      <c r="Q18" t="s">
+      <c r="S18">
+        <v>1</v>
+      </c>
+      <c r="T18" t="s">
         <v>493</v>
       </c>
-      <c r="R18" t="s">
+      <c r="U18" t="s">
         <v>494</v>
       </c>
-      <c r="S18">
-        <v>1</v>
-      </c>
-      <c r="T18" t="s">
+      <c r="V18">
+        <v>1</v>
+      </c>
+      <c r="W18" t="s">
         <v>495</v>
       </c>
-      <c r="U18" t="s">
+      <c r="X18" t="s">
         <v>496</v>
       </c>
-      <c r="V18">
+      <c r="Y18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>48</v>
       </c>
@@ -6994,45 +7412,51 @@
         <v>0.80322724580764771</v>
       </c>
       <c r="I19">
+        <v>0.85</v>
+      </c>
+      <c r="J19" t="s">
+        <v>935</v>
+      </c>
+      <c r="L19">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K19">
+      <c r="N19">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M19" t="s">
+      <c r="P19" t="s">
         <v>50</v>
       </c>
-      <c r="N19" t="s">
+      <c r="Q19" t="s">
         <v>497</v>
       </c>
-      <c r="O19" t="s">
+      <c r="R19" t="s">
         <v>498</v>
       </c>
-      <c r="P19">
-        <v>1</v>
-      </c>
-      <c r="Q19" t="s">
+      <c r="S19">
+        <v>1</v>
+      </c>
+      <c r="T19" t="s">
         <v>499</v>
       </c>
-      <c r="R19" t="s">
+      <c r="U19" t="s">
         <v>500</v>
       </c>
-      <c r="S19">
-        <v>1</v>
-      </c>
-      <c r="T19" t="s">
+      <c r="V19">
+        <v>1</v>
+      </c>
+      <c r="W19" t="s">
         <v>501</v>
       </c>
-      <c r="U19" t="s">
+      <c r="X19" t="s">
         <v>502</v>
       </c>
-      <c r="V19">
+      <c r="Y19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>51</v>
       </c>
@@ -7052,45 +7476,51 @@
         <v>0.88040590286254883</v>
       </c>
       <c r="I20">
+        <v>0.8</v>
+      </c>
+      <c r="J20" t="s">
+        <v>936</v>
+      </c>
+      <c r="L20">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K20">
+      <c r="N20">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M20" t="s">
+      <c r="P20" t="s">
         <v>53</v>
       </c>
-      <c r="N20" t="s">
+      <c r="Q20" t="s">
         <v>503</v>
       </c>
-      <c r="O20" t="s">
+      <c r="R20" t="s">
         <v>504</v>
       </c>
-      <c r="P20">
-        <v>1</v>
-      </c>
-      <c r="Q20" t="s">
+      <c r="S20">
+        <v>1</v>
+      </c>
+      <c r="T20" t="s">
         <v>505</v>
       </c>
-      <c r="R20" t="s">
+      <c r="U20" t="s">
         <v>506</v>
       </c>
-      <c r="S20">
-        <v>1</v>
-      </c>
-      <c r="T20" t="s">
+      <c r="V20">
+        <v>1</v>
+      </c>
+      <c r="W20" t="s">
         <v>507</v>
       </c>
-      <c r="U20" t="s">
+      <c r="X20" t="s">
         <v>508</v>
       </c>
-      <c r="V20">
+      <c r="Y20">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>54</v>
       </c>
@@ -7110,33 +7540,39 @@
         <v>0.87817627191543579</v>
       </c>
       <c r="I21">
+        <v>0.8</v>
+      </c>
+      <c r="J21" t="s">
+        <v>937</v>
+      </c>
+      <c r="L21">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="K21">
+      <c r="N21">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M21" t="s">
+      <c r="P21" t="s">
         <v>258</v>
       </c>
-      <c r="N21" t="s">
+      <c r="Q21" t="s">
         <v>258</v>
       </c>
-      <c r="O21" t="s">
+      <c r="R21" t="s">
         <v>509</v>
       </c>
-      <c r="P21">
-        <v>1</v>
-      </c>
       <c r="S21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V21">
         <v>0</v>
       </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>56</v>
       </c>
@@ -7156,45 +7592,51 @@
         <v>0.85180699825286865</v>
       </c>
       <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22" t="s">
+        <v>938</v>
+      </c>
+      <c r="L22">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K22">
+      <c r="N22">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M22" t="s">
+      <c r="P22" t="s">
         <v>58</v>
       </c>
-      <c r="N22" t="s">
+      <c r="Q22" t="s">
         <v>510</v>
       </c>
-      <c r="O22" t="s">
+      <c r="R22" t="s">
         <v>511</v>
       </c>
-      <c r="P22">
-        <v>1</v>
-      </c>
-      <c r="Q22" t="s">
+      <c r="S22">
+        <v>1</v>
+      </c>
+      <c r="T22" t="s">
         <v>512</v>
       </c>
-      <c r="R22" t="s">
+      <c r="U22" t="s">
         <v>513</v>
       </c>
-      <c r="S22">
-        <v>1</v>
-      </c>
-      <c r="T22" t="s">
+      <c r="V22">
+        <v>1</v>
+      </c>
+      <c r="W22" t="s">
         <v>514</v>
       </c>
-      <c r="U22" t="s">
+      <c r="X22" t="s">
         <v>515</v>
       </c>
-      <c r="V22">
+      <c r="Y22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>59</v>
       </c>
@@ -7214,45 +7656,51 @@
         <v>0.8410370945930481</v>
       </c>
       <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23" t="s">
+        <v>939</v>
+      </c>
+      <c r="L23">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K23">
+      <c r="N23">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M23" t="s">
+      <c r="P23" t="s">
         <v>61</v>
       </c>
-      <c r="N23" t="s">
+      <c r="Q23" t="s">
         <v>516</v>
       </c>
-      <c r="O23" t="s">
+      <c r="R23" t="s">
         <v>517</v>
       </c>
-      <c r="P23">
-        <v>1</v>
-      </c>
-      <c r="Q23" t="s">
+      <c r="S23">
+        <v>1</v>
+      </c>
+      <c r="T23" t="s">
         <v>518</v>
       </c>
-      <c r="R23" t="s">
+      <c r="U23" t="s">
         <v>519</v>
       </c>
-      <c r="S23">
-        <v>1</v>
-      </c>
-      <c r="T23" t="s">
+      <c r="V23">
+        <v>1</v>
+      </c>
+      <c r="W23" t="s">
         <v>520</v>
       </c>
-      <c r="U23" t="s">
+      <c r="X23" t="s">
         <v>521</v>
       </c>
-      <c r="V23">
+      <c r="Y23">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>62</v>
       </c>
@@ -7272,45 +7720,51 @@
         <v>0.87717318534851074</v>
       </c>
       <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24" t="s">
+        <v>940</v>
+      </c>
+      <c r="L24">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K24">
+      <c r="N24">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M24" t="s">
+      <c r="P24" t="s">
         <v>64</v>
       </c>
-      <c r="N24" t="s">
+      <c r="Q24" t="s">
         <v>522</v>
       </c>
-      <c r="O24" t="s">
+      <c r="R24" t="s">
         <v>523</v>
       </c>
-      <c r="P24">
-        <v>1</v>
-      </c>
-      <c r="Q24" t="s">
+      <c r="S24">
+        <v>1</v>
+      </c>
+      <c r="T24" t="s">
         <v>524</v>
       </c>
-      <c r="R24" t="s">
+      <c r="U24" t="s">
         <v>525</v>
       </c>
-      <c r="S24">
-        <v>1</v>
-      </c>
-      <c r="T24" t="s">
+      <c r="V24">
+        <v>1</v>
+      </c>
+      <c r="W24" t="s">
         <v>526</v>
       </c>
-      <c r="U24" t="s">
+      <c r="X24" t="s">
         <v>527</v>
       </c>
-      <c r="V24">
+      <c r="Y24">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>65</v>
       </c>
@@ -7330,45 +7784,51 @@
         <v>0.81631660461425781</v>
       </c>
       <c r="I25">
+        <v>0.94444444444444442</v>
+      </c>
+      <c r="J25" t="s">
+        <v>941</v>
+      </c>
+      <c r="L25">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K25">
+      <c r="N25">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M25" t="s">
+      <c r="P25" t="s">
         <v>67</v>
       </c>
-      <c r="N25" t="s">
+      <c r="Q25" t="s">
         <v>528</v>
       </c>
-      <c r="O25" t="s">
+      <c r="R25" t="s">
         <v>529</v>
       </c>
-      <c r="P25">
-        <v>1</v>
-      </c>
-      <c r="Q25" t="s">
+      <c r="S25">
+        <v>1</v>
+      </c>
+      <c r="T25" t="s">
         <v>530</v>
       </c>
-      <c r="R25" t="s">
+      <c r="U25" t="s">
         <v>531</v>
       </c>
-      <c r="S25">
-        <v>1</v>
-      </c>
-      <c r="T25" t="s">
+      <c r="V25">
+        <v>1</v>
+      </c>
+      <c r="W25" t="s">
         <v>532</v>
       </c>
-      <c r="U25" t="s">
+      <c r="X25" t="s">
         <v>533</v>
       </c>
-      <c r="V25">
+      <c r="Y25">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>68</v>
       </c>
@@ -7388,45 +7848,51 @@
         <v>0.84890145063400269</v>
       </c>
       <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26" t="s">
+        <v>942</v>
+      </c>
+      <c r="L26">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="K26">
+      <c r="N26">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M26" t="s">
+      <c r="P26" t="s">
         <v>69</v>
       </c>
-      <c r="N26" t="s">
+      <c r="Q26" t="s">
         <v>534</v>
       </c>
-      <c r="O26" t="s">
+      <c r="R26" t="s">
         <v>535</v>
       </c>
-      <c r="P26">
-        <v>1</v>
-      </c>
-      <c r="Q26" t="s">
+      <c r="S26">
+        <v>1</v>
+      </c>
+      <c r="T26" t="s">
         <v>536</v>
       </c>
-      <c r="R26" t="s">
+      <c r="U26" t="s">
         <v>537</v>
-      </c>
-      <c r="S26">
-        <v>0</v>
-      </c>
-      <c r="T26" t="s">
-        <v>538</v>
-      </c>
-      <c r="U26" t="s">
-        <v>539</v>
       </c>
       <c r="V26">
         <v>0</v>
       </c>
+      <c r="W26" t="s">
+        <v>538</v>
+      </c>
+      <c r="X26" t="s">
+        <v>539</v>
+      </c>
+      <c r="Y26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>70</v>
       </c>
@@ -7446,39 +7912,45 @@
         <v>0.86368751525878906</v>
       </c>
       <c r="I27">
+        <v>0.4</v>
+      </c>
+      <c r="J27" t="s">
+        <v>943</v>
+      </c>
+      <c r="L27">
         <f t="shared" si="0"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="K27">
+      <c r="N27">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M27" t="s">
+      <c r="P27" t="s">
         <v>259</v>
       </c>
-      <c r="N27" t="s">
+      <c r="Q27" t="s">
         <v>540</v>
       </c>
-      <c r="O27" t="s">
+      <c r="R27" t="s">
         <v>541</v>
       </c>
-      <c r="P27">
-        <v>1</v>
-      </c>
-      <c r="Q27" t="s">
+      <c r="S27">
+        <v>1</v>
+      </c>
+      <c r="T27" t="s">
         <v>542</v>
       </c>
-      <c r="R27" t="s">
+      <c r="U27" t="s">
         <v>543</v>
       </c>
-      <c r="S27">
-        <v>1</v>
-      </c>
       <c r="V27">
+        <v>1</v>
+      </c>
+      <c r="Y27">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>72</v>
       </c>
@@ -7498,39 +7970,45 @@
         <v>0.86583274602890015</v>
       </c>
       <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28" t="s">
+        <v>944</v>
+      </c>
+      <c r="L28">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="K28">
+      <c r="N28">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M28" t="s">
+      <c r="P28" t="s">
         <v>260</v>
       </c>
-      <c r="N28" t="s">
+      <c r="Q28" t="s">
         <v>544</v>
       </c>
-      <c r="O28" t="s">
+      <c r="R28" t="s">
         <v>545</v>
       </c>
-      <c r="P28">
-        <v>1</v>
-      </c>
-      <c r="Q28" t="s">
+      <c r="S28">
+        <v>1</v>
+      </c>
+      <c r="T28" t="s">
         <v>546</v>
       </c>
-      <c r="R28" t="s">
+      <c r="U28" t="s">
         <v>547</v>
-      </c>
-      <c r="S28">
-        <v>0</v>
       </c>
       <c r="V28">
         <v>0</v>
       </c>
+      <c r="Y28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>74</v>
       </c>
@@ -7550,33 +8028,39 @@
         <v>0.84346240758895874</v>
       </c>
       <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29" t="s">
+        <v>945</v>
+      </c>
+      <c r="L29">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="K29">
+      <c r="N29">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M29" t="s">
+      <c r="P29" t="s">
         <v>261</v>
       </c>
-      <c r="N29" t="s">
+      <c r="Q29" t="s">
         <v>261</v>
       </c>
-      <c r="O29" t="s">
+      <c r="R29" t="s">
         <v>548</v>
       </c>
-      <c r="P29">
-        <v>1</v>
-      </c>
       <c r="S29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V29">
         <v>0</v>
       </c>
+      <c r="Y29">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>76</v>
       </c>
@@ -7596,45 +8080,51 @@
         <v>0.87756085395812988</v>
       </c>
       <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30" t="s">
+        <v>946</v>
+      </c>
+      <c r="L30">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="K30">
+      <c r="N30">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M30" t="s">
+      <c r="P30" t="s">
         <v>262</v>
       </c>
-      <c r="N30" t="s">
+      <c r="Q30" t="s">
         <v>549</v>
       </c>
-      <c r="O30" t="s">
+      <c r="R30" t="s">
         <v>550</v>
       </c>
-      <c r="P30">
-        <v>1</v>
-      </c>
-      <c r="Q30" t="s">
+      <c r="S30">
+        <v>1</v>
+      </c>
+      <c r="T30" t="s">
         <v>551</v>
       </c>
-      <c r="R30" t="s">
+      <c r="U30" t="s">
         <v>552</v>
-      </c>
-      <c r="S30">
-        <v>0</v>
-      </c>
-      <c r="T30" t="s">
-        <v>553</v>
-      </c>
-      <c r="U30" t="s">
-        <v>554</v>
       </c>
       <c r="V30">
         <v>0</v>
       </c>
+      <c r="W30" t="s">
+        <v>553</v>
+      </c>
+      <c r="X30" t="s">
+        <v>554</v>
+      </c>
+      <c r="Y30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>78</v>
       </c>
@@ -7654,39 +8144,45 @@
         <v>0.86477458477020264</v>
       </c>
       <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31" t="s">
+        <v>947</v>
+      </c>
+      <c r="L31">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="K31">
+      <c r="N31">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M31" t="s">
+      <c r="P31" t="s">
         <v>263</v>
       </c>
-      <c r="N31" t="s">
+      <c r="Q31" t="s">
         <v>555</v>
       </c>
-      <c r="O31" t="s">
+      <c r="R31" t="s">
         <v>556</v>
       </c>
-      <c r="P31">
-        <v>1</v>
-      </c>
-      <c r="Q31" t="s">
+      <c r="S31">
+        <v>1</v>
+      </c>
+      <c r="T31" t="s">
         <v>557</v>
       </c>
-      <c r="R31" t="s">
+      <c r="U31" t="s">
         <v>558</v>
-      </c>
-      <c r="S31">
-        <v>0</v>
       </c>
       <c r="V31">
         <v>0</v>
       </c>
+      <c r="Y31">
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>80</v>
       </c>
@@ -7706,33 +8202,39 @@
         <v>0.87620300054550171</v>
       </c>
       <c r="I32">
+        <v>0.6</v>
+      </c>
+      <c r="J32" t="s">
+        <v>948</v>
+      </c>
+      <c r="L32">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="K32">
+      <c r="N32">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M32" t="s">
+      <c r="P32" t="s">
         <v>264</v>
       </c>
-      <c r="N32" t="s">
+      <c r="Q32" t="s">
         <v>264</v>
       </c>
-      <c r="O32" t="s">
+      <c r="R32" t="s">
         <v>559</v>
       </c>
-      <c r="P32">
-        <v>1</v>
-      </c>
       <c r="S32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V32">
         <v>0</v>
       </c>
+      <c r="Y32">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>82</v>
       </c>
@@ -7752,45 +8254,51 @@
         <v>0.8163299560546875</v>
       </c>
       <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33" t="s">
+        <v>949</v>
+      </c>
+      <c r="L33">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K33">
+      <c r="N33">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M33" t="s">
+      <c r="P33" t="s">
         <v>84</v>
       </c>
-      <c r="N33" t="s">
+      <c r="Q33" t="s">
         <v>560</v>
       </c>
-      <c r="O33" t="s">
+      <c r="R33" t="s">
         <v>561</v>
       </c>
-      <c r="P33">
-        <v>1</v>
-      </c>
-      <c r="Q33" t="s">
+      <c r="S33">
+        <v>1</v>
+      </c>
+      <c r="T33" t="s">
         <v>562</v>
       </c>
-      <c r="R33" t="s">
+      <c r="U33" t="s">
         <v>563</v>
       </c>
-      <c r="S33">
-        <v>1</v>
-      </c>
-      <c r="T33" t="s">
+      <c r="V33">
+        <v>1</v>
+      </c>
+      <c r="W33" t="s">
         <v>564</v>
       </c>
-      <c r="U33" t="s">
+      <c r="X33" t="s">
         <v>565</v>
       </c>
-      <c r="V33">
+      <c r="Y33">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>85</v>
       </c>
@@ -7810,45 +8318,51 @@
         <v>0.84605872631072998</v>
       </c>
       <c r="I34">
+        <v>0.6</v>
+      </c>
+      <c r="J34" t="s">
+        <v>950</v>
+      </c>
+      <c r="L34">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K34">
+      <c r="N34">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M34" t="s">
+      <c r="P34" t="s">
         <v>87</v>
       </c>
-      <c r="N34" t="s">
+      <c r="Q34" t="s">
         <v>566</v>
       </c>
-      <c r="O34" t="s">
+      <c r="R34" t="s">
         <v>567</v>
       </c>
-      <c r="P34">
-        <v>1</v>
-      </c>
-      <c r="Q34" t="s">
+      <c r="S34">
+        <v>1</v>
+      </c>
+      <c r="T34" t="s">
         <v>568</v>
       </c>
-      <c r="R34" t="s">
+      <c r="U34" t="s">
         <v>569</v>
       </c>
-      <c r="S34">
-        <v>1</v>
-      </c>
-      <c r="T34" t="s">
+      <c r="V34">
+        <v>1</v>
+      </c>
+      <c r="W34" t="s">
         <v>570</v>
       </c>
-      <c r="U34" t="s">
+      <c r="X34" t="s">
         <v>521</v>
       </c>
-      <c r="V34">
+      <c r="Y34">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>88</v>
       </c>
@@ -7868,39 +8382,45 @@
         <v>0.86391228437423706</v>
       </c>
       <c r="I35">
+        <v>0.6</v>
+      </c>
+      <c r="J35" t="s">
+        <v>951</v>
+      </c>
+      <c r="L35">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="K35">
+      <c r="N35">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M35" t="s">
+      <c r="P35" t="s">
         <v>265</v>
       </c>
-      <c r="N35" t="s">
+      <c r="Q35" t="s">
         <v>571</v>
       </c>
-      <c r="O35" t="s">
+      <c r="R35" t="s">
         <v>572</v>
       </c>
-      <c r="P35">
-        <v>1</v>
-      </c>
-      <c r="Q35" t="s">
+      <c r="S35">
+        <v>1</v>
+      </c>
+      <c r="T35" t="s">
         <v>573</v>
       </c>
-      <c r="R35" t="s">
+      <c r="U35" t="s">
         <v>574</v>
-      </c>
-      <c r="S35">
-        <v>0</v>
       </c>
       <c r="V35">
         <v>0</v>
       </c>
+      <c r="Y35">
+        <v>0</v>
+      </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>90</v>
       </c>
@@ -7920,45 +8440,51 @@
         <v>0.88451862335205078</v>
       </c>
       <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36" t="s">
+        <v>952</v>
+      </c>
+      <c r="L36">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="K36">
+      <c r="N36">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M36" t="s">
+      <c r="P36" t="s">
         <v>266</v>
       </c>
-      <c r="N36" t="s">
+      <c r="Q36" t="s">
         <v>575</v>
       </c>
-      <c r="O36" t="s">
+      <c r="R36" t="s">
         <v>576</v>
       </c>
-      <c r="P36">
-        <v>1</v>
-      </c>
-      <c r="Q36" t="s">
+      <c r="S36">
+        <v>1</v>
+      </c>
+      <c r="T36" t="s">
         <v>577</v>
       </c>
-      <c r="R36" t="s">
+      <c r="U36" t="s">
         <v>578</v>
-      </c>
-      <c r="S36">
-        <v>0</v>
-      </c>
-      <c r="T36" t="s">
-        <v>579</v>
-      </c>
-      <c r="U36" t="s">
-        <v>580</v>
       </c>
       <c r="V36">
         <v>0</v>
       </c>
+      <c r="W36" t="s">
+        <v>579</v>
+      </c>
+      <c r="X36" t="s">
+        <v>580</v>
+      </c>
+      <c r="Y36">
+        <v>0</v>
+      </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>92</v>
       </c>
@@ -7978,45 +8504,51 @@
         <v>0.87943679094314575</v>
       </c>
       <c r="I37">
+        <v>0.5</v>
+      </c>
+      <c r="J37" t="s">
+        <v>953</v>
+      </c>
+      <c r="L37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K37">
+      <c r="N37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M37" t="s">
+      <c r="P37" t="s">
         <v>267</v>
       </c>
-      <c r="N37" t="s">
+      <c r="Q37" t="s">
         <v>581</v>
       </c>
-      <c r="O37" t="s">
+      <c r="R37" t="s">
         <v>582</v>
-      </c>
-      <c r="P37">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>583</v>
-      </c>
-      <c r="R37" t="s">
-        <v>584</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="U37" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="V37">
         <v>0</v>
       </c>
+      <c r="W37" t="s">
+        <v>585</v>
+      </c>
+      <c r="X37" t="s">
+        <v>586</v>
+      </c>
+      <c r="Y37">
+        <v>0</v>
+      </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>94</v>
       </c>
@@ -8036,45 +8568,51 @@
         <v>0.85058659315109253</v>
       </c>
       <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38" t="s">
+        <v>954</v>
+      </c>
+      <c r="L38">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K38">
+      <c r="N38">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M38" t="s">
+      <c r="P38" t="s">
         <v>96</v>
       </c>
-      <c r="N38" t="s">
+      <c r="Q38" t="s">
         <v>587</v>
       </c>
-      <c r="O38" t="s">
+      <c r="R38" t="s">
         <v>588</v>
       </c>
-      <c r="P38">
-        <v>1</v>
-      </c>
-      <c r="Q38" t="s">
+      <c r="S38">
+        <v>1</v>
+      </c>
+      <c r="T38" t="s">
         <v>589</v>
       </c>
-      <c r="R38" t="s">
+      <c r="U38" t="s">
         <v>590</v>
       </c>
-      <c r="S38">
-        <v>1</v>
-      </c>
-      <c r="T38" t="s">
+      <c r="V38">
+        <v>1</v>
+      </c>
+      <c r="W38" t="s">
         <v>591</v>
       </c>
-      <c r="U38" t="s">
+      <c r="X38" t="s">
         <v>592</v>
       </c>
-      <c r="V38">
+      <c r="Y38">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>97</v>
       </c>
@@ -8094,45 +8632,51 @@
         <v>0.85826390981674194</v>
       </c>
       <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39" t="s">
+        <v>955</v>
+      </c>
+      <c r="L39">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K39">
+      <c r="N39">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M39" t="s">
+      <c r="P39" t="s">
         <v>99</v>
       </c>
-      <c r="N39" t="s">
+      <c r="Q39" t="s">
         <v>593</v>
       </c>
-      <c r="O39" t="s">
+      <c r="R39" t="s">
         <v>594</v>
       </c>
-      <c r="P39">
-        <v>1</v>
-      </c>
-      <c r="Q39" t="s">
+      <c r="S39">
+        <v>1</v>
+      </c>
+      <c r="T39" t="s">
         <v>595</v>
       </c>
-      <c r="R39" t="s">
+      <c r="U39" t="s">
         <v>596</v>
       </c>
-      <c r="S39">
-        <v>1</v>
-      </c>
-      <c r="T39" t="s">
+      <c r="V39">
+        <v>1</v>
+      </c>
+      <c r="W39" t="s">
         <v>597</v>
       </c>
-      <c r="U39" t="s">
+      <c r="X39" t="s">
         <v>598</v>
       </c>
-      <c r="V39">
+      <c r="Y39">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>100</v>
       </c>
@@ -8152,45 +8696,51 @@
         <v>0.84487783908843994</v>
       </c>
       <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40" t="s">
+        <v>956</v>
+      </c>
+      <c r="L40">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K40">
+      <c r="N40">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M40" t="s">
+      <c r="P40" t="s">
         <v>102</v>
       </c>
-      <c r="N40" t="s">
+      <c r="Q40" t="s">
         <v>599</v>
       </c>
-      <c r="O40" t="s">
+      <c r="R40" t="s">
         <v>600</v>
       </c>
-      <c r="P40">
-        <v>1</v>
-      </c>
-      <c r="Q40" t="s">
+      <c r="S40">
+        <v>1</v>
+      </c>
+      <c r="T40" t="s">
         <v>601</v>
       </c>
-      <c r="R40" t="s">
+      <c r="U40" t="s">
         <v>602</v>
       </c>
-      <c r="S40">
-        <v>1</v>
-      </c>
-      <c r="T40" t="s">
+      <c r="V40">
+        <v>1</v>
+      </c>
+      <c r="W40" t="s">
         <v>603</v>
       </c>
-      <c r="U40" t="s">
+      <c r="X40" t="s">
         <v>604</v>
       </c>
-      <c r="V40">
+      <c r="Y40">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>103</v>
       </c>
@@ -8210,45 +8760,51 @@
         <v>0.81798213720321655</v>
       </c>
       <c r="I41">
+        <v>0.6470588235294118</v>
+      </c>
+      <c r="J41" t="s">
+        <v>957</v>
+      </c>
+      <c r="L41">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K41">
+      <c r="N41">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M41" t="s">
+      <c r="P41" t="s">
         <v>268</v>
       </c>
-      <c r="N41" t="s">
+      <c r="Q41" t="s">
         <v>605</v>
       </c>
-      <c r="O41" t="s">
+      <c r="R41" t="s">
         <v>606</v>
       </c>
-      <c r="P41">
-        <v>1</v>
-      </c>
-      <c r="Q41" t="s">
+      <c r="S41">
+        <v>1</v>
+      </c>
+      <c r="T41" t="s">
         <v>607</v>
       </c>
-      <c r="R41" t="s">
+      <c r="U41" t="s">
         <v>608</v>
       </c>
-      <c r="S41">
-        <v>1</v>
-      </c>
-      <c r="T41" t="s">
+      <c r="V41">
+        <v>1</v>
+      </c>
+      <c r="W41" t="s">
         <v>609</v>
       </c>
-      <c r="U41" t="s">
+      <c r="X41" t="s">
         <v>610</v>
       </c>
-      <c r="V41">
+      <c r="Y41">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>105</v>
       </c>
@@ -8268,45 +8824,51 @@
         <v>0.83462309837341309</v>
       </c>
       <c r="I42">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="J42" t="s">
+        <v>958</v>
+      </c>
+      <c r="L42">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K42">
+      <c r="N42">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M42" t="s">
+      <c r="P42" t="s">
         <v>107</v>
       </c>
-      <c r="N42" t="s">
+      <c r="Q42" t="s">
         <v>611</v>
       </c>
-      <c r="O42" t="s">
+      <c r="R42" t="s">
         <v>612</v>
       </c>
-      <c r="P42">
-        <v>1</v>
-      </c>
-      <c r="Q42" t="s">
+      <c r="S42">
+        <v>1</v>
+      </c>
+      <c r="T42" t="s">
         <v>613</v>
       </c>
-      <c r="R42" t="s">
+      <c r="U42" t="s">
         <v>614</v>
       </c>
-      <c r="S42">
-        <v>1</v>
-      </c>
-      <c r="T42" t="s">
+      <c r="V42">
+        <v>1</v>
+      </c>
+      <c r="W42" t="s">
         <v>615</v>
       </c>
-      <c r="U42" t="s">
+      <c r="X42" t="s">
         <v>616</v>
       </c>
-      <c r="V42">
+      <c r="Y42">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>108</v>
       </c>
@@ -8326,45 +8888,51 @@
         <v>0.81204622983932495</v>
       </c>
       <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43" t="s">
+        <v>959</v>
+      </c>
+      <c r="L43">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="K43">
+      <c r="N43">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M43" t="s">
+      <c r="P43" t="s">
         <v>110</v>
       </c>
-      <c r="N43" t="s">
+      <c r="Q43" t="s">
         <v>617</v>
       </c>
-      <c r="O43" t="s">
+      <c r="R43" t="s">
         <v>618</v>
       </c>
-      <c r="P43">
-        <v>1</v>
-      </c>
-      <c r="Q43" t="s">
+      <c r="S43">
+        <v>1</v>
+      </c>
+      <c r="T43" t="s">
         <v>619</v>
       </c>
-      <c r="R43" t="s">
+      <c r="U43" t="s">
         <v>620</v>
-      </c>
-      <c r="S43">
-        <v>0</v>
-      </c>
-      <c r="T43" t="s">
-        <v>621</v>
-      </c>
-      <c r="U43" t="s">
-        <v>622</v>
       </c>
       <c r="V43">
         <v>0</v>
       </c>
+      <c r="W43" t="s">
+        <v>621</v>
+      </c>
+      <c r="X43" t="s">
+        <v>622</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>111</v>
       </c>
@@ -8384,45 +8952,51 @@
         <v>0.86294513940811157</v>
       </c>
       <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44" t="s">
+        <v>960</v>
+      </c>
+      <c r="L44">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K44">
+      <c r="N44">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M44" t="s">
+      <c r="P44" t="s">
         <v>269</v>
       </c>
-      <c r="N44" t="s">
+      <c r="Q44" t="s">
         <v>623</v>
       </c>
-      <c r="O44" t="s">
+      <c r="R44" t="s">
         <v>624</v>
       </c>
-      <c r="P44">
-        <v>1</v>
-      </c>
-      <c r="Q44" t="s">
+      <c r="S44">
+        <v>1</v>
+      </c>
+      <c r="T44" t="s">
         <v>625</v>
       </c>
-      <c r="R44" t="s">
+      <c r="U44" t="s">
         <v>626</v>
       </c>
-      <c r="S44">
-        <v>1</v>
-      </c>
-      <c r="T44" t="s">
+      <c r="V44">
+        <v>1</v>
+      </c>
+      <c r="W44" t="s">
         <v>627</v>
       </c>
-      <c r="U44" t="s">
+      <c r="X44" t="s">
         <v>628</v>
       </c>
-      <c r="V44">
+      <c r="Y44">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>113</v>
       </c>
@@ -8442,45 +9016,51 @@
         <v>0.85549145936965942</v>
       </c>
       <c r="I45">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="J45" t="s">
+        <v>961</v>
+      </c>
+      <c r="L45">
         <f t="shared" si="0"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="K45">
+      <c r="N45">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M45" t="s">
+      <c r="P45" t="s">
         <v>115</v>
       </c>
-      <c r="N45" t="s">
+      <c r="Q45" t="s">
         <v>629</v>
       </c>
-      <c r="O45" t="s">
+      <c r="R45" t="s">
         <v>630</v>
       </c>
-      <c r="P45">
-        <v>1</v>
-      </c>
-      <c r="Q45" t="s">
+      <c r="S45">
+        <v>1</v>
+      </c>
+      <c r="T45" t="s">
         <v>631</v>
       </c>
-      <c r="R45" t="s">
+      <c r="U45" t="s">
         <v>632</v>
       </c>
-      <c r="S45">
-        <v>1</v>
-      </c>
-      <c r="T45" t="s">
+      <c r="V45">
+        <v>1</v>
+      </c>
+      <c r="W45" t="s">
         <v>633</v>
       </c>
-      <c r="U45" t="s">
+      <c r="X45" t="s">
         <v>634</v>
       </c>
-      <c r="V45">
+      <c r="Y45">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>116</v>
       </c>
@@ -8500,45 +9080,51 @@
         <v>0.77945929765701294</v>
       </c>
       <c r="I46">
+        <v>0.86956521739130432</v>
+      </c>
+      <c r="J46" t="s">
+        <v>962</v>
+      </c>
+      <c r="L46">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K46">
+      <c r="N46">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M46" t="s">
+      <c r="P46" t="s">
         <v>118</v>
       </c>
-      <c r="N46" t="s">
+      <c r="Q46" t="s">
         <v>635</v>
       </c>
-      <c r="O46" t="s">
+      <c r="R46" t="s">
         <v>636</v>
       </c>
-      <c r="P46">
-        <v>1</v>
-      </c>
-      <c r="Q46" t="s">
+      <c r="S46">
+        <v>1</v>
+      </c>
+      <c r="T46" t="s">
         <v>637</v>
       </c>
-      <c r="R46" t="s">
+      <c r="U46" t="s">
         <v>638</v>
       </c>
-      <c r="S46">
-        <v>1</v>
-      </c>
-      <c r="T46" t="s">
+      <c r="V46">
+        <v>1</v>
+      </c>
+      <c r="W46" t="s">
         <v>639</v>
       </c>
-      <c r="U46" t="s">
+      <c r="X46" t="s">
         <v>640</v>
       </c>
-      <c r="V46">
+      <c r="Y46">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>119</v>
       </c>
@@ -8558,45 +9144,51 @@
         <v>0.88811463117599487</v>
       </c>
       <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47" t="s">
+        <v>963</v>
+      </c>
+      <c r="L47">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K47">
+      <c r="N47">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M47" t="s">
+      <c r="P47" t="s">
         <v>121</v>
       </c>
-      <c r="N47" t="s">
+      <c r="Q47" t="s">
         <v>641</v>
       </c>
-      <c r="O47" t="s">
+      <c r="R47" t="s">
         <v>642</v>
       </c>
-      <c r="P47">
-        <v>1</v>
-      </c>
-      <c r="Q47" t="s">
+      <c r="S47">
+        <v>1</v>
+      </c>
+      <c r="T47" t="s">
         <v>643</v>
       </c>
-      <c r="R47" t="s">
+      <c r="U47" t="s">
         <v>644</v>
       </c>
-      <c r="S47">
-        <v>1</v>
-      </c>
-      <c r="T47" t="s">
+      <c r="V47">
+        <v>1</v>
+      </c>
+      <c r="W47" t="s">
         <v>645</v>
       </c>
-      <c r="U47" t="s">
+      <c r="X47" t="s">
         <v>646</v>
       </c>
-      <c r="V47">
+      <c r="Y47">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>122</v>
       </c>
@@ -8616,45 +9208,51 @@
         <v>0.78945237398147583</v>
       </c>
       <c r="I48">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="J48" t="s">
+        <v>964</v>
+      </c>
+      <c r="L48">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K48">
+      <c r="N48">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M48" t="s">
+      <c r="P48" t="s">
         <v>124</v>
       </c>
-      <c r="N48" t="s">
+      <c r="Q48" t="s">
         <v>647</v>
       </c>
-      <c r="O48" t="s">
+      <c r="R48" t="s">
         <v>648</v>
       </c>
-      <c r="P48">
-        <v>1</v>
-      </c>
-      <c r="Q48" t="s">
+      <c r="S48">
+        <v>1</v>
+      </c>
+      <c r="T48" t="s">
         <v>649</v>
       </c>
-      <c r="R48" t="s">
+      <c r="U48" t="s">
         <v>650</v>
       </c>
-      <c r="S48">
-        <v>1</v>
-      </c>
-      <c r="T48" t="s">
+      <c r="V48">
+        <v>1</v>
+      </c>
+      <c r="W48" t="s">
         <v>651</v>
       </c>
-      <c r="U48" t="s">
+      <c r="X48" t="s">
         <v>652</v>
       </c>
-      <c r="V48">
+      <c r="Y48">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>125</v>
       </c>
@@ -8674,33 +9272,39 @@
         <v>0.88068598508834839</v>
       </c>
       <c r="I49">
+        <v>0.875</v>
+      </c>
+      <c r="J49" t="s">
+        <v>965</v>
+      </c>
+      <c r="L49">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="K49">
+      <c r="N49">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M49" t="s">
+      <c r="P49" t="s">
         <v>270</v>
       </c>
-      <c r="N49" t="s">
+      <c r="Q49" t="s">
         <v>270</v>
       </c>
-      <c r="O49" t="s">
+      <c r="R49" t="s">
         <v>653</v>
       </c>
-      <c r="P49">
-        <v>1</v>
-      </c>
       <c r="S49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V49">
         <v>0</v>
       </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>127</v>
       </c>
@@ -8720,45 +9324,51 @@
         <v>0.8560786247253418</v>
       </c>
       <c r="I50">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="J50" t="s">
+        <v>966</v>
+      </c>
+      <c r="L50">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K50">
+      <c r="N50">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M50" t="s">
+      <c r="P50" t="s">
         <v>271</v>
       </c>
-      <c r="N50" t="s">
+      <c r="Q50" t="s">
         <v>654</v>
       </c>
-      <c r="O50" t="s">
+      <c r="R50" t="s">
         <v>655</v>
       </c>
-      <c r="P50">
-        <v>1</v>
-      </c>
-      <c r="Q50" t="s">
+      <c r="S50">
+        <v>1</v>
+      </c>
+      <c r="T50" t="s">
         <v>656</v>
       </c>
-      <c r="R50" t="s">
+      <c r="U50" t="s">
         <v>657</v>
       </c>
-      <c r="S50">
-        <v>1</v>
-      </c>
-      <c r="T50" t="s">
+      <c r="V50">
+        <v>1</v>
+      </c>
+      <c r="W50" t="s">
         <v>658</v>
       </c>
-      <c r="U50" t="s">
+      <c r="X50" t="s">
         <v>659</v>
       </c>
-      <c r="V50">
+      <c r="Y50">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>129</v>
       </c>
@@ -8778,39 +9388,45 @@
         <v>0.87638330459594727</v>
       </c>
       <c r="I51">
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="J51" t="s">
+        <v>967</v>
+      </c>
+      <c r="L51">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="K51">
+      <c r="N51">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M51" t="s">
+      <c r="P51" t="s">
         <v>272</v>
       </c>
-      <c r="N51" t="s">
+      <c r="Q51" t="s">
         <v>660</v>
       </c>
-      <c r="O51" t="s">
+      <c r="R51" t="s">
         <v>661</v>
       </c>
-      <c r="P51">
-        <v>1</v>
-      </c>
-      <c r="Q51" t="s">
+      <c r="S51">
+        <v>1</v>
+      </c>
+      <c r="T51" t="s">
         <v>662</v>
       </c>
-      <c r="R51" t="s">
+      <c r="U51" t="s">
         <v>663</v>
-      </c>
-      <c r="S51">
-        <v>0</v>
       </c>
       <c r="V51">
         <v>0</v>
       </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>131</v>
       </c>
@@ -8830,24 +9446,27 @@
         <v>0.79239034652709961</v>
       </c>
       <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52" t="s">
+        <v>968</v>
+      </c>
+      <c r="L52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K52">
+      <c r="N52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M52" t="s">
+      <c r="P52" t="s">
         <v>273</v>
       </c>
-      <c r="N52" t="s">
+      <c r="Q52" t="s">
         <v>273</v>
       </c>
-      <c r="O52" t="s">
+      <c r="R52" t="s">
         <v>664</v>
-      </c>
-      <c r="P52">
-        <v>0</v>
       </c>
       <c r="S52">
         <v>0</v>
@@ -8855,8 +9474,11 @@
       <c r="V52">
         <v>0</v>
       </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>133</v>
       </c>
@@ -8876,45 +9498,51 @@
         <v>0.8691256046295166</v>
       </c>
       <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53" t="s">
+        <v>969</v>
+      </c>
+      <c r="L53">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K53">
+      <c r="N53">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M53" t="s">
+      <c r="P53" t="s">
         <v>135</v>
       </c>
-      <c r="N53" t="s">
+      <c r="Q53" t="s">
         <v>665</v>
       </c>
-      <c r="O53" t="s">
+      <c r="R53" t="s">
         <v>666</v>
       </c>
-      <c r="P53">
-        <v>1</v>
-      </c>
-      <c r="Q53" t="s">
+      <c r="S53">
+        <v>1</v>
+      </c>
+      <c r="T53" t="s">
         <v>667</v>
       </c>
-      <c r="R53" t="s">
+      <c r="U53" t="s">
         <v>668</v>
       </c>
-      <c r="S53">
-        <v>1</v>
-      </c>
-      <c r="T53" t="s">
+      <c r="V53">
+        <v>1</v>
+      </c>
+      <c r="W53" t="s">
         <v>669</v>
       </c>
-      <c r="U53" t="s">
+      <c r="X53" t="s">
         <v>670</v>
       </c>
-      <c r="V53">
+      <c r="Y53">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>136</v>
       </c>
@@ -8934,45 +9562,51 @@
         <v>0.88935232162475586</v>
       </c>
       <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54" t="s">
+        <v>970</v>
+      </c>
+      <c r="L54">
         <f t="shared" si="0"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="K54">
+      <c r="N54">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M54" t="s">
+      <c r="P54" t="s">
         <v>138</v>
       </c>
-      <c r="N54" t="s">
+      <c r="Q54" t="s">
         <v>671</v>
       </c>
-      <c r="O54" t="s">
+      <c r="R54" t="s">
         <v>672</v>
       </c>
-      <c r="P54">
-        <v>1</v>
-      </c>
-      <c r="Q54" t="s">
+      <c r="S54">
+        <v>1</v>
+      </c>
+      <c r="T54" t="s">
         <v>673</v>
       </c>
-      <c r="R54" t="s">
+      <c r="U54" t="s">
         <v>674</v>
       </c>
-      <c r="S54">
-        <v>1</v>
-      </c>
-      <c r="T54" t="s">
+      <c r="V54">
+        <v>1</v>
+      </c>
+      <c r="W54" t="s">
         <v>675</v>
       </c>
-      <c r="U54" t="s">
+      <c r="X54" t="s">
         <v>676</v>
       </c>
-      <c r="V54">
+      <c r="Y54">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>139</v>
       </c>
@@ -8992,45 +9626,51 @@
         <v>0.88230764865875244</v>
       </c>
       <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55" t="s">
+        <v>971</v>
+      </c>
+      <c r="L55">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K55">
+      <c r="N55">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M55" t="s">
+      <c r="P55" t="s">
         <v>141</v>
       </c>
-      <c r="N55" t="s">
+      <c r="Q55" t="s">
         <v>677</v>
       </c>
-      <c r="O55" t="s">
+      <c r="R55" t="s">
         <v>678</v>
       </c>
-      <c r="P55">
-        <v>1</v>
-      </c>
-      <c r="Q55" t="s">
+      <c r="S55">
+        <v>1</v>
+      </c>
+      <c r="T55" t="s">
         <v>679</v>
       </c>
-      <c r="R55" t="s">
+      <c r="U55" t="s">
         <v>680</v>
       </c>
-      <c r="S55">
-        <v>1</v>
-      </c>
-      <c r="T55" t="s">
+      <c r="V55">
+        <v>1</v>
+      </c>
+      <c r="W55" t="s">
         <v>681</v>
       </c>
-      <c r="U55" t="s">
+      <c r="X55" t="s">
         <v>682</v>
       </c>
-      <c r="V55">
+      <c r="Y55">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>142</v>
       </c>
@@ -9050,45 +9690,51 @@
         <v>0.77478963136672974</v>
       </c>
       <c r="I56">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J56" t="s">
+        <v>972</v>
+      </c>
+      <c r="L56">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K56">
+      <c r="N56">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M56" t="s">
+      <c r="P56" t="s">
         <v>144</v>
       </c>
-      <c r="N56" t="s">
+      <c r="Q56" t="s">
         <v>683</v>
       </c>
-      <c r="O56" t="s">
+      <c r="R56" t="s">
         <v>684</v>
       </c>
-      <c r="P56">
-        <v>1</v>
-      </c>
-      <c r="Q56" t="s">
+      <c r="S56">
+        <v>1</v>
+      </c>
+      <c r="T56" t="s">
         <v>685</v>
       </c>
-      <c r="R56" t="s">
+      <c r="U56" t="s">
         <v>686</v>
       </c>
-      <c r="S56">
-        <v>1</v>
-      </c>
-      <c r="T56" t="s">
+      <c r="V56">
+        <v>1</v>
+      </c>
+      <c r="W56" t="s">
         <v>687</v>
       </c>
-      <c r="U56" t="s">
+      <c r="X56" t="s">
         <v>674</v>
       </c>
-      <c r="V56">
+      <c r="Y56">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>145</v>
       </c>
@@ -9108,39 +9754,45 @@
         <v>0.90900337696075439</v>
       </c>
       <c r="I57">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="J57" t="s">
+        <v>973</v>
+      </c>
+      <c r="L57">
         <f t="shared" si="0"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="K57">
+      <c r="N57">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M57" t="s">
+      <c r="P57" t="s">
         <v>274</v>
       </c>
-      <c r="N57" t="s">
+      <c r="Q57" t="s">
         <v>688</v>
       </c>
-      <c r="O57" t="s">
+      <c r="R57" t="s">
         <v>689</v>
       </c>
-      <c r="P57">
-        <v>1</v>
-      </c>
-      <c r="Q57" t="s">
+      <c r="S57">
+        <v>1</v>
+      </c>
+      <c r="T57" t="s">
         <v>690</v>
       </c>
-      <c r="R57" t="s">
+      <c r="U57" t="s">
         <v>691</v>
       </c>
-      <c r="S57">
-        <v>1</v>
-      </c>
       <c r="V57">
+        <v>1</v>
+      </c>
+      <c r="Y57">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>147</v>
       </c>
@@ -9160,33 +9812,39 @@
         <v>0.85982757806777954</v>
       </c>
       <c r="I58">
+        <v>0.38461538461538458</v>
+      </c>
+      <c r="J58" t="s">
+        <v>974</v>
+      </c>
+      <c r="L58">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="K58">
+      <c r="N58">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M58" t="s">
+      <c r="P58" t="s">
         <v>275</v>
       </c>
-      <c r="N58" t="s">
+      <c r="Q58" t="s">
         <v>275</v>
       </c>
-      <c r="O58" t="s">
+      <c r="R58" t="s">
         <v>692</v>
       </c>
-      <c r="P58">
-        <v>1</v>
-      </c>
       <c r="S58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V58">
         <v>0</v>
       </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>149</v>
       </c>
@@ -9206,33 +9864,39 @@
         <v>0.85556644201278687</v>
       </c>
       <c r="I59">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="J59" t="s">
+        <v>975</v>
+      </c>
+      <c r="L59">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="K59">
+      <c r="N59">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M59" t="s">
+      <c r="P59" t="s">
         <v>276</v>
       </c>
-      <c r="N59" t="s">
+      <c r="Q59" t="s">
         <v>276</v>
       </c>
-      <c r="O59" t="s">
+      <c r="R59" t="s">
         <v>693</v>
       </c>
-      <c r="P59">
-        <v>1</v>
-      </c>
       <c r="S59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V59">
         <v>0</v>
       </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>151</v>
       </c>
@@ -9252,39 +9916,45 @@
         <v>0.86676418781280518</v>
       </c>
       <c r="I60">
+        <v>1</v>
+      </c>
+      <c r="J60" t="s">
+        <v>976</v>
+      </c>
+      <c r="L60">
         <f t="shared" si="0"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="K60">
+      <c r="N60">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M60" t="s">
+      <c r="P60" t="s">
         <v>277</v>
       </c>
-      <c r="N60" t="s">
+      <c r="Q60" t="s">
         <v>694</v>
       </c>
-      <c r="O60" t="s">
+      <c r="R60" t="s">
         <v>695</v>
       </c>
-      <c r="P60">
-        <v>1</v>
-      </c>
-      <c r="Q60" t="s">
+      <c r="S60">
+        <v>1</v>
+      </c>
+      <c r="T60" t="s">
         <v>696</v>
       </c>
-      <c r="R60" t="s">
+      <c r="U60" t="s">
         <v>697</v>
       </c>
-      <c r="S60">
-        <v>1</v>
-      </c>
       <c r="V60">
+        <v>1</v>
+      </c>
+      <c r="Y60">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>153</v>
       </c>
@@ -9304,45 +9974,51 @@
         <v>0.85289669036865234</v>
       </c>
       <c r="I61">
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="J61" t="s">
+        <v>977</v>
+      </c>
+      <c r="L61">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K61">
+      <c r="N61">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M61" t="s">
+      <c r="P61" t="s">
         <v>155</v>
       </c>
-      <c r="N61" t="s">
+      <c r="Q61" t="s">
         <v>698</v>
       </c>
-      <c r="O61" t="s">
+      <c r="R61" t="s">
         <v>699</v>
       </c>
-      <c r="P61">
-        <v>1</v>
-      </c>
-      <c r="Q61" t="s">
+      <c r="S61">
+        <v>1</v>
+      </c>
+      <c r="T61" t="s">
         <v>700</v>
       </c>
-      <c r="R61" t="s">
+      <c r="U61" t="s">
         <v>701</v>
       </c>
-      <c r="S61">
-        <v>1</v>
-      </c>
-      <c r="T61" t="s">
+      <c r="V61">
+        <v>1</v>
+      </c>
+      <c r="W61" t="s">
         <v>702</v>
       </c>
-      <c r="U61" t="s">
+      <c r="X61" t="s">
         <v>703</v>
       </c>
-      <c r="V61">
+      <c r="Y61">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>156</v>
       </c>
@@ -9362,45 +10038,51 @@
         <v>0.86241680383682251</v>
       </c>
       <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="J62" t="s">
+        <v>978</v>
+      </c>
+      <c r="L62">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K62">
+      <c r="N62">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M62" t="s">
+      <c r="P62" t="s">
         <v>158</v>
       </c>
-      <c r="N62" t="s">
+      <c r="Q62" t="s">
         <v>704</v>
       </c>
-      <c r="O62" t="s">
+      <c r="R62" t="s">
         <v>705</v>
       </c>
-      <c r="P62">
-        <v>1</v>
-      </c>
-      <c r="Q62" t="s">
+      <c r="S62">
+        <v>1</v>
+      </c>
+      <c r="T62" t="s">
         <v>706</v>
       </c>
-      <c r="R62" t="s">
+      <c r="U62" t="s">
         <v>707</v>
       </c>
-      <c r="S62">
-        <v>1</v>
-      </c>
-      <c r="T62" t="s">
+      <c r="V62">
+        <v>1</v>
+      </c>
+      <c r="W62" t="s">
         <v>708</v>
       </c>
-      <c r="U62" t="s">
+      <c r="X62" t="s">
         <v>709</v>
       </c>
-      <c r="V62">
+      <c r="Y62">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>159</v>
       </c>
@@ -9420,45 +10102,51 @@
         <v>0.77527999877929688</v>
       </c>
       <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63" t="s">
+        <v>979</v>
+      </c>
+      <c r="L63">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K63">
+      <c r="N63">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M63" t="s">
+      <c r="P63" t="s">
         <v>161</v>
       </c>
-      <c r="N63" t="s">
+      <c r="Q63" t="s">
         <v>710</v>
       </c>
-      <c r="O63" t="s">
+      <c r="R63" t="s">
         <v>711</v>
       </c>
-      <c r="P63">
-        <v>1</v>
-      </c>
-      <c r="Q63" t="s">
+      <c r="S63">
+        <v>1</v>
+      </c>
+      <c r="T63" t="s">
         <v>712</v>
       </c>
-      <c r="R63" t="s">
+      <c r="U63" t="s">
         <v>414</v>
       </c>
-      <c r="S63">
-        <v>1</v>
-      </c>
-      <c r="T63" t="s">
+      <c r="V63">
+        <v>1</v>
+      </c>
+      <c r="W63" t="s">
         <v>713</v>
       </c>
-      <c r="U63" t="s">
+      <c r="X63" t="s">
         <v>714</v>
       </c>
-      <c r="V63">
+      <c r="Y63">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>162</v>
       </c>
@@ -9478,45 +10166,51 @@
         <v>0.8583834171295166</v>
       </c>
       <c r="I64">
+        <v>0.4</v>
+      </c>
+      <c r="J64" t="s">
+        <v>980</v>
+      </c>
+      <c r="L64">
         <f t="shared" si="0"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="K64">
+      <c r="N64">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M64" t="s">
+      <c r="P64" t="s">
         <v>278</v>
       </c>
-      <c r="N64" t="s">
+      <c r="Q64" t="s">
         <v>715</v>
       </c>
-      <c r="O64" t="s">
+      <c r="R64" t="s">
         <v>462</v>
       </c>
-      <c r="P64">
-        <v>1</v>
-      </c>
-      <c r="Q64" t="s">
+      <c r="S64">
+        <v>1</v>
+      </c>
+      <c r="T64" t="s">
         <v>716</v>
       </c>
-      <c r="R64" t="s">
+      <c r="U64" t="s">
         <v>717</v>
       </c>
-      <c r="S64">
-        <v>1</v>
-      </c>
-      <c r="T64" t="s">
+      <c r="V64">
+        <v>1</v>
+      </c>
+      <c r="W64" t="s">
         <v>718</v>
       </c>
-      <c r="U64" t="s">
+      <c r="X64" t="s">
         <v>719</v>
       </c>
-      <c r="V64">
+      <c r="Y64">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>164</v>
       </c>
@@ -9536,45 +10230,51 @@
         <v>0.85757523775100708</v>
       </c>
       <c r="I65">
+        <v>1</v>
+      </c>
+      <c r="J65" t="s">
+        <v>981</v>
+      </c>
+      <c r="L65">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K65">
+      <c r="N65">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M65" t="s">
+      <c r="P65" t="s">
         <v>166</v>
       </c>
-      <c r="N65" t="s">
+      <c r="Q65" t="s">
         <v>720</v>
       </c>
-      <c r="O65" t="s">
+      <c r="R65" t="s">
         <v>721</v>
       </c>
-      <c r="P65">
-        <v>1</v>
-      </c>
-      <c r="Q65" t="s">
+      <c r="S65">
+        <v>1</v>
+      </c>
+      <c r="T65" t="s">
         <v>722</v>
       </c>
-      <c r="R65" t="s">
+      <c r="U65" t="s">
         <v>723</v>
       </c>
-      <c r="S65">
-        <v>1</v>
-      </c>
-      <c r="T65" t="s">
+      <c r="V65">
+        <v>1</v>
+      </c>
+      <c r="W65" t="s">
         <v>724</v>
       </c>
-      <c r="U65" t="s">
+      <c r="X65" t="s">
         <v>620</v>
       </c>
-      <c r="V65">
+      <c r="Y65">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>167</v>
       </c>
@@ -9594,45 +10294,51 @@
         <v>0.8143538236618042</v>
       </c>
       <c r="I66">
+        <v>0.9</v>
+      </c>
+      <c r="J66" t="s">
+        <v>982</v>
+      </c>
+      <c r="L66">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K66">
+      <c r="N66">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M66" t="s">
+      <c r="P66" t="s">
         <v>169</v>
       </c>
-      <c r="N66" t="s">
+      <c r="Q66" t="s">
         <v>725</v>
       </c>
-      <c r="O66" t="s">
+      <c r="R66" t="s">
         <v>726</v>
       </c>
-      <c r="P66">
-        <v>1</v>
-      </c>
-      <c r="Q66" t="s">
+      <c r="S66">
+        <v>1</v>
+      </c>
+      <c r="T66" t="s">
         <v>727</v>
       </c>
-      <c r="R66" t="s">
+      <c r="U66" t="s">
         <v>728</v>
       </c>
-      <c r="S66">
-        <v>1</v>
-      </c>
-      <c r="T66" t="s">
+      <c r="V66">
+        <v>1</v>
+      </c>
+      <c r="W66" t="s">
         <v>729</v>
       </c>
-      <c r="U66" t="s">
+      <c r="X66" t="s">
         <v>730</v>
       </c>
-      <c r="V66">
+      <c r="Y66">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>170</v>
       </c>
@@ -9652,45 +10358,51 @@
         <v>0.85489100217819214</v>
       </c>
       <c r="I67">
-        <f t="shared" ref="I67:I101" si="2">SUM(P67, S67,V67)/3</f>
+        <v>0.5</v>
+      </c>
+      <c r="J67" t="s">
+        <v>983</v>
+      </c>
+      <c r="L67">
+        <f t="shared" ref="L67:L101" si="2">SUM(S67, V67,Y67)/3</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="K67">
-        <f t="shared" ref="K67:K101" si="3">IF(SUM(P67,S67,V67)&gt;=1, 1, 0)</f>
-        <v>1</v>
-      </c>
-      <c r="M67" t="s">
+      <c r="N67">
+        <f t="shared" ref="N67:N101" si="3">IF(SUM(S67,V67,Y67)&gt;=1, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="P67" t="s">
         <v>279</v>
       </c>
-      <c r="N67" t="s">
+      <c r="Q67" t="s">
         <v>731</v>
       </c>
-      <c r="O67" t="s">
+      <c r="R67" t="s">
         <v>732</v>
       </c>
-      <c r="P67">
-        <v>1</v>
-      </c>
-      <c r="Q67" t="s">
+      <c r="S67">
+        <v>1</v>
+      </c>
+      <c r="T67" t="s">
         <v>733</v>
       </c>
-      <c r="R67" t="s">
+      <c r="U67" t="s">
         <v>734</v>
       </c>
-      <c r="S67">
-        <v>1</v>
-      </c>
-      <c r="T67" t="s">
+      <c r="V67">
+        <v>1</v>
+      </c>
+      <c r="W67" t="s">
         <v>735</v>
       </c>
-      <c r="U67" t="s">
+      <c r="X67" t="s">
         <v>736</v>
       </c>
-      <c r="V67">
+      <c r="Y67">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>172</v>
       </c>
@@ -9710,45 +10422,51 @@
         <v>0.82849973440170288</v>
       </c>
       <c r="I68">
+        <v>0.8</v>
+      </c>
+      <c r="J68" t="s">
+        <v>984</v>
+      </c>
+      <c r="L68">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K68">
+      <c r="N68">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="M68" t="s">
+      <c r="P68" t="s">
         <v>174</v>
       </c>
-      <c r="N68" t="s">
+      <c r="Q68" t="s">
         <v>737</v>
       </c>
-      <c r="O68" t="s">
+      <c r="R68" t="s">
         <v>738</v>
       </c>
-      <c r="P68">
-        <v>1</v>
-      </c>
-      <c r="Q68" t="s">
+      <c r="S68">
+        <v>1</v>
+      </c>
+      <c r="T68" t="s">
         <v>739</v>
       </c>
-      <c r="R68" t="s">
+      <c r="U68" t="s">
         <v>740</v>
       </c>
-      <c r="S68">
-        <v>1</v>
-      </c>
-      <c r="T68" t="s">
+      <c r="V68">
+        <v>1</v>
+      </c>
+      <c r="W68" t="s">
         <v>741</v>
       </c>
-      <c r="U68" t="s">
+      <c r="X68" t="s">
         <v>742</v>
       </c>
-      <c r="V68">
+      <c r="Y68">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>175</v>
       </c>
@@ -9768,45 +10486,51 @@
         <v>0.82160580158233643</v>
       </c>
       <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="J69" t="s">
+        <v>985</v>
+      </c>
+      <c r="L69">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K69">
+      <c r="N69">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="M69" t="s">
+      <c r="P69" t="s">
         <v>177</v>
       </c>
-      <c r="N69" t="s">
+      <c r="Q69" t="s">
         <v>743</v>
       </c>
-      <c r="O69" t="s">
+      <c r="R69" t="s">
         <v>744</v>
       </c>
-      <c r="P69">
-        <v>1</v>
-      </c>
-      <c r="Q69" t="s">
+      <c r="S69">
+        <v>1</v>
+      </c>
+      <c r="T69" t="s">
         <v>745</v>
       </c>
-      <c r="R69" t="s">
+      <c r="U69" t="s">
         <v>695</v>
       </c>
-      <c r="S69">
-        <v>1</v>
-      </c>
-      <c r="T69" t="s">
+      <c r="V69">
+        <v>1</v>
+      </c>
+      <c r="W69" t="s">
         <v>746</v>
       </c>
-      <c r="U69" t="s">
+      <c r="X69" t="s">
         <v>747</v>
       </c>
-      <c r="V69">
+      <c r="Y69">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>178</v>
       </c>
@@ -9826,45 +10550,51 @@
         <v>0.8526192307472229</v>
       </c>
       <c r="I70">
+        <v>1</v>
+      </c>
+      <c r="J70" t="s">
+        <v>986</v>
+      </c>
+      <c r="L70">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K70">
+      <c r="N70">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="M70" t="s">
+      <c r="P70" t="s">
         <v>280</v>
       </c>
-      <c r="N70" t="s">
+      <c r="Q70" t="s">
         <v>748</v>
       </c>
-      <c r="O70" t="s">
+      <c r="R70" t="s">
         <v>749</v>
       </c>
-      <c r="P70">
-        <v>1</v>
-      </c>
-      <c r="Q70" t="s">
+      <c r="S70">
+        <v>1</v>
+      </c>
+      <c r="T70" t="s">
         <v>750</v>
       </c>
-      <c r="R70" t="s">
+      <c r="U70" t="s">
         <v>686</v>
       </c>
-      <c r="S70">
-        <v>1</v>
-      </c>
-      <c r="T70" t="s">
+      <c r="V70">
+        <v>1</v>
+      </c>
+      <c r="W70" t="s">
         <v>751</v>
       </c>
-      <c r="U70" t="s">
+      <c r="X70" t="s">
         <v>752</v>
       </c>
-      <c r="V70">
+      <c r="Y70">
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>180</v>
       </c>
@@ -9884,45 +10614,51 @@
         <v>0.87322878837585449</v>
       </c>
       <c r="I71">
+        <v>0.5</v>
+      </c>
+      <c r="J71" t="s">
+        <v>987</v>
+      </c>
+      <c r="L71">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K71">
+      <c r="N71">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="M71" t="s">
+      <c r="P71" t="s">
         <v>281</v>
       </c>
-      <c r="N71" t="s">
+      <c r="Q71" t="s">
         <v>753</v>
       </c>
-      <c r="O71" t="s">
+      <c r="R71" t="s">
         <v>754</v>
       </c>
-      <c r="P71">
-        <v>1</v>
-      </c>
-      <c r="Q71" t="s">
+      <c r="S71">
+        <v>1</v>
+      </c>
+      <c r="T71" t="s">
         <v>755</v>
       </c>
-      <c r="R71" t="s">
+      <c r="U71" t="s">
         <v>756</v>
       </c>
-      <c r="S71">
-        <v>1</v>
-      </c>
-      <c r="T71" t="s">
+      <c r="V71">
+        <v>1</v>
+      </c>
+      <c r="W71" t="s">
         <v>757</v>
       </c>
-      <c r="U71" t="s">
+      <c r="X71" t="s">
         <v>758</v>
       </c>
-      <c r="V71">
+      <c r="Y71">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>182</v>
       </c>
@@ -9942,45 +10678,51 @@
         <v>0.84848421812057495</v>
       </c>
       <c r="I72">
+        <v>0.8</v>
+      </c>
+      <c r="J72" t="s">
+        <v>988</v>
+      </c>
+      <c r="L72">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K72">
+      <c r="N72">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="M72" t="s">
+      <c r="P72" t="s">
         <v>282</v>
       </c>
-      <c r="N72" t="s">
+      <c r="Q72" t="s">
         <v>759</v>
       </c>
-      <c r="O72" t="s">
+      <c r="R72" t="s">
         <v>760</v>
       </c>
-      <c r="P72">
-        <v>1</v>
-      </c>
-      <c r="Q72" t="s">
+      <c r="S72">
+        <v>1</v>
+      </c>
+      <c r="T72" t="s">
         <v>761</v>
       </c>
-      <c r="R72" t="s">
+      <c r="U72" t="s">
         <v>762</v>
       </c>
-      <c r="S72">
-        <v>1</v>
-      </c>
-      <c r="T72" t="s">
+      <c r="V72">
+        <v>1</v>
+      </c>
+      <c r="W72" t="s">
         <v>763</v>
       </c>
-      <c r="U72" t="s">
+      <c r="X72" t="s">
         <v>764</v>
       </c>
-      <c r="V72">
+      <c r="Y72">
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>184</v>
       </c>
@@ -10000,39 +10742,45 @@
         <v>0.8440433144569397</v>
       </c>
       <c r="I73">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="J73" t="s">
+        <v>989</v>
+      </c>
+      <c r="L73">
         <f t="shared" si="2"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="K73">
+      <c r="N73">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="M73" t="s">
+      <c r="P73" t="s">
         <v>283</v>
       </c>
-      <c r="N73" t="s">
+      <c r="Q73" t="s">
         <v>765</v>
       </c>
-      <c r="O73" t="s">
+      <c r="R73" t="s">
         <v>766</v>
       </c>
-      <c r="P73">
-        <v>1</v>
-      </c>
-      <c r="Q73" t="s">
+      <c r="S73">
+        <v>1</v>
+      </c>
+      <c r="T73" t="s">
         <v>767</v>
       </c>
-      <c r="R73" t="s">
+      <c r="U73" t="s">
         <v>768</v>
       </c>
-      <c r="S73">
-        <v>1</v>
-      </c>
       <c r="V73">
+        <v>1</v>
+      </c>
+      <c r="Y73">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>186</v>
       </c>
@@ -10052,45 +10800,51 @@
         <v>0.8537558913230896</v>
       </c>
       <c r="I74">
+        <v>0.9375</v>
+      </c>
+      <c r="J74" t="s">
+        <v>990</v>
+      </c>
+      <c r="L74">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K74">
+      <c r="N74">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="M74" t="s">
+      <c r="P74" t="s">
         <v>188</v>
       </c>
-      <c r="N74" t="s">
+      <c r="Q74" t="s">
         <v>769</v>
       </c>
-      <c r="O74" t="s">
+      <c r="R74" t="s">
         <v>420</v>
       </c>
-      <c r="P74">
-        <v>1</v>
-      </c>
-      <c r="Q74" t="s">
+      <c r="S74">
+        <v>1</v>
+      </c>
+      <c r="T74" t="s">
         <v>770</v>
       </c>
-      <c r="R74" t="s">
+      <c r="U74" t="s">
         <v>771</v>
       </c>
-      <c r="S74">
-        <v>1</v>
-      </c>
-      <c r="T74" t="s">
+      <c r="V74">
+        <v>1</v>
+      </c>
+      <c r="W74" t="s">
         <v>772</v>
       </c>
-      <c r="U74" t="s">
+      <c r="X74" t="s">
         <v>773</v>
       </c>
-      <c r="V74">
+      <c r="Y74">
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>189</v>
       </c>
@@ -10110,45 +10864,51 @@
         <v>0.85909229516983032</v>
       </c>
       <c r="I75">
+        <v>1</v>
+      </c>
+      <c r="J75" t="s">
+        <v>991</v>
+      </c>
+      <c r="L75">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K75">
+      <c r="N75">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="M75" t="s">
+      <c r="P75" t="s">
         <v>191</v>
       </c>
-      <c r="N75" t="s">
+      <c r="Q75" t="s">
         <v>774</v>
       </c>
-      <c r="O75" t="s">
+      <c r="R75" t="s">
         <v>775</v>
       </c>
-      <c r="P75">
-        <v>1</v>
-      </c>
-      <c r="Q75" t="s">
+      <c r="S75">
+        <v>1</v>
+      </c>
+      <c r="T75" t="s">
         <v>776</v>
       </c>
-      <c r="R75" t="s">
+      <c r="U75" t="s">
         <v>777</v>
       </c>
-      <c r="S75">
-        <v>1</v>
-      </c>
-      <c r="T75" t="s">
+      <c r="V75">
+        <v>1</v>
+      </c>
+      <c r="W75" t="s">
         <v>778</v>
       </c>
-      <c r="U75" t="s">
+      <c r="X75" t="s">
         <v>779</v>
       </c>
-      <c r="V75">
+      <c r="Y75">
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>192</v>
       </c>
@@ -10168,45 +10928,51 @@
         <v>0.84168165922164917</v>
       </c>
       <c r="I76">
+        <v>1</v>
+      </c>
+      <c r="J76" t="s">
+        <v>992</v>
+      </c>
+      <c r="L76">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K76">
+      <c r="N76">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="M76" t="s">
+      <c r="P76" t="s">
         <v>284</v>
       </c>
-      <c r="N76" t="s">
+      <c r="Q76" t="s">
         <v>780</v>
       </c>
-      <c r="O76" t="s">
+      <c r="R76" t="s">
         <v>781</v>
       </c>
-      <c r="P76">
-        <v>1</v>
-      </c>
-      <c r="Q76" t="s">
+      <c r="S76">
+        <v>1</v>
+      </c>
+      <c r="T76" t="s">
         <v>782</v>
       </c>
-      <c r="R76" t="s">
+      <c r="U76" t="s">
         <v>783</v>
       </c>
-      <c r="S76">
-        <v>1</v>
-      </c>
-      <c r="T76" t="s">
+      <c r="V76">
+        <v>1</v>
+      </c>
+      <c r="W76" t="s">
         <v>784</v>
       </c>
-      <c r="U76" t="s">
+      <c r="X76" t="s">
         <v>785</v>
       </c>
-      <c r="V76">
+      <c r="Y76">
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>194</v>
       </c>
@@ -10226,45 +10992,51 @@
         <v>0.86570101976394653</v>
       </c>
       <c r="I77">
+        <v>0.8</v>
+      </c>
+      <c r="J77" t="s">
+        <v>993</v>
+      </c>
+      <c r="L77">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K77">
+      <c r="N77">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="M77" t="s">
+      <c r="P77" t="s">
         <v>196</v>
       </c>
-      <c r="N77" t="s">
+      <c r="Q77" t="s">
         <v>786</v>
       </c>
-      <c r="O77" t="s">
+      <c r="R77" t="s">
         <v>787</v>
       </c>
-      <c r="P77">
-        <v>1</v>
-      </c>
-      <c r="Q77" t="s">
+      <c r="S77">
+        <v>1</v>
+      </c>
+      <c r="T77" t="s">
         <v>788</v>
       </c>
-      <c r="R77" t="s">
+      <c r="U77" t="s">
         <v>789</v>
       </c>
-      <c r="S77">
-        <v>1</v>
-      </c>
-      <c r="T77" t="s">
+      <c r="V77">
+        <v>1</v>
+      </c>
+      <c r="W77" t="s">
         <v>790</v>
       </c>
-      <c r="U77" t="s">
+      <c r="X77" t="s">
         <v>791</v>
       </c>
-      <c r="V77">
+      <c r="Y77">
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>197</v>
       </c>
@@ -10284,33 +11056,39 @@
         <v>0.88421231508255005</v>
       </c>
       <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78" t="s">
+        <v>994</v>
+      </c>
+      <c r="L78">
         <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="K78">
+      <c r="N78">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="M78" t="s">
+      <c r="P78" t="s">
         <v>285</v>
       </c>
-      <c r="N78" t="s">
+      <c r="Q78" t="s">
         <v>285</v>
       </c>
-      <c r="O78" t="s">
+      <c r="R78" t="s">
         <v>792</v>
       </c>
-      <c r="P78">
-        <v>1</v>
-      </c>
       <c r="S78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V78">
         <v>0</v>
       </c>
+      <c r="Y78">
+        <v>0</v>
+      </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>199</v>
       </c>
@@ -10330,45 +11108,51 @@
         <v>0.85127931833267212</v>
       </c>
       <c r="I79">
+        <v>0.9</v>
+      </c>
+      <c r="J79" t="s">
+        <v>995</v>
+      </c>
+      <c r="L79">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K79">
+      <c r="N79">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="M79" t="s">
+      <c r="P79" t="s">
         <v>201</v>
       </c>
-      <c r="N79" t="s">
+      <c r="Q79" t="s">
         <v>793</v>
       </c>
-      <c r="O79" t="s">
+      <c r="R79" t="s">
         <v>794</v>
       </c>
-      <c r="P79">
-        <v>1</v>
-      </c>
-      <c r="Q79" t="s">
+      <c r="S79">
+        <v>1</v>
+      </c>
+      <c r="T79" t="s">
         <v>795</v>
       </c>
-      <c r="R79" t="s">
+      <c r="U79" t="s">
         <v>448</v>
       </c>
-      <c r="S79">
-        <v>1</v>
-      </c>
-      <c r="T79" t="s">
+      <c r="V79">
+        <v>1</v>
+      </c>
+      <c r="W79" t="s">
         <v>796</v>
       </c>
-      <c r="U79" t="s">
+      <c r="X79" t="s">
         <v>670</v>
       </c>
-      <c r="V79">
+      <c r="Y79">
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>202</v>
       </c>
@@ -10388,45 +11172,51 @@
         <v>0.86655455827713013</v>
       </c>
       <c r="I80">
+        <v>1</v>
+      </c>
+      <c r="J80" t="s">
+        <v>996</v>
+      </c>
+      <c r="L80">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K80">
+      <c r="N80">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="M80" t="s">
+      <c r="P80" t="s">
         <v>204</v>
       </c>
-      <c r="N80" t="s">
+      <c r="Q80" t="s">
         <v>797</v>
       </c>
-      <c r="O80" t="s">
+      <c r="R80" t="s">
         <v>798</v>
       </c>
-      <c r="P80">
-        <v>1</v>
-      </c>
-      <c r="Q80" t="s">
+      <c r="S80">
+        <v>1</v>
+      </c>
+      <c r="T80" t="s">
         <v>799</v>
       </c>
-      <c r="R80" t="s">
+      <c r="U80" t="s">
         <v>800</v>
       </c>
-      <c r="S80">
-        <v>1</v>
-      </c>
-      <c r="T80" t="s">
+      <c r="V80">
+        <v>1</v>
+      </c>
+      <c r="W80" t="s">
         <v>801</v>
       </c>
-      <c r="U80" t="s">
+      <c r="X80" t="s">
         <v>802</v>
       </c>
-      <c r="V80">
+      <c r="Y80">
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>205</v>
       </c>
@@ -10446,45 +11236,51 @@
         <v>0.87668251991271973</v>
       </c>
       <c r="I81">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="J81" t="s">
+        <v>997</v>
+      </c>
+      <c r="L81">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K81">
+      <c r="N81">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="M81" t="s">
+      <c r="P81" t="s">
         <v>207</v>
       </c>
-      <c r="N81" t="s">
+      <c r="Q81" t="s">
         <v>803</v>
       </c>
-      <c r="O81" t="s">
+      <c r="R81" t="s">
         <v>804</v>
       </c>
-      <c r="P81">
-        <v>1</v>
-      </c>
-      <c r="Q81" t="s">
+      <c r="S81">
+        <v>1</v>
+      </c>
+      <c r="T81" t="s">
         <v>805</v>
       </c>
-      <c r="R81" t="s">
+      <c r="U81" t="s">
         <v>806</v>
       </c>
-      <c r="S81">
-        <v>1</v>
-      </c>
-      <c r="T81" t="s">
+      <c r="V81">
+        <v>1</v>
+      </c>
+      <c r="W81" t="s">
         <v>807</v>
       </c>
-      <c r="U81" t="s">
+      <c r="X81" t="s">
         <v>808</v>
       </c>
-      <c r="V81">
+      <c r="Y81">
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>208</v>
       </c>
@@ -10504,45 +11300,51 @@
         <v>0.84368765354156494</v>
       </c>
       <c r="I82">
+        <v>0.75</v>
+      </c>
+      <c r="J82" t="s">
+        <v>998</v>
+      </c>
+      <c r="L82">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K82">
+      <c r="N82">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="M82" t="s">
+      <c r="P82" t="s">
         <v>286</v>
       </c>
-      <c r="N82" t="s">
+      <c r="Q82" t="s">
         <v>809</v>
       </c>
-      <c r="O82" t="s">
+      <c r="R82" t="s">
         <v>810</v>
       </c>
-      <c r="P82">
-        <v>1</v>
-      </c>
-      <c r="Q82" t="s">
+      <c r="S82">
+        <v>1</v>
+      </c>
+      <c r="T82" t="s">
         <v>811</v>
       </c>
-      <c r="R82" t="s">
+      <c r="U82" t="s">
         <v>812</v>
       </c>
-      <c r="S82">
-        <v>1</v>
-      </c>
-      <c r="T82" t="s">
+      <c r="V82">
+        <v>1</v>
+      </c>
+      <c r="W82" t="s">
         <v>813</v>
       </c>
-      <c r="U82" t="s">
+      <c r="X82" t="s">
         <v>814</v>
       </c>
-      <c r="V82">
+      <c r="Y82">
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>210</v>
       </c>
@@ -10562,33 +11364,39 @@
         <v>0.86471718549728394</v>
       </c>
       <c r="I83">
+        <v>0.3</v>
+      </c>
+      <c r="J83" t="s">
+        <v>999</v>
+      </c>
+      <c r="L83">
         <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="K83">
+      <c r="N83">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="M83" t="s">
+      <c r="P83" t="s">
         <v>287</v>
       </c>
-      <c r="N83" t="s">
+      <c r="Q83" t="s">
         <v>287</v>
       </c>
-      <c r="O83" t="s">
+      <c r="R83" t="s">
         <v>815</v>
       </c>
-      <c r="P83">
-        <v>1</v>
-      </c>
       <c r="S83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V83">
         <v>0</v>
       </c>
+      <c r="Y83">
+        <v>0</v>
+      </c>
     </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>212</v>
       </c>
@@ -10608,45 +11416,51 @@
         <v>0.83179247379302979</v>
       </c>
       <c r="I84">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="J84" t="s">
+        <v>1000</v>
+      </c>
+      <c r="L84">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K84">
+      <c r="N84">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="M84" t="s">
+      <c r="P84" t="s">
         <v>288</v>
       </c>
-      <c r="N84" t="s">
+      <c r="Q84" t="s">
         <v>816</v>
       </c>
-      <c r="O84" t="s">
+      <c r="R84" t="s">
         <v>817</v>
       </c>
-      <c r="P84">
-        <v>1</v>
-      </c>
-      <c r="Q84" t="s">
+      <c r="S84">
+        <v>1</v>
+      </c>
+      <c r="T84" t="s">
         <v>818</v>
       </c>
-      <c r="R84" t="s">
+      <c r="U84" t="s">
         <v>819</v>
       </c>
-      <c r="S84">
-        <v>1</v>
-      </c>
-      <c r="T84" t="s">
+      <c r="V84">
+        <v>1</v>
+      </c>
+      <c r="W84" t="s">
         <v>820</v>
       </c>
-      <c r="U84" t="s">
+      <c r="X84" t="s">
         <v>821</v>
       </c>
-      <c r="V84">
+      <c r="Y84">
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>214</v>
       </c>
@@ -10666,45 +11480,51 @@
         <v>0.8605046272277832</v>
       </c>
       <c r="I85">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="J85" t="s">
+        <v>1001</v>
+      </c>
+      <c r="L85">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K85">
+      <c r="N85">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="M85" t="s">
+      <c r="P85" t="s">
         <v>392</v>
       </c>
-      <c r="N85" t="s">
+      <c r="Q85" t="s">
         <v>822</v>
       </c>
-      <c r="O85" t="s">
+      <c r="R85" t="s">
         <v>823</v>
       </c>
-      <c r="P85">
-        <v>1</v>
-      </c>
-      <c r="Q85" t="s">
+      <c r="S85">
+        <v>1</v>
+      </c>
+      <c r="T85" t="s">
         <v>824</v>
       </c>
-      <c r="R85" t="s">
+      <c r="U85" t="s">
         <v>742</v>
       </c>
-      <c r="S85">
-        <v>1</v>
-      </c>
-      <c r="T85" t="s">
+      <c r="V85">
+        <v>1</v>
+      </c>
+      <c r="W85" t="s">
         <v>825</v>
       </c>
-      <c r="U85" t="s">
+      <c r="X85" t="s">
         <v>826</v>
       </c>
-      <c r="V85">
+      <c r="Y85">
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>216</v>
       </c>
@@ -10724,45 +11544,51 @@
         <v>0.76305079460144043</v>
       </c>
       <c r="I86">
+        <v>0.82608695652173914</v>
+      </c>
+      <c r="J86" t="s">
+        <v>1002</v>
+      </c>
+      <c r="L86">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K86">
+      <c r="N86">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="M86" t="s">
+      <c r="P86" t="s">
         <v>393</v>
       </c>
-      <c r="N86" t="s">
+      <c r="Q86" t="s">
         <v>827</v>
       </c>
-      <c r="O86" t="s">
+      <c r="R86" t="s">
         <v>828</v>
       </c>
-      <c r="P86">
-        <v>1</v>
-      </c>
-      <c r="Q86" t="s">
+      <c r="S86">
+        <v>1</v>
+      </c>
+      <c r="T86" t="s">
         <v>829</v>
       </c>
-      <c r="R86" t="s">
+      <c r="U86" t="s">
         <v>830</v>
       </c>
-      <c r="S86">
-        <v>1</v>
-      </c>
-      <c r="T86" t="s">
+      <c r="V86">
+        <v>1</v>
+      </c>
+      <c r="W86" t="s">
         <v>831</v>
       </c>
-      <c r="U86" t="s">
+      <c r="X86" t="s">
         <v>832</v>
       </c>
-      <c r="V86">
+      <c r="Y86">
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>218</v>
       </c>
@@ -10782,45 +11608,51 @@
         <v>0.79513853788375854</v>
       </c>
       <c r="I87">
+        <v>0.7</v>
+      </c>
+      <c r="J87" t="s">
+        <v>1003</v>
+      </c>
+      <c r="L87">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K87">
+      <c r="N87">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="M87" t="s">
+      <c r="P87" t="s">
         <v>394</v>
       </c>
-      <c r="N87" t="s">
+      <c r="Q87" t="s">
         <v>833</v>
       </c>
-      <c r="O87" t="s">
+      <c r="R87" t="s">
         <v>834</v>
       </c>
-      <c r="P87">
-        <v>1</v>
-      </c>
-      <c r="Q87" t="s">
+      <c r="S87">
+        <v>1</v>
+      </c>
+      <c r="T87" t="s">
         <v>835</v>
       </c>
-      <c r="R87" t="s">
+      <c r="U87" t="s">
         <v>836</v>
       </c>
-      <c r="S87">
-        <v>1</v>
-      </c>
-      <c r="T87" t="s">
+      <c r="V87">
+        <v>1</v>
+      </c>
+      <c r="W87" t="s">
         <v>837</v>
       </c>
-      <c r="U87" t="s">
+      <c r="X87" t="s">
         <v>838</v>
       </c>
-      <c r="V87">
+      <c r="Y87">
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>220</v>
       </c>
@@ -10840,45 +11672,51 @@
         <v>0.84854823350906372</v>
       </c>
       <c r="I88">
+        <v>1</v>
+      </c>
+      <c r="J88" t="s">
+        <v>1004</v>
+      </c>
+      <c r="L88">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K88">
+      <c r="N88">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="M88" t="s">
+      <c r="P88" t="s">
         <v>395</v>
       </c>
-      <c r="N88" t="s">
+      <c r="Q88" t="s">
         <v>839</v>
       </c>
-      <c r="O88" t="s">
+      <c r="R88" t="s">
         <v>840</v>
       </c>
-      <c r="P88">
-        <v>1</v>
-      </c>
-      <c r="Q88" t="s">
+      <c r="S88">
+        <v>1</v>
+      </c>
+      <c r="T88" t="s">
         <v>841</v>
       </c>
-      <c r="R88" t="s">
+      <c r="U88" t="s">
         <v>842</v>
       </c>
-      <c r="S88">
-        <v>1</v>
-      </c>
-      <c r="T88" t="s">
+      <c r="V88">
+        <v>1</v>
+      </c>
+      <c r="W88" t="s">
         <v>843</v>
       </c>
-      <c r="U88" t="s">
+      <c r="X88" t="s">
         <v>844</v>
       </c>
-      <c r="V88">
+      <c r="Y88">
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>225</v>
       </c>
@@ -10898,45 +11736,51 @@
         <v>0.87926316261291504</v>
       </c>
       <c r="I89">
+        <v>1</v>
+      </c>
+      <c r="J89" t="s">
+        <v>1005</v>
+      </c>
+      <c r="L89">
         <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="K89">
+      <c r="N89">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="M89" t="s">
+      <c r="P89" t="s">
         <v>396</v>
       </c>
-      <c r="N89" t="s">
+      <c r="Q89" t="s">
         <v>845</v>
       </c>
-      <c r="O89" t="s">
+      <c r="R89" t="s">
         <v>846</v>
-      </c>
-      <c r="P89">
-        <v>0</v>
-      </c>
-      <c r="Q89" t="s">
-        <v>847</v>
-      </c>
-      <c r="R89" t="s">
-        <v>848</v>
       </c>
       <c r="S89">
         <v>0</v>
       </c>
       <c r="T89" t="s">
+        <v>847</v>
+      </c>
+      <c r="U89" t="s">
+        <v>848</v>
+      </c>
+      <c r="V89">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s">
         <v>849</v>
       </c>
-      <c r="U89" t="s">
+      <c r="X89" t="s">
         <v>850</v>
       </c>
-      <c r="V89">
+      <c r="Y89">
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>223</v>
       </c>
@@ -10956,45 +11800,51 @@
         <v>0.83505058288574219</v>
       </c>
       <c r="I90">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="J90" t="s">
+        <v>1006</v>
+      </c>
+      <c r="L90">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K90">
+      <c r="N90">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="M90" t="s">
+      <c r="P90" t="s">
         <v>397</v>
       </c>
-      <c r="N90" t="s">
+      <c r="Q90" t="s">
         <v>851</v>
       </c>
-      <c r="O90" t="s">
+      <c r="R90" t="s">
         <v>852</v>
       </c>
-      <c r="P90">
-        <v>1</v>
-      </c>
-      <c r="Q90" t="s">
+      <c r="S90">
+        <v>1</v>
+      </c>
+      <c r="T90" t="s">
         <v>853</v>
       </c>
-      <c r="R90" t="s">
+      <c r="U90" t="s">
         <v>854</v>
       </c>
-      <c r="S90">
-        <v>1</v>
-      </c>
-      <c r="T90" t="s">
+      <c r="V90">
+        <v>1</v>
+      </c>
+      <c r="W90" t="s">
         <v>855</v>
       </c>
-      <c r="U90" t="s">
+      <c r="X90" t="s">
         <v>856</v>
       </c>
-      <c r="V90">
+      <c r="Y90">
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>245</v>
       </c>
@@ -11014,45 +11864,51 @@
         <v>0.82291531562805176</v>
       </c>
       <c r="I91">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="J91" t="s">
+        <v>1007</v>
+      </c>
+      <c r="L91">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K91">
+      <c r="N91">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="M91" t="s">
+      <c r="P91" t="s">
         <v>398</v>
       </c>
-      <c r="N91" t="s">
+      <c r="Q91" t="s">
         <v>857</v>
       </c>
-      <c r="O91" t="s">
+      <c r="R91" t="s">
         <v>858</v>
       </c>
-      <c r="P91">
-        <v>1</v>
-      </c>
-      <c r="Q91" t="s">
+      <c r="S91">
+        <v>1</v>
+      </c>
+      <c r="T91" t="s">
         <v>859</v>
       </c>
-      <c r="R91" t="s">
+      <c r="U91" t="s">
         <v>860</v>
       </c>
-      <c r="S91">
-        <v>1</v>
-      </c>
-      <c r="T91" t="s">
+      <c r="V91">
+        <v>1</v>
+      </c>
+      <c r="W91" t="s">
         <v>861</v>
       </c>
-      <c r="U91" t="s">
+      <c r="X91" t="s">
         <v>862</v>
       </c>
-      <c r="V91">
+      <c r="Y91">
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>243</v>
       </c>
@@ -11072,45 +11928,51 @@
         <v>0.85374307632446289</v>
       </c>
       <c r="I92">
+        <v>1</v>
+      </c>
+      <c r="J92" t="s">
+        <v>1008</v>
+      </c>
+      <c r="L92">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K92">
+      <c r="N92">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="M92" t="s">
+      <c r="P92" t="s">
         <v>399</v>
       </c>
-      <c r="N92" t="s">
+      <c r="Q92" t="s">
         <v>863</v>
       </c>
-      <c r="O92" t="s">
+      <c r="R92" t="s">
         <v>864</v>
       </c>
-      <c r="P92">
-        <v>1</v>
-      </c>
-      <c r="Q92" t="s">
+      <c r="S92">
+        <v>1</v>
+      </c>
+      <c r="T92" t="s">
         <v>865</v>
       </c>
-      <c r="R92" t="s">
+      <c r="U92" t="s">
         <v>866</v>
       </c>
-      <c r="S92">
-        <v>1</v>
-      </c>
-      <c r="T92" t="s">
+      <c r="V92">
+        <v>1</v>
+      </c>
+      <c r="W92" t="s">
         <v>867</v>
       </c>
-      <c r="U92" t="s">
+      <c r="X92" t="s">
         <v>868</v>
       </c>
-      <c r="V92">
+      <c r="Y92">
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>241</v>
       </c>
@@ -11130,33 +11992,39 @@
         <v>0.8832736611366272</v>
       </c>
       <c r="I93">
+        <v>0.16666666666666671</v>
+      </c>
+      <c r="J93" t="s">
+        <v>1009</v>
+      </c>
+      <c r="L93">
         <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="K93">
+      <c r="N93">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="M93" t="s">
+      <c r="P93" t="s">
         <v>400</v>
       </c>
-      <c r="N93" t="s">
+      <c r="Q93" t="s">
         <v>400</v>
       </c>
-      <c r="O93" t="s">
+      <c r="R93" t="s">
         <v>869</v>
       </c>
-      <c r="P93">
-        <v>1</v>
-      </c>
       <c r="S93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V93">
         <v>0</v>
       </c>
+      <c r="Y93">
+        <v>0</v>
+      </c>
     </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>239</v>
       </c>
@@ -11176,45 +12044,51 @@
         <v>0.84893238544464111</v>
       </c>
       <c r="I94">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="J94" t="s">
+        <v>1010</v>
+      </c>
+      <c r="L94">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K94">
+      <c r="N94">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="M94" t="s">
+      <c r="P94" t="s">
         <v>401</v>
       </c>
-      <c r="N94" t="s">
+      <c r="Q94" t="s">
         <v>870</v>
       </c>
-      <c r="O94" t="s">
+      <c r="R94" t="s">
         <v>871</v>
       </c>
-      <c r="P94">
-        <v>1</v>
-      </c>
-      <c r="Q94" t="s">
+      <c r="S94">
+        <v>1</v>
+      </c>
+      <c r="T94" t="s">
         <v>872</v>
       </c>
-      <c r="R94" t="s">
+      <c r="U94" t="s">
         <v>648</v>
       </c>
-      <c r="S94">
-        <v>1</v>
-      </c>
-      <c r="T94" t="s">
+      <c r="V94">
+        <v>1</v>
+      </c>
+      <c r="W94" t="s">
         <v>873</v>
       </c>
-      <c r="U94" t="s">
+      <c r="X94" t="s">
         <v>874</v>
       </c>
-      <c r="V94">
+      <c r="Y94">
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>237</v>
       </c>
@@ -11234,45 +12108,51 @@
         <v>0.8378068208694458</v>
       </c>
       <c r="I95">
+        <v>0.6</v>
+      </c>
+      <c r="J95" t="s">
+        <v>1011</v>
+      </c>
+      <c r="L95">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K95">
+      <c r="N95">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="M95" t="s">
+      <c r="P95" t="s">
         <v>402</v>
       </c>
-      <c r="N95" t="s">
+      <c r="Q95" t="s">
         <v>875</v>
       </c>
-      <c r="O95" t="s">
+      <c r="R95" t="s">
         <v>876</v>
       </c>
-      <c r="P95">
-        <v>1</v>
-      </c>
-      <c r="Q95" t="s">
+      <c r="S95">
+        <v>1</v>
+      </c>
+      <c r="T95" t="s">
         <v>877</v>
       </c>
-      <c r="R95" t="s">
+      <c r="U95" t="s">
         <v>878</v>
       </c>
-      <c r="S95">
-        <v>1</v>
-      </c>
-      <c r="T95" t="s">
+      <c r="V95">
+        <v>1</v>
+      </c>
+      <c r="W95" t="s">
         <v>879</v>
       </c>
-      <c r="U95" t="s">
+      <c r="X95" t="s">
         <v>880</v>
       </c>
-      <c r="V95">
+      <c r="Y95">
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>235</v>
       </c>
@@ -11292,45 +12172,51 @@
         <v>0.80779844522476196</v>
       </c>
       <c r="I96">
+        <v>0.82352941176470584</v>
+      </c>
+      <c r="J96" t="s">
+        <v>1012</v>
+      </c>
+      <c r="L96">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K96">
+      <c r="N96">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="M96" t="s">
+      <c r="P96" t="s">
         <v>403</v>
       </c>
-      <c r="N96" t="s">
+      <c r="Q96" t="s">
         <v>881</v>
       </c>
-      <c r="O96" t="s">
+      <c r="R96" t="s">
         <v>882</v>
       </c>
-      <c r="P96">
-        <v>1</v>
-      </c>
-      <c r="Q96" t="s">
+      <c r="S96">
+        <v>1</v>
+      </c>
+      <c r="T96" t="s">
         <v>883</v>
       </c>
-      <c r="R96" t="s">
+      <c r="U96" t="s">
         <v>884</v>
       </c>
-      <c r="S96">
-        <v>1</v>
-      </c>
-      <c r="T96" t="s">
+      <c r="V96">
+        <v>1</v>
+      </c>
+      <c r="W96" t="s">
         <v>885</v>
       </c>
-      <c r="U96" t="s">
+      <c r="X96" t="s">
         <v>886</v>
       </c>
-      <c r="V96">
+      <c r="Y96">
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>233</v>
       </c>
@@ -11350,45 +12236,51 @@
         <v>0.85845160484313965</v>
       </c>
       <c r="I97">
+        <v>0.5</v>
+      </c>
+      <c r="J97" t="s">
+        <v>1013</v>
+      </c>
+      <c r="L97">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K97">
+      <c r="N97">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="M97" t="s">
+      <c r="P97" t="s">
         <v>404</v>
       </c>
-      <c r="N97" t="s">
+      <c r="Q97" t="s">
         <v>887</v>
       </c>
-      <c r="O97" t="s">
+      <c r="R97" t="s">
         <v>888</v>
       </c>
-      <c r="P97">
-        <v>1</v>
-      </c>
-      <c r="Q97" t="s">
+      <c r="S97">
+        <v>1</v>
+      </c>
+      <c r="T97" t="s">
         <v>889</v>
       </c>
-      <c r="R97" t="s">
+      <c r="U97" t="s">
         <v>890</v>
       </c>
-      <c r="S97">
-        <v>1</v>
-      </c>
-      <c r="T97" t="s">
+      <c r="V97">
+        <v>1</v>
+      </c>
+      <c r="W97" t="s">
         <v>891</v>
       </c>
-      <c r="U97" t="s">
+      <c r="X97" t="s">
         <v>892</v>
       </c>
-      <c r="V97">
+      <c r="Y97">
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>231</v>
       </c>
@@ -11408,45 +12300,51 @@
         <v>0.83999627828598022</v>
       </c>
       <c r="I98">
+        <v>0.5</v>
+      </c>
+      <c r="J98" t="s">
+        <v>1014</v>
+      </c>
+      <c r="L98">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K98">
+      <c r="N98">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="M98" t="s">
+      <c r="P98" t="s">
         <v>405</v>
       </c>
-      <c r="N98" t="s">
+      <c r="Q98" t="s">
         <v>893</v>
       </c>
-      <c r="O98" t="s">
+      <c r="R98" t="s">
         <v>894</v>
       </c>
-      <c r="P98">
-        <v>1</v>
-      </c>
-      <c r="Q98" t="s">
+      <c r="S98">
+        <v>1</v>
+      </c>
+      <c r="T98" t="s">
         <v>895</v>
       </c>
-      <c r="R98" t="s">
+      <c r="U98" t="s">
         <v>896</v>
       </c>
-      <c r="S98">
-        <v>1</v>
-      </c>
-      <c r="T98" t="s">
+      <c r="V98">
+        <v>1</v>
+      </c>
+      <c r="W98" t="s">
         <v>897</v>
       </c>
-      <c r="U98" t="s">
+      <c r="X98" t="s">
         <v>898</v>
       </c>
-      <c r="V98">
+      <c r="Y98">
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>229</v>
       </c>
@@ -11466,45 +12364,51 @@
         <v>0.84326076507568359</v>
       </c>
       <c r="I99">
+        <v>1</v>
+      </c>
+      <c r="J99" t="s">
+        <v>1015</v>
+      </c>
+      <c r="L99">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K99">
+      <c r="N99">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="M99" t="s">
+      <c r="P99" t="s">
         <v>406</v>
       </c>
-      <c r="N99" t="s">
+      <c r="Q99" t="s">
         <v>899</v>
       </c>
-      <c r="O99" t="s">
+      <c r="R99" t="s">
         <v>900</v>
       </c>
-      <c r="P99">
-        <v>1</v>
-      </c>
-      <c r="Q99" t="s">
+      <c r="S99">
+        <v>1</v>
+      </c>
+      <c r="T99" t="s">
         <v>901</v>
       </c>
-      <c r="R99" t="s">
+      <c r="U99" t="s">
         <v>902</v>
       </c>
-      <c r="S99">
-        <v>1</v>
-      </c>
-      <c r="T99" t="s">
+      <c r="V99">
+        <v>1</v>
+      </c>
+      <c r="W99" t="s">
         <v>903</v>
       </c>
-      <c r="U99" t="s">
+      <c r="X99" t="s">
         <v>904</v>
       </c>
-      <c r="V99">
+      <c r="Y99">
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>227</v>
       </c>
@@ -11524,33 +12428,39 @@
         <v>0.87900078296661377</v>
       </c>
       <c r="I100">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J100" t="s">
+        <v>1016</v>
+      </c>
+      <c r="L100">
         <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="K100">
+      <c r="N100">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="M100" t="s">
+      <c r="P100" t="s">
         <v>407</v>
       </c>
-      <c r="N100" t="s">
+      <c r="Q100" t="s">
         <v>407</v>
       </c>
-      <c r="O100" t="s">
+      <c r="R100" t="s">
         <v>905</v>
       </c>
-      <c r="P100">
-        <v>1</v>
-      </c>
       <c r="S100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V100">
         <v>0</v>
       </c>
+      <c r="Y100">
+        <v>0</v>
+      </c>
     </row>
-    <row r="101" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>390</v>
       </c>
@@ -11570,45 +12480,51 @@
         <v>0.80830812454223633</v>
       </c>
       <c r="I101">
+        <v>0.5</v>
+      </c>
+      <c r="J101" t="s">
+        <v>1017</v>
+      </c>
+      <c r="L101">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K101">
+      <c r="N101">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="M101" t="s">
+      <c r="P101" t="s">
         <v>408</v>
       </c>
-      <c r="N101" t="s">
+      <c r="Q101" t="s">
         <v>906</v>
       </c>
-      <c r="O101" t="s">
+      <c r="R101" t="s">
         <v>907</v>
       </c>
-      <c r="P101">
-        <v>1</v>
-      </c>
-      <c r="Q101" t="s">
+      <c r="S101">
+        <v>1</v>
+      </c>
+      <c r="T101" t="s">
         <v>908</v>
       </c>
-      <c r="R101" t="s">
+      <c r="U101" t="s">
         <v>909</v>
       </c>
-      <c r="S101">
-        <v>1</v>
-      </c>
-      <c r="T101" t="s">
+      <c r="V101">
+        <v>1</v>
+      </c>
+      <c r="W101" t="s">
         <v>910</v>
       </c>
-      <c r="U101" t="s">
+      <c r="X101" t="s">
         <v>911</v>
       </c>
-      <c r="V101">
+      <c r="Y101">
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:25" x14ac:dyDescent="0.3">
       <c r="E103">
         <f>AVERAGE(E2:E101)</f>
         <v>0.82959352254867558</v>
@@ -11622,10 +12538,14 @@
         <v>0.84956942379474643</v>
       </c>
       <c r="I103">
-        <f t="shared" ref="I103:K103" si="5">AVERAGE(I2:I101)</f>
+        <f>AVERAGE(I2:I101)</f>
+        <v>0.81032428387895139</v>
+      </c>
+      <c r="L103">
+        <f t="shared" ref="L103:N103" si="5">AVERAGE(L2:L101)</f>
         <v>0.79999999999999971</v>
       </c>
-      <c r="K103">
+      <c r="N103">
         <f t="shared" si="5"/>
         <v>0.98</v>
       </c>
